--- a/WorshipCreator.TestData/Source/Books/ShaneAndShane/ShaneAndShane.xlsx
+++ b/WorshipCreator.TestData/Source/Books/ShaneAndShane/ShaneAndShane.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\PageOptimizer\Data\WorshipCreator.TestData\Source\Books\ShaneAndShane\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A0E26F-FE24-4980-9EF3-F60A0EA95230}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB89150-8E7E-4481-9135-AB3C2FE5CEBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18360" yWindow="4485" windowWidth="21600" windowHeight="11505" activeTab="1" xr2:uid="{1898BBCD-4A5D-4B3F-9317-061045B18130}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2665" uniqueCount="773">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2673" uniqueCount="773">
   <si>
     <t>G</t>
   </si>
@@ -2535,7 +2535,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2586,6 +2586,7 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3294,7 +3295,9 @@
       <c r="J3" s="24" t="s">
         <v>759</v>
       </c>
-      <c r="K3" s="32"/>
+      <c r="K3" s="34" t="s">
+        <v>770</v>
+      </c>
     </row>
     <row r="4" spans="1:12">
       <c r="B4">
@@ -3322,7 +3325,9 @@
       <c r="J4" s="24" t="s">
         <v>761</v>
       </c>
-      <c r="K4" s="32"/>
+      <c r="K4" s="34" t="s">
+        <v>770</v>
+      </c>
     </row>
     <row r="5" spans="1:12">
       <c r="B5">
@@ -3350,7 +3355,9 @@
       <c r="J5" s="24" t="s">
         <v>760</v>
       </c>
-      <c r="K5" s="32"/>
+      <c r="K5" s="34" t="s">
+        <v>770</v>
+      </c>
     </row>
     <row r="6" spans="1:12">
       <c r="B6">
@@ -3378,7 +3385,9 @@
       <c r="J6" s="24" t="s">
         <v>762</v>
       </c>
-      <c r="K6" s="32"/>
+      <c r="K6" s="34" t="s">
+        <v>770</v>
+      </c>
     </row>
     <row r="7" spans="1:12">
       <c r="B7">
@@ -3439,7 +3448,9 @@
       <c r="J8" s="24">
         <v>40120</v>
       </c>
-      <c r="K8" s="32"/>
+      <c r="K8" s="34" t="s">
+        <v>770</v>
+      </c>
     </row>
     <row r="9" spans="1:12">
       <c r="B9">
@@ -3467,7 +3478,9 @@
       <c r="J9" s="24">
         <v>40470</v>
       </c>
-      <c r="K9" s="32"/>
+      <c r="K9" s="34" t="s">
+        <v>770</v>
+      </c>
     </row>
     <row r="10" spans="1:12">
       <c r="B10">
@@ -3495,7 +3508,9 @@
       <c r="J10" s="31">
         <v>40820</v>
       </c>
-      <c r="K10" s="33"/>
+      <c r="K10" s="33" t="s">
+        <v>770</v>
+      </c>
     </row>
     <row r="11" spans="1:12">
       <c r="B11">
@@ -3523,7 +3538,9 @@
       <c r="J11" s="31">
         <v>41408</v>
       </c>
-      <c r="K11" s="33"/>
+      <c r="K11" s="33" t="s">
+        <v>770</v>
+      </c>
     </row>
     <row r="12" spans="1:12">
       <c r="B12">

--- a/WorshipCreator.TestData/Source/Books/ShaneAndShane/ShaneAndShane.xlsx
+++ b/WorshipCreator.TestData/Source/Books/ShaneAndShane/ShaneAndShane.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\PageOptimizer\Data\WorshipCreator.TestData\Source\Books\ShaneAndShane\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB89150-8E7E-4481-9135-AB3C2FE5CEBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D127E837-D490-4C03-9184-A3DEB1352DBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18360" yWindow="4485" windowWidth="21600" windowHeight="11505" activeTab="1" xr2:uid="{1898BBCD-4A5D-4B3F-9317-061045B18130}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{1898BBCD-4A5D-4B3F-9317-061045B18130}"/>
   </bookViews>
   <sheets>
     <sheet name="Statistics" sheetId="5" r:id="rId1"/>
@@ -1943,9 +1943,6 @@
     <t>Psalms, Vol. 1</t>
   </si>
   <si>
-    <t>Number</t>
-  </si>
-  <si>
     <t>Track</t>
   </si>
   <si>
@@ -2358,6 +2355,9 @@
   </si>
   <si>
     <t>A Worship Initiative Christmas, Vol. 3</t>
+  </si>
+  <si>
+    <t>#</t>
   </si>
 </sst>
 </file>
@@ -3191,6 +3191,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="4.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9.140625" customWidth="1"/>
     <col min="7" max="9" width="9.140625" customWidth="1"/>
@@ -3200,7 +3201,7 @@
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>634</v>
+        <v>772</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>185</v>
@@ -3224,19 +3225,22 @@
         <v>207</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="J1" s="21" t="s">
         <v>631</v>
       </c>
       <c r="K1" s="26" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:12">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2">
         <v>2002</v>
       </c>
@@ -3257,24 +3261,27 @@
         <v>188</v>
       </c>
       <c r="I2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="J2" s="24">
         <v>37411</v>
       </c>
       <c r="K2" s="32" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="L2" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:12">
+      <c r="A3">
+        <v>2</v>
+      </c>
       <c r="B3">
         <v>2003</v>
       </c>
       <c r="C3" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D3">
         <v>13</v>
@@ -3284,27 +3291,30 @@
         <v/>
       </c>
       <c r="F3" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G3" t="s">
         <v>619</v>
       </c>
       <c r="I3" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="J3" s="24" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="K3" s="34" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="4" spans="1:12">
+      <c r="A4">
+        <v>3</v>
+      </c>
       <c r="B4">
         <v>2004</v>
       </c>
       <c r="C4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D4">
         <v>11</v>
@@ -3314,27 +3324,30 @@
         <v/>
       </c>
       <c r="F4" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G4" t="s">
         <v>619</v>
       </c>
       <c r="I4" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="J4" s="24" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="K4" s="34" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="5" spans="1:12">
+      <c r="A5">
+        <v>4</v>
+      </c>
       <c r="B5">
         <v>2004</v>
       </c>
       <c r="C5" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D5">
         <v>10</v>
@@ -3344,27 +3357,30 @@
         <v/>
       </c>
       <c r="F5" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G5" t="s">
         <v>619</v>
       </c>
       <c r="I5" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="J5" s="24" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K5" s="34" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="6" spans="1:12">
+      <c r="A6">
+        <v>5</v>
+      </c>
       <c r="B6">
         <v>2007</v>
       </c>
       <c r="C6" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D6">
         <v>15</v>
@@ -3374,27 +3390,30 @@
         <v/>
       </c>
       <c r="F6" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G6" t="s">
         <v>619</v>
       </c>
       <c r="I6" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="J6" s="24" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="K6" s="34" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="7" spans="1:12">
+      <c r="A7">
+        <v>6</v>
+      </c>
       <c r="B7">
         <v>2008</v>
       </c>
       <c r="C7" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D7">
         <v>10</v>
@@ -3410,24 +3429,27 @@
         <v>219</v>
       </c>
       <c r="I7" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="J7" s="24">
         <v>39735</v>
       </c>
       <c r="K7" s="32" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="L7" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:12">
+      <c r="A8">
+        <v>7</v>
+      </c>
       <c r="B8">
         <v>2009</v>
       </c>
       <c r="C8" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D8">
         <v>15</v>
@@ -3437,27 +3459,30 @@
         <v/>
       </c>
       <c r="F8" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G8" t="s">
         <v>619</v>
       </c>
       <c r="I8" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="J8" s="24">
         <v>40120</v>
       </c>
       <c r="K8" s="34" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="9" spans="1:12">
+      <c r="A9">
+        <v>8</v>
+      </c>
       <c r="B9">
         <v>2010</v>
       </c>
       <c r="C9" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D9">
         <v>10</v>
@@ -3467,27 +3492,30 @@
         <v/>
       </c>
       <c r="F9" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G9" t="s">
         <v>619</v>
       </c>
       <c r="I9" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="J9" s="24">
         <v>40470</v>
       </c>
       <c r="K9" s="34" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="10" spans="1:12">
+      <c r="A10">
+        <v>9</v>
+      </c>
       <c r="B10">
         <v>2011</v>
       </c>
       <c r="C10" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D10">
         <v>12</v>
@@ -3497,27 +3525,30 @@
         <v/>
       </c>
       <c r="F10" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G10" t="s">
         <v>619</v>
       </c>
       <c r="I10" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="J10" s="31">
         <v>40820</v>
       </c>
       <c r="K10" s="33" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="11" spans="1:12">
+      <c r="A11">
+        <v>10</v>
+      </c>
       <c r="B11">
         <v>2013</v>
       </c>
       <c r="C11" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D11">
         <v>11</v>
@@ -3527,22 +3558,25 @@
         <v/>
       </c>
       <c r="F11" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G11" t="s">
         <v>619</v>
       </c>
       <c r="I11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="J11" s="31">
         <v>41408</v>
       </c>
       <c r="K11" s="33" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="12" spans="1:12">
+      <c r="A12">
+        <v>11</v>
+      </c>
       <c r="B12">
         <v>2014</v>
       </c>
@@ -3566,10 +3600,13 @@
         <v>41765</v>
       </c>
       <c r="K12" s="32" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="13" spans="1:12">
+      <c r="A13">
+        <v>12</v>
+      </c>
       <c r="B13">
         <v>2014</v>
       </c>
@@ -3593,10 +3630,13 @@
         <v>41786</v>
       </c>
       <c r="K13" s="32" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="14" spans="1:12">
+      <c r="A14">
+        <v>13</v>
+      </c>
       <c r="B14">
         <v>2014</v>
       </c>
@@ -3620,10 +3660,13 @@
         <v>41807</v>
       </c>
       <c r="K14" s="32" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="15" spans="1:12">
+      <c r="A15">
+        <v>14</v>
+      </c>
       <c r="B15">
         <v>2014</v>
       </c>
@@ -3647,10 +3690,13 @@
         <v>41828</v>
       </c>
       <c r="K15" s="32" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="16" spans="1:12">
+      <c r="A16">
+        <v>15</v>
+      </c>
       <c r="B16">
         <v>2014</v>
       </c>
@@ -3674,10 +3720,13 @@
         <v>41849</v>
       </c>
       <c r="K16" s="32" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17">
+        <v>16</v>
+      </c>
       <c r="B17">
         <v>2014</v>
       </c>
@@ -3701,10 +3750,13 @@
         <v>41872</v>
       </c>
       <c r="K17" s="32" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18">
+        <v>17</v>
+      </c>
       <c r="B18">
         <v>2014</v>
       </c>
@@ -3728,10 +3780,13 @@
         <v>41891</v>
       </c>
       <c r="K18" s="32" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19">
+        <v>18</v>
+      </c>
       <c r="B19">
         <v>2014</v>
       </c>
@@ -3755,10 +3810,13 @@
         <v>41912</v>
       </c>
       <c r="K19" s="32" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20">
+        <v>19</v>
+      </c>
       <c r="B20">
         <v>2014</v>
       </c>
@@ -3782,10 +3840,13 @@
         <v>41933</v>
       </c>
       <c r="K20" s="32" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21">
+        <v>20</v>
+      </c>
       <c r="B21">
         <v>2014</v>
       </c>
@@ -3809,10 +3870,13 @@
         <v>41961</v>
       </c>
       <c r="K21" s="32" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22">
+        <v>21</v>
+      </c>
       <c r="B22">
         <v>2015</v>
       </c>
@@ -3836,10 +3900,13 @@
         <v>42300</v>
       </c>
       <c r="K22" s="32" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23">
+        <v>22</v>
+      </c>
       <c r="B23">
         <v>2015</v>
       </c>
@@ -3863,18 +3930,21 @@
         <v>42122</v>
       </c>
       <c r="K23" s="32" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="L23" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="1:12">
+      <c r="A24">
+        <v>23</v>
+      </c>
       <c r="B24">
         <v>2016</v>
       </c>
       <c r="C24" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D24">
         <v>13</v>
@@ -3890,19 +3960,22 @@
         <v>188</v>
       </c>
       <c r="I24" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="J24" s="24">
         <v>42698</v>
       </c>
       <c r="K24" s="32" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="L24" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="1:12">
+      <c r="A25">
+        <v>24</v>
+      </c>
       <c r="B25">
         <v>2016</v>
       </c>
@@ -3926,10 +3999,13 @@
         <v>42643</v>
       </c>
       <c r="K25" s="32" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26">
+        <v>25</v>
+      </c>
       <c r="B26">
         <v>2017</v>
       </c>
@@ -3953,10 +4029,13 @@
         <v>42839</v>
       </c>
       <c r="K26" s="32" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27">
+        <v>26</v>
+      </c>
       <c r="B27">
         <v>2017</v>
       </c>
@@ -3980,10 +4059,13 @@
         <v>42839</v>
       </c>
       <c r="K27" s="32" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28">
+        <v>27</v>
+      </c>
       <c r="B28">
         <v>2017</v>
       </c>
@@ -4007,10 +4089,13 @@
         <v>42839</v>
       </c>
       <c r="K28" s="32" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29">
+        <v>28</v>
+      </c>
       <c r="B29">
         <v>2017</v>
       </c>
@@ -4034,10 +4119,13 @@
         <v>43000</v>
       </c>
       <c r="K29" s="32" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30">
+        <v>29</v>
+      </c>
       <c r="B30">
         <v>2017</v>
       </c>
@@ -4061,10 +4149,13 @@
         <v>43039</v>
       </c>
       <c r="K30" s="32" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31">
+        <v>30</v>
+      </c>
       <c r="B31">
         <v>2018</v>
       </c>
@@ -4088,10 +4179,13 @@
         <v>43350</v>
       </c>
       <c r="K31" s="32" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32">
+        <v>31</v>
+      </c>
       <c r="B32">
         <v>2018</v>
       </c>
@@ -4115,10 +4209,13 @@
         <v>43700</v>
       </c>
       <c r="K32" s="32" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33">
+        <v>32</v>
+      </c>
       <c r="B33">
         <v>2018</v>
       </c>
@@ -4142,10 +4239,13 @@
         <v>43145</v>
       </c>
       <c r="K33" s="32" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34">
+        <v>33</v>
+      </c>
       <c r="B34">
         <v>2018</v>
       </c>
@@ -4169,10 +4269,13 @@
         <v>43297</v>
       </c>
       <c r="K34" s="32" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35">
+        <v>34</v>
+      </c>
       <c r="B35">
         <v>2019</v>
       </c>
@@ -4196,18 +4299,21 @@
         <v>43504</v>
       </c>
       <c r="K35" s="32" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="L35" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="36" spans="2:12">
+    <row r="36" spans="1:12">
+      <c r="A36">
+        <v>35</v>
+      </c>
       <c r="B36">
         <v>2019</v>
       </c>
       <c r="C36" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D36">
         <v>5</v>
@@ -4223,19 +4329,22 @@
         <v>219</v>
       </c>
       <c r="I36" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="J36" s="24">
         <v>43797</v>
       </c>
       <c r="K36" s="32" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="L36" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="37" spans="2:12">
+    <row r="37" spans="1:12">
+      <c r="A37">
+        <v>36</v>
+      </c>
       <c r="B37">
         <v>2019</v>
       </c>
@@ -4259,10 +4368,13 @@
         <v>43630</v>
       </c>
       <c r="K37" s="32" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38">
+        <v>37</v>
+      </c>
       <c r="B38">
         <v>2020</v>
       </c>
@@ -4286,10 +4398,13 @@
         <v>43847</v>
       </c>
       <c r="K38" s="32" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39">
+        <v>38</v>
+      </c>
       <c r="B39">
         <v>2020</v>
       </c>
@@ -4313,10 +4428,13 @@
         <v>43889</v>
       </c>
       <c r="K39" s="32" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="40" spans="2:12">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40">
+        <v>39</v>
+      </c>
       <c r="B40">
         <v>2020</v>
       </c>
@@ -4340,10 +4458,13 @@
         <v>43924</v>
       </c>
       <c r="K40" s="32" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="41" spans="2:12">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41">
+        <v>40</v>
+      </c>
       <c r="B41">
         <v>2020</v>
       </c>
@@ -4367,10 +4488,13 @@
         <v>44001</v>
       </c>
       <c r="K41" s="32" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42">
+        <v>41</v>
+      </c>
       <c r="B42">
         <v>2020</v>
       </c>
@@ -4394,10 +4518,13 @@
         <v>44099</v>
       </c>
       <c r="K42" s="32" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43">
+        <v>42</v>
+      </c>
       <c r="B43">
         <v>2021</v>
       </c>
@@ -4421,13 +4548,16 @@
         <v>44204</v>
       </c>
       <c r="K43" s="32" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="L43" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="44" spans="2:12">
+    <row r="44" spans="1:12">
+      <c r="A44">
+        <v>43</v>
+      </c>
       <c r="B44">
         <v>2100</v>
       </c>
@@ -4451,7 +4581,10 @@
         <v>194</v>
       </c>
     </row>
-    <row r="45" spans="2:12">
+    <row r="45" spans="1:12">
+      <c r="A45">
+        <v>44</v>
+      </c>
       <c r="B45">
         <v>2100</v>
       </c>
@@ -4490,11 +4623,12 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="4.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
     <col min="3" max="3" width="29.5703125" customWidth="1"/>
     <col min="5" max="5" width="35.5703125" bestFit="1" customWidth="1"/>
@@ -4506,7 +4640,7 @@
   <sheetData>
     <row r="1" spans="1:22" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>634</v>
+        <v>772</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>185</v>
@@ -4515,7 +4649,7 @@
         <v>612</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>30</v>
@@ -4573,7 +4707,12 @@
       </c>
     </row>
     <row r="2" spans="1:22" s="8" customFormat="1">
+      <c r="A2" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C2,Albums!$C:$C,0))</f>
+        <v>1</v>
+      </c>
       <c r="B2">
+        <f>INDEX(Albums!$B:$B, MATCH(C2,Albums!$C:$C,0))</f>
         <v>2002</v>
       </c>
       <c r="C2" t="s">
@@ -4583,7 +4722,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F2" s="30"/>
       <c r="K2" s="23"/>
@@ -4598,7 +4737,12 @@
       <c r="U2" s="10"/>
     </row>
     <row r="3" spans="1:22" s="8" customFormat="1">
+      <c r="A3" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C3,Albums!$C:$C,0))</f>
+        <v>1</v>
+      </c>
       <c r="B3">
+        <f>INDEX(Albums!$B:$B, MATCH(C3,Albums!$C:$C,0))</f>
         <v>2002</v>
       </c>
       <c r="C3" t="s">
@@ -4608,7 +4752,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F3" s="30"/>
       <c r="K3" s="23"/>
@@ -4623,7 +4767,12 @@
       <c r="U3" s="10"/>
     </row>
     <row r="4" spans="1:22" s="8" customFormat="1">
+      <c r="A4" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C4,Albums!$C:$C,0))</f>
+        <v>1</v>
+      </c>
       <c r="B4">
+        <f>INDEX(Albums!$B:$B, MATCH(C4,Albums!$C:$C,0))</f>
         <v>2002</v>
       </c>
       <c r="C4" t="s">
@@ -4633,10 +4782,10 @@
         <v>3</v>
       </c>
       <c r="E4" s="8" t="s">
+        <v>664</v>
+      </c>
+      <c r="F4" s="30" t="s">
         <v>665</v>
-      </c>
-      <c r="F4" s="30" t="s">
-        <v>666</v>
       </c>
       <c r="K4" s="23"/>
       <c r="L4" s="28"/>
@@ -4650,7 +4799,12 @@
       <c r="U4" s="10"/>
     </row>
     <row r="5" spans="1:22" s="8" customFormat="1">
+      <c r="A5" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C5,Albums!$C:$C,0))</f>
+        <v>1</v>
+      </c>
       <c r="B5">
+        <f>INDEX(Albums!$B:$B, MATCH(C5,Albums!$C:$C,0))</f>
         <v>2002</v>
       </c>
       <c r="C5" t="s">
@@ -4660,7 +4814,7 @@
         <v>4</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F5" s="30"/>
       <c r="K5" s="23"/>
@@ -4675,7 +4829,12 @@
       <c r="U5" s="10"/>
     </row>
     <row r="6" spans="1:22" s="8" customFormat="1">
+      <c r="A6" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C6,Albums!$C:$C,0))</f>
+        <v>1</v>
+      </c>
       <c r="B6">
+        <f>INDEX(Albums!$B:$B, MATCH(C6,Albums!$C:$C,0))</f>
         <v>2002</v>
       </c>
       <c r="C6" t="s">
@@ -4700,7 +4859,12 @@
       <c r="U6" s="10"/>
     </row>
     <row r="7" spans="1:22" s="8" customFormat="1">
+      <c r="A7" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C7,Albums!$C:$C,0))</f>
+        <v>1</v>
+      </c>
       <c r="B7">
+        <f>INDEX(Albums!$B:$B, MATCH(C7,Albums!$C:$C,0))</f>
         <v>2002</v>
       </c>
       <c r="C7" t="s">
@@ -4725,7 +4889,12 @@
       <c r="U7" s="10"/>
     </row>
     <row r="8" spans="1:22" s="8" customFormat="1">
+      <c r="A8" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C8,Albums!$C:$C,0))</f>
+        <v>1</v>
+      </c>
       <c r="B8">
+        <f>INDEX(Albums!$B:$B, MATCH(C8,Albums!$C:$C,0))</f>
         <v>2002</v>
       </c>
       <c r="C8" t="s">
@@ -4735,7 +4904,7 @@
         <v>7</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F8" s="30"/>
       <c r="K8" s="23"/>
@@ -4750,7 +4919,12 @@
       <c r="U8" s="10"/>
     </row>
     <row r="9" spans="1:22" s="8" customFormat="1">
+      <c r="A9" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C9,Albums!$C:$C,0))</f>
+        <v>1</v>
+      </c>
       <c r="B9">
+        <f>INDEX(Albums!$B:$B, MATCH(C9,Albums!$C:$C,0))</f>
         <v>2002</v>
       </c>
       <c r="C9" t="s">
@@ -4760,7 +4934,7 @@
         <v>8</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F9" s="30"/>
       <c r="K9" s="23"/>
@@ -4775,7 +4949,12 @@
       <c r="U9" s="10"/>
     </row>
     <row r="10" spans="1:22" s="8" customFormat="1">
+      <c r="A10" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C10,Albums!$C:$C,0))</f>
+        <v>1</v>
+      </c>
       <c r="B10">
+        <f>INDEX(Albums!$B:$B, MATCH(C10,Albums!$C:$C,0))</f>
         <v>2002</v>
       </c>
       <c r="C10" t="s">
@@ -4785,10 +4964,10 @@
         <v>9</v>
       </c>
       <c r="E10" s="8" t="s">
+        <v>666</v>
+      </c>
+      <c r="F10" s="30" t="s">
         <v>667</v>
-      </c>
-      <c r="F10" s="30" t="s">
-        <v>668</v>
       </c>
       <c r="K10" s="23"/>
       <c r="L10" s="28"/>
@@ -4802,7 +4981,12 @@
       <c r="U10" s="10"/>
     </row>
     <row r="11" spans="1:22" s="8" customFormat="1">
+      <c r="A11" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C11,Albums!$C:$C,0))</f>
+        <v>1</v>
+      </c>
       <c r="B11">
+        <f>INDEX(Albums!$B:$B, MATCH(C11,Albums!$C:$C,0))</f>
         <v>2002</v>
       </c>
       <c r="C11" t="s">
@@ -4812,7 +4996,7 @@
         <v>10</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F11" s="30"/>
       <c r="K11" s="23"/>
@@ -4827,7 +5011,12 @@
       <c r="U11" s="10"/>
     </row>
     <row r="12" spans="1:22" s="8" customFormat="1">
+      <c r="A12" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C12,Albums!$C:$C,0))</f>
+        <v>1</v>
+      </c>
       <c r="B12">
+        <f>INDEX(Albums!$B:$B, MATCH(C12,Albums!$C:$C,0))</f>
         <v>2002</v>
       </c>
       <c r="C12" t="s">
@@ -4837,7 +5026,7 @@
         <v>11</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F12" s="30"/>
       <c r="K12" s="23"/>
@@ -4852,7 +5041,12 @@
       <c r="U12" s="10"/>
     </row>
     <row r="13" spans="1:22" s="8" customFormat="1">
+      <c r="A13" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C13,Albums!$C:$C,0))</f>
+        <v>1</v>
+      </c>
       <c r="B13">
+        <f>INDEX(Albums!$B:$B, MATCH(C13,Albums!$C:$C,0))</f>
         <v>2002</v>
       </c>
       <c r="C13" t="s">
@@ -4862,7 +5056,7 @@
         <v>12</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F13" s="30"/>
       <c r="K13" s="23"/>
@@ -4877,7 +5071,12 @@
       <c r="U13" s="10"/>
     </row>
     <row r="14" spans="1:22" s="8" customFormat="1">
+      <c r="A14" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C14,Albums!$C:$C,0))</f>
+        <v>1</v>
+      </c>
       <c r="B14">
+        <f>INDEX(Albums!$B:$B, MATCH(C14,Albums!$C:$C,0))</f>
         <v>2002</v>
       </c>
       <c r="C14" t="s">
@@ -4887,7 +5086,7 @@
         <v>13</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F14" s="30"/>
       <c r="K14" s="23"/>
@@ -4902,18 +5101,22 @@
       <c r="U14" s="10"/>
     </row>
     <row r="15" spans="1:22" s="8" customFormat="1">
-      <c r="A15"/>
+      <c r="A15" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C15,Albums!$C:$C,0))</f>
+        <v>2</v>
+      </c>
       <c r="B15">
+        <f>INDEX(Albums!$B:$B, MATCH(C15,Albums!$C:$C,0))</f>
         <v>2003</v>
       </c>
       <c r="C15" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F15"/>
       <c r="G15"/>
@@ -4932,18 +5135,22 @@
       <c r="V15"/>
     </row>
     <row r="16" spans="1:22" s="8" customFormat="1">
-      <c r="A16"/>
+      <c r="A16" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C16,Albums!$C:$C,0))</f>
+        <v>2</v>
+      </c>
       <c r="B16">
+        <f>INDEX(Albums!$B:$B, MATCH(C16,Albums!$C:$C,0))</f>
         <v>2003</v>
       </c>
       <c r="C16" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D16">
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="F16"/>
       <c r="G16"/>
@@ -4962,18 +5169,22 @@
       <c r="V16"/>
     </row>
     <row r="17" spans="1:22" s="8" customFormat="1">
-      <c r="A17"/>
+      <c r="A17" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C17,Albums!$C:$C,0))</f>
+        <v>2</v>
+      </c>
       <c r="B17">
+        <f>INDEX(Albums!$B:$B, MATCH(C17,Albums!$C:$C,0))</f>
         <v>2003</v>
       </c>
       <c r="C17" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D17">
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F17"/>
       <c r="G17"/>
@@ -4992,18 +5203,22 @@
       <c r="V17"/>
     </row>
     <row r="18" spans="1:22" s="8" customFormat="1">
-      <c r="A18"/>
+      <c r="A18" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C18,Albums!$C:$C,0))</f>
+        <v>2</v>
+      </c>
       <c r="B18">
+        <f>INDEX(Albums!$B:$B, MATCH(C18,Albums!$C:$C,0))</f>
         <v>2003</v>
       </c>
       <c r="C18" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D18">
         <v>4</v>
       </c>
       <c r="E18" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F18"/>
       <c r="G18"/>
@@ -5022,18 +5237,22 @@
       <c r="V18"/>
     </row>
     <row r="19" spans="1:22" s="8" customFormat="1">
-      <c r="A19"/>
+      <c r="A19" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C19,Albums!$C:$C,0))</f>
+        <v>2</v>
+      </c>
       <c r="B19">
+        <f>INDEX(Albums!$B:$B, MATCH(C19,Albums!$C:$C,0))</f>
         <v>2003</v>
       </c>
       <c r="C19" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D19">
         <v>5</v>
       </c>
       <c r="E19" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F19"/>
       <c r="G19"/>
@@ -5052,18 +5271,22 @@
       <c r="V19"/>
     </row>
     <row r="20" spans="1:22" s="8" customFormat="1">
-      <c r="A20"/>
+      <c r="A20" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C20,Albums!$C:$C,0))</f>
+        <v>2</v>
+      </c>
       <c r="B20">
+        <f>INDEX(Albums!$B:$B, MATCH(C20,Albums!$C:$C,0))</f>
         <v>2003</v>
       </c>
       <c r="C20" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D20">
         <v>6</v>
       </c>
       <c r="E20" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="F20"/>
       <c r="G20"/>
@@ -5082,22 +5305,26 @@
       <c r="V20"/>
     </row>
     <row r="21" spans="1:22" s="8" customFormat="1">
-      <c r="A21"/>
+      <c r="A21" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C21,Albums!$C:$C,0))</f>
+        <v>2</v>
+      </c>
       <c r="B21">
+        <f>INDEX(Albums!$B:$B, MATCH(C21,Albums!$C:$C,0))</f>
         <v>2003</v>
       </c>
       <c r="C21" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D21">
         <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="F21"/>
       <c r="G21" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H21"/>
       <c r="K21" s="23"/>
@@ -5114,22 +5341,26 @@
       <c r="V21"/>
     </row>
     <row r="22" spans="1:22" s="8" customFormat="1">
-      <c r="A22"/>
+      <c r="A22" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C22,Albums!$C:$C,0))</f>
+        <v>2</v>
+      </c>
       <c r="B22">
+        <f>INDEX(Albums!$B:$B, MATCH(C22,Albums!$C:$C,0))</f>
         <v>2003</v>
       </c>
       <c r="C22" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D22">
         <v>8</v>
       </c>
       <c r="E22" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F22"/>
       <c r="G22" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H22"/>
       <c r="K22" s="23"/>
@@ -5146,22 +5377,26 @@
       <c r="V22"/>
     </row>
     <row r="23" spans="1:22" s="8" customFormat="1">
-      <c r="A23"/>
+      <c r="A23" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C23,Albums!$C:$C,0))</f>
+        <v>2</v>
+      </c>
       <c r="B23">
+        <f>INDEX(Albums!$B:$B, MATCH(C23,Albums!$C:$C,0))</f>
         <v>2003</v>
       </c>
       <c r="C23" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D23">
         <v>9</v>
       </c>
       <c r="E23" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F23"/>
       <c r="G23" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H23"/>
       <c r="K23" s="23"/>
@@ -5178,18 +5413,22 @@
       <c r="V23"/>
     </row>
     <row r="24" spans="1:22" s="8" customFormat="1">
-      <c r="A24"/>
+      <c r="A24" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C24,Albums!$C:$C,0))</f>
+        <v>2</v>
+      </c>
       <c r="B24">
+        <f>INDEX(Albums!$B:$B, MATCH(C24,Albums!$C:$C,0))</f>
         <v>2003</v>
       </c>
       <c r="C24" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D24">
         <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F24"/>
       <c r="G24"/>
@@ -5208,101 +5447,131 @@
       <c r="V24"/>
     </row>
     <row r="25" spans="1:22">
+      <c r="A25" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C25,Albums!$C:$C,0))</f>
+        <v>2</v>
+      </c>
       <c r="B25">
+        <f>INDEX(Albums!$B:$B, MATCH(C25,Albums!$C:$C,0))</f>
         <v>2003</v>
       </c>
       <c r="C25" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D25">
         <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H25"/>
     </row>
     <row r="26" spans="1:22">
+      <c r="A26" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C26,Albums!$C:$C,0))</f>
+        <v>2</v>
+      </c>
       <c r="B26">
+        <f>INDEX(Albums!$B:$B, MATCH(C26,Albums!$C:$C,0))</f>
         <v>2003</v>
       </c>
       <c r="C26" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D26">
         <v>12</v>
       </c>
       <c r="E26" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H26"/>
     </row>
     <row r="27" spans="1:22">
+      <c r="A27" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C27,Albums!$C:$C,0))</f>
+        <v>2</v>
+      </c>
       <c r="B27">
+        <f>INDEX(Albums!$B:$B, MATCH(C27,Albums!$C:$C,0))</f>
         <v>2003</v>
       </c>
       <c r="C27" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D27">
         <v>13</v>
       </c>
       <c r="E27" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F27" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H27"/>
     </row>
     <row r="28" spans="1:22">
+      <c r="A28" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C28,Albums!$C:$C,0))</f>
+        <v>3</v>
+      </c>
       <c r="B28">
+        <f>INDEX(Albums!$B:$B, MATCH(C28,Albums!$C:$C,0))</f>
         <v>2004</v>
       </c>
       <c r="C28" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="G28" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H28"/>
     </row>
     <row r="29" spans="1:22">
+      <c r="A29" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C29,Albums!$C:$C,0))</f>
+        <v>3</v>
+      </c>
       <c r="B29">
+        <f>INDEX(Albums!$B:$B, MATCH(C29,Albums!$C:$C,0))</f>
         <v>2004</v>
       </c>
       <c r="C29" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D29">
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="G29" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H29"/>
     </row>
     <row r="30" spans="1:22">
+      <c r="A30" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C30,Albums!$C:$C,0))</f>
+        <v>3</v>
+      </c>
       <c r="B30">
+        <f>INDEX(Albums!$B:$B, MATCH(C30,Albums!$C:$C,0))</f>
         <v>2004</v>
       </c>
       <c r="C30" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D30">
         <v>3</v>
       </c>
       <c r="E30" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="G30" t="s">
         <v>339</v>
@@ -5310,65 +5579,85 @@
       <c r="H30"/>
     </row>
     <row r="31" spans="1:22">
+      <c r="A31" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C31,Albums!$C:$C,0))</f>
+        <v>3</v>
+      </c>
       <c r="B31">
+        <f>INDEX(Albums!$B:$B, MATCH(C31,Albums!$C:$C,0))</f>
         <v>2004</v>
       </c>
       <c r="C31" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D31">
         <v>4</v>
       </c>
       <c r="E31" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="G31" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H31"/>
     </row>
     <row r="32" spans="1:22">
+      <c r="A32" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C32,Albums!$C:$C,0))</f>
+        <v>3</v>
+      </c>
       <c r="B32">
+        <f>INDEX(Albums!$B:$B, MATCH(C32,Albums!$C:$C,0))</f>
         <v>2004</v>
       </c>
       <c r="C32" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D32">
         <v>5</v>
       </c>
       <c r="E32" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="G32" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H32"/>
     </row>
-    <row r="33" spans="2:8">
+    <row r="33" spans="1:8">
+      <c r="A33" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C33,Albums!$C:$C,0))</f>
+        <v>3</v>
+      </c>
       <c r="B33">
+        <f>INDEX(Albums!$B:$B, MATCH(C33,Albums!$C:$C,0))</f>
         <v>2004</v>
       </c>
       <c r="C33" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D33">
         <v>6</v>
       </c>
       <c r="E33" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="G33" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H33"/>
     </row>
-    <row r="34" spans="2:8">
+    <row r="34" spans="1:8">
+      <c r="A34" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C34,Albums!$C:$C,0))</f>
+        <v>3</v>
+      </c>
       <c r="B34">
+        <f>INDEX(Albums!$B:$B, MATCH(C34,Albums!$C:$C,0))</f>
         <v>2004</v>
       </c>
       <c r="C34" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D34">
         <v>7</v>
@@ -5377,85 +5666,110 @@
         <v>329</v>
       </c>
       <c r="G34" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H34"/>
     </row>
-    <row r="35" spans="2:8">
+    <row r="35" spans="1:8">
+      <c r="A35" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C35,Albums!$C:$C,0))</f>
+        <v>3</v>
+      </c>
       <c r="B35">
+        <f>INDEX(Albums!$B:$B, MATCH(C35,Albums!$C:$C,0))</f>
         <v>2004</v>
       </c>
       <c r="C35" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D35">
         <v>8</v>
       </c>
       <c r="E35" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="G35" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H35"/>
     </row>
-    <row r="36" spans="2:8">
+    <row r="36" spans="1:8">
+      <c r="A36" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C36,Albums!$C:$C,0))</f>
+        <v>3</v>
+      </c>
       <c r="B36">
+        <f>INDEX(Albums!$B:$B, MATCH(C36,Albums!$C:$C,0))</f>
         <v>2004</v>
       </c>
       <c r="C36" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D36">
         <v>9</v>
       </c>
       <c r="E36" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="G36" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H36"/>
     </row>
-    <row r="37" spans="2:8">
+    <row r="37" spans="1:8">
+      <c r="A37" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C37,Albums!$C:$C,0))</f>
+        <v>3</v>
+      </c>
       <c r="B37">
+        <f>INDEX(Albums!$B:$B, MATCH(C37,Albums!$C:$C,0))</f>
         <v>2004</v>
       </c>
       <c r="C37" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D37">
         <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H37"/>
     </row>
-    <row r="38" spans="2:8">
+    <row r="38" spans="1:8">
+      <c r="A38" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C38,Albums!$C:$C,0))</f>
+        <v>3</v>
+      </c>
       <c r="B38">
+        <f>INDEX(Albums!$B:$B, MATCH(C38,Albums!$C:$C,0))</f>
         <v>2004</v>
       </c>
       <c r="C38" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D38">
         <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G38" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H38"/>
     </row>
-    <row r="39" spans="2:8">
+    <row r="39" spans="1:8">
+      <c r="A39" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C39,Albums!$C:$C,0))</f>
+        <v>4</v>
+      </c>
       <c r="B39">
+        <f>INDEX(Albums!$B:$B, MATCH(C39,Albums!$C:$C,0))</f>
         <v>2004</v>
       </c>
       <c r="C39" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -5465,123 +5779,163 @@
       </c>
       <c r="H39"/>
     </row>
-    <row r="40" spans="2:8">
+    <row r="40" spans="1:8">
+      <c r="A40" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C40,Albums!$C:$C,0))</f>
+        <v>4</v>
+      </c>
       <c r="B40">
+        <f>INDEX(Albums!$B:$B, MATCH(C40,Albums!$C:$C,0))</f>
         <v>2004</v>
       </c>
       <c r="C40" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D40">
         <v>2</v>
       </c>
       <c r="E40" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H40"/>
     </row>
-    <row r="41" spans="2:8">
+    <row r="41" spans="1:8">
+      <c r="A41" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C41,Albums!$C:$C,0))</f>
+        <v>4</v>
+      </c>
       <c r="B41">
+        <f>INDEX(Albums!$B:$B, MATCH(C41,Albums!$C:$C,0))</f>
         <v>2004</v>
       </c>
       <c r="C41" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D41">
         <v>3</v>
       </c>
       <c r="E41" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="G41" t="s">
+        <v>671</v>
+      </c>
+      <c r="H41"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C42,Albums!$C:$C,0))</f>
+        <v>4</v>
+      </c>
+      <c r="B42">
+        <f>INDEX(Albums!$B:$B, MATCH(C42,Albums!$C:$C,0))</f>
+        <v>2004</v>
+      </c>
+      <c r="C42" t="s">
         <v>672</v>
-      </c>
-      <c r="H41"/>
-    </row>
-    <row r="42" spans="2:8">
-      <c r="B42">
-        <v>2004</v>
-      </c>
-      <c r="C42" t="s">
-        <v>673</v>
       </c>
       <c r="D42">
         <v>4</v>
       </c>
       <c r="E42" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="H42"/>
     </row>
-    <row r="43" spans="2:8">
+    <row r="43" spans="1:8">
+      <c r="A43" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C43,Albums!$C:$C,0))</f>
+        <v>4</v>
+      </c>
       <c r="B43">
+        <f>INDEX(Albums!$B:$B, MATCH(C43,Albums!$C:$C,0))</f>
         <v>2004</v>
       </c>
       <c r="C43" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D43">
         <v>5</v>
       </c>
       <c r="E43" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="G43" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H43"/>
     </row>
-    <row r="44" spans="2:8">
+    <row r="44" spans="1:8">
+      <c r="A44" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C44,Albums!$C:$C,0))</f>
+        <v>4</v>
+      </c>
       <c r="B44">
+        <f>INDEX(Albums!$B:$B, MATCH(C44,Albums!$C:$C,0))</f>
         <v>2004</v>
       </c>
       <c r="C44" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D44">
         <v>6</v>
       </c>
       <c r="E44" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="H44"/>
     </row>
-    <row r="45" spans="2:8">
+    <row r="45" spans="1:8">
+      <c r="A45" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C45,Albums!$C:$C,0))</f>
+        <v>4</v>
+      </c>
       <c r="B45">
+        <f>INDEX(Albums!$B:$B, MATCH(C45,Albums!$C:$C,0))</f>
         <v>2004</v>
       </c>
       <c r="C45" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D45">
         <v>7</v>
       </c>
       <c r="E45" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H45"/>
     </row>
-    <row r="46" spans="2:8">
+    <row r="46" spans="1:8">
+      <c r="A46" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C46,Albums!$C:$C,0))</f>
+        <v>4</v>
+      </c>
       <c r="B46">
+        <f>INDEX(Albums!$B:$B, MATCH(C46,Albums!$C:$C,0))</f>
         <v>2004</v>
       </c>
       <c r="C46" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D46">
         <v>8</v>
       </c>
       <c r="E46" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H46"/>
     </row>
-    <row r="47" spans="2:8">
+    <row r="47" spans="1:8">
+      <c r="A47" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C47,Albums!$C:$C,0))</f>
+        <v>4</v>
+      </c>
       <c r="B47">
+        <f>INDEX(Albums!$B:$B, MATCH(C47,Albums!$C:$C,0))</f>
         <v>2004</v>
       </c>
       <c r="C47" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D47">
         <v>9</v>
@@ -5591,253 +5945,337 @@
       </c>
       <c r="H47"/>
     </row>
-    <row r="48" spans="2:8">
+    <row r="48" spans="1:8">
+      <c r="A48" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C48,Albums!$C:$C,0))</f>
+        <v>4</v>
+      </c>
       <c r="B48">
+        <f>INDEX(Albums!$B:$B, MATCH(C48,Albums!$C:$C,0))</f>
         <v>2004</v>
       </c>
       <c r="C48" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D48">
         <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H48"/>
     </row>
     <row r="49" spans="1:22">
+      <c r="A49" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C49,Albums!$C:$C,0))</f>
+        <v>5</v>
+      </c>
       <c r="B49">
+        <f>INDEX(Albums!$B:$B, MATCH(C49,Albums!$C:$C,0))</f>
         <v>2007</v>
       </c>
       <c r="C49" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D49">
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="H49"/>
     </row>
     <row r="50" spans="1:22">
+      <c r="A50" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C50,Albums!$C:$C,0))</f>
+        <v>5</v>
+      </c>
       <c r="B50">
+        <f>INDEX(Albums!$B:$B, MATCH(C50,Albums!$C:$C,0))</f>
         <v>2007</v>
       </c>
       <c r="C50" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D50">
         <v>2</v>
       </c>
       <c r="E50" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H50"/>
     </row>
     <row r="51" spans="1:22">
+      <c r="A51" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C51,Albums!$C:$C,0))</f>
+        <v>5</v>
+      </c>
       <c r="B51">
+        <f>INDEX(Albums!$B:$B, MATCH(C51,Albums!$C:$C,0))</f>
         <v>2007</v>
       </c>
       <c r="C51" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D51">
         <v>3</v>
       </c>
       <c r="E51" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H51"/>
     </row>
     <row r="52" spans="1:22">
+      <c r="A52" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C52,Albums!$C:$C,0))</f>
+        <v>5</v>
+      </c>
       <c r="B52">
+        <f>INDEX(Albums!$B:$B, MATCH(C52,Albums!$C:$C,0))</f>
         <v>2007</v>
       </c>
       <c r="C52" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D52">
         <v>4</v>
       </c>
       <c r="E52" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H52"/>
     </row>
     <row r="53" spans="1:22">
+      <c r="A53" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C53,Albums!$C:$C,0))</f>
+        <v>5</v>
+      </c>
       <c r="B53">
+        <f>INDEX(Albums!$B:$B, MATCH(C53,Albums!$C:$C,0))</f>
         <v>2007</v>
       </c>
       <c r="C53" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D53">
         <v>5</v>
       </c>
       <c r="E53" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H53"/>
     </row>
     <row r="54" spans="1:22">
+      <c r="A54" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C54,Albums!$C:$C,0))</f>
+        <v>5</v>
+      </c>
       <c r="B54">
+        <f>INDEX(Albums!$B:$B, MATCH(C54,Albums!$C:$C,0))</f>
         <v>2007</v>
       </c>
       <c r="C54" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D54">
         <v>6</v>
       </c>
       <c r="E54" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H54"/>
     </row>
     <row r="55" spans="1:22">
+      <c r="A55" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C55,Albums!$C:$C,0))</f>
+        <v>5</v>
+      </c>
       <c r="B55">
+        <f>INDEX(Albums!$B:$B, MATCH(C55,Albums!$C:$C,0))</f>
         <v>2007</v>
       </c>
       <c r="C55" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D55">
         <v>7</v>
       </c>
       <c r="E55" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H55"/>
     </row>
     <row r="56" spans="1:22">
+      <c r="A56" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C56,Albums!$C:$C,0))</f>
+        <v>5</v>
+      </c>
       <c r="B56">
+        <f>INDEX(Albums!$B:$B, MATCH(C56,Albums!$C:$C,0))</f>
         <v>2007</v>
       </c>
       <c r="C56" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D56">
         <v>8</v>
       </c>
       <c r="E56" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H56"/>
     </row>
     <row r="57" spans="1:22">
+      <c r="A57" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C57,Albums!$C:$C,0))</f>
+        <v>5</v>
+      </c>
       <c r="B57">
+        <f>INDEX(Albums!$B:$B, MATCH(C57,Albums!$C:$C,0))</f>
         <v>2007</v>
       </c>
       <c r="C57" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D57">
         <v>9</v>
       </c>
       <c r="E57" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H57"/>
     </row>
     <row r="58" spans="1:22">
+      <c r="A58" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C58,Albums!$C:$C,0))</f>
+        <v>5</v>
+      </c>
       <c r="B58">
+        <f>INDEX(Albums!$B:$B, MATCH(C58,Albums!$C:$C,0))</f>
         <v>2007</v>
       </c>
       <c r="C58" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D58">
         <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H58"/>
     </row>
     <row r="59" spans="1:22">
+      <c r="A59" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C59,Albums!$C:$C,0))</f>
+        <v>5</v>
+      </c>
       <c r="B59">
+        <f>INDEX(Albums!$B:$B, MATCH(C59,Albums!$C:$C,0))</f>
         <v>2007</v>
       </c>
       <c r="C59" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D59">
         <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H59"/>
     </row>
     <row r="60" spans="1:22">
+      <c r="A60" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C60,Albums!$C:$C,0))</f>
+        <v>5</v>
+      </c>
       <c r="B60">
+        <f>INDEX(Albums!$B:$B, MATCH(C60,Albums!$C:$C,0))</f>
         <v>2007</v>
       </c>
       <c r="C60" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D60">
         <v>12</v>
       </c>
       <c r="E60" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H60"/>
     </row>
     <row r="61" spans="1:22">
+      <c r="A61" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C61,Albums!$C:$C,0))</f>
+        <v>5</v>
+      </c>
       <c r="B61">
+        <f>INDEX(Albums!$B:$B, MATCH(C61,Albums!$C:$C,0))</f>
         <v>2007</v>
       </c>
       <c r="C61" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D61">
         <v>13</v>
       </c>
       <c r="E61" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H61"/>
     </row>
     <row r="62" spans="1:22">
+      <c r="A62" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C62,Albums!$C:$C,0))</f>
+        <v>5</v>
+      </c>
       <c r="B62">
+        <f>INDEX(Albums!$B:$B, MATCH(C62,Albums!$C:$C,0))</f>
         <v>2007</v>
       </c>
       <c r="C62" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D62">
         <v>14</v>
       </c>
       <c r="E62" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H62"/>
     </row>
     <row r="63" spans="1:22">
+      <c r="A63" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C63,Albums!$C:$C,0))</f>
+        <v>5</v>
+      </c>
       <c r="B63">
+        <f>INDEX(Albums!$B:$B, MATCH(C63,Albums!$C:$C,0))</f>
         <v>2007</v>
       </c>
       <c r="C63" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D63">
         <v>15</v>
       </c>
       <c r="E63" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H63"/>
     </row>
     <row r="64" spans="1:22">
-      <c r="A64" s="8"/>
+      <c r="A64" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C64,Albums!$C:$C,0))</f>
+        <v>6</v>
+      </c>
       <c r="B64">
+        <f>INDEX(Albums!$B:$B, MATCH(C64,Albums!$C:$C,0))</f>
         <v>2008</v>
       </c>
       <c r="C64" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D64" s="8">
         <v>1</v>
@@ -5860,12 +6298,16 @@
       <c r="V64" s="8"/>
     </row>
     <row r="65" spans="1:22">
-      <c r="A65" s="8"/>
+      <c r="A65" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C65,Albums!$C:$C,0))</f>
+        <v>6</v>
+      </c>
       <c r="B65">
+        <f>INDEX(Albums!$B:$B, MATCH(C65,Albums!$C:$C,0))</f>
         <v>2008</v>
       </c>
       <c r="C65" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D65" s="8">
         <v>2</v>
@@ -5888,12 +6330,16 @@
       <c r="V65" s="8"/>
     </row>
     <row r="66" spans="1:22">
-      <c r="A66" s="8"/>
+      <c r="A66" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C66,Albums!$C:$C,0))</f>
+        <v>6</v>
+      </c>
       <c r="B66">
+        <f>INDEX(Albums!$B:$B, MATCH(C66,Albums!$C:$C,0))</f>
         <v>2008</v>
       </c>
       <c r="C66" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D66" s="8">
         <v>3</v>
@@ -5916,22 +6362,26 @@
       <c r="V66" s="8"/>
     </row>
     <row r="67" spans="1:22">
-      <c r="A67" s="8"/>
+      <c r="A67" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C67,Albums!$C:$C,0))</f>
+        <v>6</v>
+      </c>
       <c r="B67">
+        <f>INDEX(Albums!$B:$B, MATCH(C67,Albums!$C:$C,0))</f>
         <v>2008</v>
       </c>
       <c r="C67" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D67" s="8">
         <v>4</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F67" s="8"/>
       <c r="G67" s="8" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="L67" s="28"/>
       <c r="M67" s="8"/>
@@ -5946,18 +6396,22 @@
       <c r="V67" s="8"/>
     </row>
     <row r="68" spans="1:22">
-      <c r="A68" s="8"/>
+      <c r="A68" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C68,Albums!$C:$C,0))</f>
+        <v>6</v>
+      </c>
       <c r="B68">
+        <f>INDEX(Albums!$B:$B, MATCH(C68,Albums!$C:$C,0))</f>
         <v>2008</v>
       </c>
       <c r="C68" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D68" s="8">
         <v>5</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
@@ -5974,12 +6428,16 @@
       <c r="V68" s="8"/>
     </row>
     <row r="69" spans="1:22">
-      <c r="A69" s="8"/>
+      <c r="A69" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C69,Albums!$C:$C,0))</f>
+        <v>6</v>
+      </c>
       <c r="B69">
+        <f>INDEX(Albums!$B:$B, MATCH(C69,Albums!$C:$C,0))</f>
         <v>2008</v>
       </c>
       <c r="C69" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D69" s="8">
         <v>6</v>
@@ -6002,22 +6460,26 @@
       <c r="V69" s="8"/>
     </row>
     <row r="70" spans="1:22">
-      <c r="A70" s="8"/>
+      <c r="A70" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C70,Albums!$C:$C,0))</f>
+        <v>6</v>
+      </c>
       <c r="B70">
+        <f>INDEX(Albums!$B:$B, MATCH(C70,Albums!$C:$C,0))</f>
         <v>2008</v>
       </c>
       <c r="C70" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D70" s="8">
         <v>7</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F70" s="8"/>
       <c r="G70" s="8" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="L70" s="28"/>
       <c r="M70" s="8"/>
@@ -6032,22 +6494,26 @@
       <c r="V70" s="8"/>
     </row>
     <row r="71" spans="1:22">
-      <c r="A71" s="8"/>
+      <c r="A71" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C71,Albums!$C:$C,0))</f>
+        <v>6</v>
+      </c>
       <c r="B71">
+        <f>INDEX(Albums!$B:$B, MATCH(C71,Albums!$C:$C,0))</f>
         <v>2008</v>
       </c>
       <c r="C71" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D71" s="8">
         <v>8</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F71" s="8"/>
       <c r="G71" s="8" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="L71" s="28"/>
       <c r="M71" s="8"/>
@@ -6062,22 +6528,26 @@
       <c r="V71" s="8"/>
     </row>
     <row r="72" spans="1:22">
-      <c r="A72" s="8"/>
+      <c r="A72" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C72,Albums!$C:$C,0))</f>
+        <v>6</v>
+      </c>
       <c r="B72">
+        <f>INDEX(Albums!$B:$B, MATCH(C72,Albums!$C:$C,0))</f>
         <v>2008</v>
       </c>
       <c r="C72" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D72" s="8">
         <v>9</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F72" s="8"/>
       <c r="G72" s="8" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="L72" s="28"/>
       <c r="M72" s="8"/>
@@ -6092,18 +6562,22 @@
       <c r="V72" s="8"/>
     </row>
     <row r="73" spans="1:22">
-      <c r="A73" s="8"/>
+      <c r="A73" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C73,Albums!$C:$C,0))</f>
+        <v>6</v>
+      </c>
       <c r="B73">
+        <f>INDEX(Albums!$B:$B, MATCH(C73,Albums!$C:$C,0))</f>
         <v>2008</v>
       </c>
       <c r="C73" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D73" s="8">
         <v>10</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
@@ -6120,41 +6594,56 @@
       <c r="V73" s="8"/>
     </row>
     <row r="74" spans="1:22">
+      <c r="A74" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C74,Albums!$C:$C,0))</f>
+        <v>7</v>
+      </c>
       <c r="B74">
+        <f>INDEX(Albums!$B:$B, MATCH(C74,Albums!$C:$C,0))</f>
         <v>2009</v>
       </c>
       <c r="C74" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D74">
         <v>1</v>
       </c>
       <c r="E74" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H74"/>
     </row>
     <row r="75" spans="1:22">
+      <c r="A75" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C75,Albums!$C:$C,0))</f>
+        <v>7</v>
+      </c>
       <c r="B75">
+        <f>INDEX(Albums!$B:$B, MATCH(C75,Albums!$C:$C,0))</f>
         <v>2009</v>
       </c>
       <c r="C75" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D75">
         <v>2</v>
       </c>
       <c r="E75" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H75"/>
     </row>
     <row r="76" spans="1:22">
+      <c r="A76" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C76,Albums!$C:$C,0))</f>
+        <v>7</v>
+      </c>
       <c r="B76">
+        <f>INDEX(Albums!$B:$B, MATCH(C76,Albums!$C:$C,0))</f>
         <v>2009</v>
       </c>
       <c r="C76" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D76">
         <v>3</v>
@@ -6163,16 +6652,21 @@
         <v>273</v>
       </c>
       <c r="G76" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H76"/>
     </row>
     <row r="77" spans="1:22">
+      <c r="A77" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C77,Albums!$C:$C,0))</f>
+        <v>7</v>
+      </c>
       <c r="B77">
+        <f>INDEX(Albums!$B:$B, MATCH(C77,Albums!$C:$C,0))</f>
         <v>2009</v>
       </c>
       <c r="C77" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D77">
         <v>4</v>
@@ -6183,233 +6677,303 @@
       <c r="H77"/>
     </row>
     <row r="78" spans="1:22">
+      <c r="A78" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C78,Albums!$C:$C,0))</f>
+        <v>7</v>
+      </c>
       <c r="B78">
+        <f>INDEX(Albums!$B:$B, MATCH(C78,Albums!$C:$C,0))</f>
         <v>2009</v>
       </c>
       <c r="C78" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D78">
         <v>5</v>
       </c>
       <c r="E78" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H78"/>
     </row>
     <row r="79" spans="1:22">
+      <c r="A79" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C79,Albums!$C:$C,0))</f>
+        <v>7</v>
+      </c>
       <c r="B79">
+        <f>INDEX(Albums!$B:$B, MATCH(C79,Albums!$C:$C,0))</f>
         <v>2009</v>
       </c>
       <c r="C79" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D79">
         <v>6</v>
       </c>
       <c r="E79" t="s">
+        <v>755</v>
+      </c>
+      <c r="F79" t="s">
         <v>756</v>
       </c>
-      <c r="F79" t="s">
-        <v>757</v>
-      </c>
       <c r="H79"/>
     </row>
     <row r="80" spans="1:22">
+      <c r="A80" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C80,Albums!$C:$C,0))</f>
+        <v>7</v>
+      </c>
       <c r="B80">
+        <f>INDEX(Albums!$B:$B, MATCH(C80,Albums!$C:$C,0))</f>
         <v>2009</v>
       </c>
       <c r="C80" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D80">
         <v>7</v>
       </c>
       <c r="E80" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H80"/>
     </row>
-    <row r="81" spans="2:8">
+    <row r="81" spans="1:8">
+      <c r="A81" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C81,Albums!$C:$C,0))</f>
+        <v>7</v>
+      </c>
       <c r="B81">
+        <f>INDEX(Albums!$B:$B, MATCH(C81,Albums!$C:$C,0))</f>
         <v>2009</v>
       </c>
       <c r="C81" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D81">
         <v>8</v>
       </c>
       <c r="E81" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H81"/>
     </row>
-    <row r="82" spans="2:8">
+    <row r="82" spans="1:8">
+      <c r="A82" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C82,Albums!$C:$C,0))</f>
+        <v>7</v>
+      </c>
       <c r="B82">
+        <f>INDEX(Albums!$B:$B, MATCH(C82,Albums!$C:$C,0))</f>
         <v>2009</v>
       </c>
       <c r="C82" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D82">
         <v>9</v>
       </c>
       <c r="E82" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="G82" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H82"/>
     </row>
-    <row r="83" spans="2:8">
+    <row r="83" spans="1:8">
+      <c r="A83" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C83,Albums!$C:$C,0))</f>
+        <v>7</v>
+      </c>
       <c r="B83">
+        <f>INDEX(Albums!$B:$B, MATCH(C83,Albums!$C:$C,0))</f>
         <v>2009</v>
       </c>
       <c r="C83" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D83">
         <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H83"/>
     </row>
-    <row r="84" spans="2:8">
+    <row r="84" spans="1:8">
+      <c r="A84" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C84,Albums!$C:$C,0))</f>
+        <v>7</v>
+      </c>
       <c r="B84">
+        <f>INDEX(Albums!$B:$B, MATCH(C84,Albums!$C:$C,0))</f>
         <v>2009</v>
       </c>
       <c r="C84" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D84">
         <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="G84" t="s">
+        <v>679</v>
+      </c>
+      <c r="H84"/>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C85,Albums!$C:$C,0))</f>
+        <v>7</v>
+      </c>
+      <c r="B85">
+        <f>INDEX(Albums!$B:$B, MATCH(C85,Albums!$C:$C,0))</f>
+        <v>2009</v>
+      </c>
+      <c r="C85" t="s">
         <v>680</v>
-      </c>
-      <c r="H84"/>
-    </row>
-    <row r="85" spans="2:8">
-      <c r="B85">
-        <v>2009</v>
-      </c>
-      <c r="C85" t="s">
-        <v>681</v>
       </c>
       <c r="D85">
         <v>12</v>
       </c>
       <c r="E85" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="F85" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="G85" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H85"/>
     </row>
-    <row r="86" spans="2:8">
+    <row r="86" spans="1:8">
+      <c r="A86" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C86,Albums!$C:$C,0))</f>
+        <v>7</v>
+      </c>
       <c r="B86">
+        <f>INDEX(Albums!$B:$B, MATCH(C86,Albums!$C:$C,0))</f>
         <v>2009</v>
       </c>
       <c r="C86" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D86">
         <v>13</v>
       </c>
       <c r="E86" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F86" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H86"/>
     </row>
-    <row r="87" spans="2:8">
+    <row r="87" spans="1:8">
+      <c r="A87" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C87,Albums!$C:$C,0))</f>
+        <v>7</v>
+      </c>
       <c r="B87">
+        <f>INDEX(Albums!$B:$B, MATCH(C87,Albums!$C:$C,0))</f>
         <v>2009</v>
       </c>
       <c r="C87" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D87">
         <v>14</v>
       </c>
       <c r="E87" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F87" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H87"/>
     </row>
-    <row r="88" spans="2:8">
+    <row r="88" spans="1:8">
+      <c r="A88" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C88,Albums!$C:$C,0))</f>
+        <v>7</v>
+      </c>
       <c r="B88">
+        <f>INDEX(Albums!$B:$B, MATCH(C88,Albums!$C:$C,0))</f>
         <v>2009</v>
       </c>
       <c r="C88" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D88">
         <v>15</v>
       </c>
       <c r="E88" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="F88" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="G88" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H88"/>
     </row>
-    <row r="89" spans="2:8">
+    <row r="89" spans="1:8">
+      <c r="A89" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C89,Albums!$C:$C,0))</f>
+        <v>8</v>
+      </c>
       <c r="B89">
+        <f>INDEX(Albums!$B:$B, MATCH(C89,Albums!$C:$C,0))</f>
         <v>2010</v>
       </c>
       <c r="C89" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D89">
         <v>1</v>
       </c>
       <c r="E89" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H89"/>
     </row>
-    <row r="90" spans="2:8">
+    <row r="90" spans="1:8">
+      <c r="A90" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C90,Albums!$C:$C,0))</f>
+        <v>8</v>
+      </c>
       <c r="B90">
+        <f>INDEX(Albums!$B:$B, MATCH(C90,Albums!$C:$C,0))</f>
         <v>2010</v>
       </c>
       <c r="C90" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D90">
         <v>2</v>
       </c>
       <c r="E90" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H90"/>
     </row>
-    <row r="91" spans="2:8">
+    <row r="91" spans="1:8">
+      <c r="A91" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C91,Albums!$C:$C,0))</f>
+        <v>8</v>
+      </c>
       <c r="B91">
+        <f>INDEX(Albums!$B:$B, MATCH(C91,Albums!$C:$C,0))</f>
         <v>2010</v>
       </c>
       <c r="C91" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D91">
         <v>3</v>
@@ -6419,12 +6983,17 @@
       </c>
       <c r="H91"/>
     </row>
-    <row r="92" spans="2:8">
+    <row r="92" spans="1:8">
+      <c r="A92" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C92,Albums!$C:$C,0))</f>
+        <v>8</v>
+      </c>
       <c r="B92">
+        <f>INDEX(Albums!$B:$B, MATCH(C92,Albums!$C:$C,0))</f>
         <v>2010</v>
       </c>
       <c r="C92" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D92">
         <v>4</v>
@@ -6434,12 +7003,17 @@
       </c>
       <c r="H92"/>
     </row>
-    <row r="93" spans="2:8">
+    <row r="93" spans="1:8">
+      <c r="A93" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C93,Albums!$C:$C,0))</f>
+        <v>8</v>
+      </c>
       <c r="B93">
+        <f>INDEX(Albums!$B:$B, MATCH(C93,Albums!$C:$C,0))</f>
         <v>2010</v>
       </c>
       <c r="C93" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D93">
         <v>5</v>
@@ -6449,27 +7023,37 @@
       </c>
       <c r="H93"/>
     </row>
-    <row r="94" spans="2:8">
+    <row r="94" spans="1:8">
+      <c r="A94" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C94,Albums!$C:$C,0))</f>
+        <v>8</v>
+      </c>
       <c r="B94">
+        <f>INDEX(Albums!$B:$B, MATCH(C94,Albums!$C:$C,0))</f>
         <v>2010</v>
       </c>
       <c r="C94" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D94">
         <v>6</v>
       </c>
       <c r="E94" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H94"/>
     </row>
-    <row r="95" spans="2:8">
+    <row r="95" spans="1:8">
+      <c r="A95" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C95,Albums!$C:$C,0))</f>
+        <v>8</v>
+      </c>
       <c r="B95">
+        <f>INDEX(Albums!$B:$B, MATCH(C95,Albums!$C:$C,0))</f>
         <v>2010</v>
       </c>
       <c r="C95" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D95">
         <v>7</v>
@@ -6479,12 +7063,17 @@
       </c>
       <c r="H95"/>
     </row>
-    <row r="96" spans="2:8">
+    <row r="96" spans="1:8">
+      <c r="A96" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C96,Albums!$C:$C,0))</f>
+        <v>8</v>
+      </c>
       <c r="B96">
+        <f>INDEX(Albums!$B:$B, MATCH(C96,Albums!$C:$C,0))</f>
         <v>2010</v>
       </c>
       <c r="C96" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D96">
         <v>8</v>
@@ -6494,42 +7083,57 @@
       </c>
       <c r="H96"/>
     </row>
-    <row r="97" spans="2:8">
+    <row r="97" spans="1:8">
+      <c r="A97" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C97,Albums!$C:$C,0))</f>
+        <v>8</v>
+      </c>
       <c r="B97">
+        <f>INDEX(Albums!$B:$B, MATCH(C97,Albums!$C:$C,0))</f>
         <v>2010</v>
       </c>
       <c r="C97" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D97">
         <v>9</v>
       </c>
       <c r="E97" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H97"/>
     </row>
-    <row r="98" spans="2:8">
+    <row r="98" spans="1:8">
+      <c r="A98" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C98,Albums!$C:$C,0))</f>
+        <v>8</v>
+      </c>
       <c r="B98">
+        <f>INDEX(Albums!$B:$B, MATCH(C98,Albums!$C:$C,0))</f>
         <v>2010</v>
       </c>
       <c r="C98" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D98">
         <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H98"/>
     </row>
-    <row r="99" spans="2:8">
+    <row r="99" spans="1:8">
+      <c r="A99" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C99,Albums!$C:$C,0))</f>
+        <v>9</v>
+      </c>
       <c r="B99">
+        <f>INDEX(Albums!$B:$B, MATCH(C99,Albums!$C:$C,0))</f>
         <v>2011</v>
       </c>
       <c r="C99" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D99">
         <v>1</v>
@@ -6539,186 +7143,246 @@
       </c>
       <c r="H99"/>
     </row>
-    <row r="100" spans="2:8">
+    <row r="100" spans="1:8">
+      <c r="A100" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C100,Albums!$C:$C,0))</f>
+        <v>9</v>
+      </c>
       <c r="B100">
+        <f>INDEX(Albums!$B:$B, MATCH(C100,Albums!$C:$C,0))</f>
         <v>2011</v>
       </c>
       <c r="C100" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D100">
         <v>2</v>
       </c>
       <c r="E100" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H100"/>
     </row>
-    <row r="101" spans="2:8">
+    <row r="101" spans="1:8">
+      <c r="A101" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C101,Albums!$C:$C,0))</f>
+        <v>9</v>
+      </c>
       <c r="B101">
+        <f>INDEX(Albums!$B:$B, MATCH(C101,Albums!$C:$C,0))</f>
         <v>2011</v>
       </c>
       <c r="C101" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D101">
         <v>3</v>
       </c>
       <c r="E101" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H101"/>
     </row>
-    <row r="102" spans="2:8">
+    <row r="102" spans="1:8">
+      <c r="A102" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C102,Albums!$C:$C,0))</f>
+        <v>9</v>
+      </c>
       <c r="B102">
+        <f>INDEX(Albums!$B:$B, MATCH(C102,Albums!$C:$C,0))</f>
         <v>2011</v>
       </c>
       <c r="C102" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D102">
         <v>4</v>
       </c>
       <c r="E102" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="G102" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H102"/>
     </row>
-    <row r="103" spans="2:8">
+    <row r="103" spans="1:8">
+      <c r="A103" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C103,Albums!$C:$C,0))</f>
+        <v>9</v>
+      </c>
       <c r="B103">
+        <f>INDEX(Albums!$B:$B, MATCH(C103,Albums!$C:$C,0))</f>
         <v>2011</v>
       </c>
       <c r="C103" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D103">
         <v>5</v>
       </c>
       <c r="E103" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H103"/>
     </row>
-    <row r="104" spans="2:8">
+    <row r="104" spans="1:8">
+      <c r="A104" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C104,Albums!$C:$C,0))</f>
+        <v>9</v>
+      </c>
       <c r="B104">
+        <f>INDEX(Albums!$B:$B, MATCH(C104,Albums!$C:$C,0))</f>
         <v>2011</v>
       </c>
       <c r="C104" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D104">
         <v>6</v>
       </c>
       <c r="E104" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="G104" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H104"/>
     </row>
-    <row r="105" spans="2:8">
+    <row r="105" spans="1:8">
+      <c r="A105" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C105,Albums!$C:$C,0))</f>
+        <v>9</v>
+      </c>
       <c r="B105">
+        <f>INDEX(Albums!$B:$B, MATCH(C105,Albums!$C:$C,0))</f>
         <v>2011</v>
       </c>
       <c r="C105" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D105">
         <v>7</v>
       </c>
       <c r="E105" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H105"/>
     </row>
-    <row r="106" spans="2:8">
+    <row r="106" spans="1:8">
+      <c r="A106" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C106,Albums!$C:$C,0))</f>
+        <v>9</v>
+      </c>
       <c r="B106">
+        <f>INDEX(Albums!$B:$B, MATCH(C106,Albums!$C:$C,0))</f>
         <v>2011</v>
       </c>
       <c r="C106" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D106">
         <v>8</v>
       </c>
       <c r="E106" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H106"/>
     </row>
-    <row r="107" spans="2:8">
+    <row r="107" spans="1:8">
+      <c r="A107" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C107,Albums!$C:$C,0))</f>
+        <v>9</v>
+      </c>
       <c r="B107">
+        <f>INDEX(Albums!$B:$B, MATCH(C107,Albums!$C:$C,0))</f>
         <v>2011</v>
       </c>
       <c r="C107" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D107">
         <v>9</v>
       </c>
       <c r="E107" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="G107" t="s">
+        <v>690</v>
+      </c>
+      <c r="H107"/>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C108,Albums!$C:$C,0))</f>
+        <v>9</v>
+      </c>
+      <c r="B108">
+        <f>INDEX(Albums!$B:$B, MATCH(C108,Albums!$C:$C,0))</f>
+        <v>2011</v>
+      </c>
+      <c r="C108" t="s">
         <v>691</v>
-      </c>
-      <c r="H107"/>
-    </row>
-    <row r="108" spans="2:8">
-      <c r="B108">
-        <v>2011</v>
-      </c>
-      <c r="C108" t="s">
-        <v>692</v>
       </c>
       <c r="D108">
         <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H108"/>
     </row>
-    <row r="109" spans="2:8">
+    <row r="109" spans="1:8">
+      <c r="A109" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C109,Albums!$C:$C,0))</f>
+        <v>9</v>
+      </c>
       <c r="B109">
+        <f>INDEX(Albums!$B:$B, MATCH(C109,Albums!$C:$C,0))</f>
         <v>2011</v>
       </c>
       <c r="C109" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D109">
         <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H109"/>
     </row>
-    <row r="110" spans="2:8">
+    <row r="110" spans="1:8">
+      <c r="A110" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C110,Albums!$C:$C,0))</f>
+        <v>9</v>
+      </c>
       <c r="B110">
+        <f>INDEX(Albums!$B:$B, MATCH(C110,Albums!$C:$C,0))</f>
         <v>2011</v>
       </c>
       <c r="C110" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D110">
         <v>12</v>
       </c>
       <c r="E110" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H110"/>
     </row>
-    <row r="111" spans="2:8">
+    <row r="111" spans="1:8">
+      <c r="A111" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C111,Albums!$C:$C,0))</f>
+        <v>10</v>
+      </c>
       <c r="B111">
+        <f>INDEX(Albums!$B:$B, MATCH(C111,Albums!$C:$C,0))</f>
         <v>2013</v>
       </c>
       <c r="C111" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D111">
         <v>1</v>
@@ -6728,27 +7392,37 @@
       </c>
       <c r="H111"/>
     </row>
-    <row r="112" spans="2:8">
+    <row r="112" spans="1:8">
+      <c r="A112" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C112,Albums!$C:$C,0))</f>
+        <v>10</v>
+      </c>
       <c r="B112">
+        <f>INDEX(Albums!$B:$B, MATCH(C112,Albums!$C:$C,0))</f>
         <v>2013</v>
       </c>
       <c r="C112" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D112">
         <v>2</v>
       </c>
       <c r="E112" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H112"/>
     </row>
     <row r="113" spans="1:22">
+      <c r="A113" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C113,Albums!$C:$C,0))</f>
+        <v>10</v>
+      </c>
       <c r="B113">
+        <f>INDEX(Albums!$B:$B, MATCH(C113,Albums!$C:$C,0))</f>
         <v>2013</v>
       </c>
       <c r="C113" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D113">
         <v>3</v>
@@ -6759,116 +7433,156 @@
       <c r="H113"/>
     </row>
     <row r="114" spans="1:22">
+      <c r="A114" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C114,Albums!$C:$C,0))</f>
+        <v>10</v>
+      </c>
       <c r="B114">
+        <f>INDEX(Albums!$B:$B, MATCH(C114,Albums!$C:$C,0))</f>
         <v>2013</v>
       </c>
       <c r="C114" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D114">
         <v>4</v>
       </c>
       <c r="E114" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H114"/>
     </row>
     <row r="115" spans="1:22">
+      <c r="A115" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C115,Albums!$C:$C,0))</f>
+        <v>10</v>
+      </c>
       <c r="B115">
+        <f>INDEX(Albums!$B:$B, MATCH(C115,Albums!$C:$C,0))</f>
         <v>2013</v>
       </c>
       <c r="C115" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D115">
         <v>5</v>
       </c>
       <c r="E115" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H115"/>
     </row>
     <row r="116" spans="1:22">
+      <c r="A116" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C116,Albums!$C:$C,0))</f>
+        <v>10</v>
+      </c>
       <c r="B116">
+        <f>INDEX(Albums!$B:$B, MATCH(C116,Albums!$C:$C,0))</f>
         <v>2013</v>
       </c>
       <c r="C116" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D116">
         <v>6</v>
       </c>
       <c r="E116" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H116"/>
     </row>
     <row r="117" spans="1:22">
+      <c r="A117" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C117,Albums!$C:$C,0))</f>
+        <v>10</v>
+      </c>
       <c r="B117">
+        <f>INDEX(Albums!$B:$B, MATCH(C117,Albums!$C:$C,0))</f>
         <v>2013</v>
       </c>
       <c r="C117" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D117">
         <v>7</v>
       </c>
       <c r="E117" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H117"/>
     </row>
     <row r="118" spans="1:22">
+      <c r="A118" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C118,Albums!$C:$C,0))</f>
+        <v>10</v>
+      </c>
       <c r="B118">
+        <f>INDEX(Albums!$B:$B, MATCH(C118,Albums!$C:$C,0))</f>
         <v>2013</v>
       </c>
       <c r="C118" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D118">
         <v>8</v>
       </c>
       <c r="E118" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H118"/>
     </row>
     <row r="119" spans="1:22">
+      <c r="A119" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C119,Albums!$C:$C,0))</f>
+        <v>10</v>
+      </c>
       <c r="B119">
+        <f>INDEX(Albums!$B:$B, MATCH(C119,Albums!$C:$C,0))</f>
         <v>2013</v>
       </c>
       <c r="C119" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D119">
         <v>9</v>
       </c>
       <c r="E119" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H119"/>
     </row>
     <row r="120" spans="1:22">
+      <c r="A120" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C120,Albums!$C:$C,0))</f>
+        <v>10</v>
+      </c>
       <c r="B120">
+        <f>INDEX(Albums!$B:$B, MATCH(C120,Albums!$C:$C,0))</f>
         <v>2013</v>
       </c>
       <c r="C120" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D120">
         <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H120"/>
     </row>
     <row r="121" spans="1:22">
+      <c r="A121" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C121,Albums!$C:$C,0))</f>
+        <v>10</v>
+      </c>
       <c r="B121">
+        <f>INDEX(Albums!$B:$B, MATCH(C121,Albums!$C:$C,0))</f>
         <v>2013</v>
       </c>
       <c r="C121" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D121">
         <v>11</v>
@@ -6879,7 +7593,12 @@
       <c r="H121"/>
     </row>
     <row r="122" spans="1:22">
+      <c r="A122" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C122,Albums!$C:$C,0))</f>
+        <v>11</v>
+      </c>
       <c r="B122">
+        <f>INDEX(Albums!$B:$B, MATCH(C122,Albums!$C:$C,0))</f>
         <v>2014</v>
       </c>
       <c r="C122" t="s">
@@ -6943,7 +7662,12 @@
       </c>
     </row>
     <row r="123" spans="1:22">
+      <c r="A123" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C123,Albums!$C:$C,0))</f>
+        <v>11</v>
+      </c>
       <c r="B123">
+        <f>INDEX(Albums!$B:$B, MATCH(C123,Albums!$C:$C,0))</f>
         <v>2014</v>
       </c>
       <c r="C123" t="s">
@@ -7007,7 +7731,12 @@
       </c>
     </row>
     <row r="124" spans="1:22">
+      <c r="A124" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C124,Albums!$C:$C,0))</f>
+        <v>11</v>
+      </c>
       <c r="B124">
+        <f>INDEX(Albums!$B:$B, MATCH(C124,Albums!$C:$C,0))</f>
         <v>2014</v>
       </c>
       <c r="C124" t="s">
@@ -7071,8 +7800,12 @@
       </c>
     </row>
     <row r="125" spans="1:22" s="1" customFormat="1">
-      <c r="A125"/>
+      <c r="A125" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C125,Albums!$C:$C,0))</f>
+        <v>11</v>
+      </c>
       <c r="B125">
+        <f>INDEX(Albums!$B:$B, MATCH(C125,Albums!$C:$C,0))</f>
         <v>2014</v>
       </c>
       <c r="C125" t="s">
@@ -7136,8 +7869,12 @@
       </c>
     </row>
     <row r="126" spans="1:22" s="1" customFormat="1">
-      <c r="A126"/>
+      <c r="A126" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C126,Albums!$C:$C,0))</f>
+        <v>11</v>
+      </c>
       <c r="B126">
+        <f>INDEX(Albums!$B:$B, MATCH(C126,Albums!$C:$C,0))</f>
         <v>2014</v>
       </c>
       <c r="C126" t="s">
@@ -7201,8 +7938,12 @@
       </c>
     </row>
     <row r="127" spans="1:22" s="1" customFormat="1">
-      <c r="A127"/>
+      <c r="A127" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C127,Albums!$C:$C,0))</f>
+        <v>11</v>
+      </c>
       <c r="B127">
+        <f>INDEX(Albums!$B:$B, MATCH(C127,Albums!$C:$C,0))</f>
         <v>2014</v>
       </c>
       <c r="C127" t="s">
@@ -7245,8 +7986,12 @@
       <c r="V127"/>
     </row>
     <row r="128" spans="1:22" s="1" customFormat="1">
-      <c r="A128"/>
+      <c r="A128" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C128,Albums!$C:$C,0))</f>
+        <v>11</v>
+      </c>
       <c r="B128">
+        <f>INDEX(Albums!$B:$B, MATCH(C128,Albums!$C:$C,0))</f>
         <v>2014</v>
       </c>
       <c r="C128" t="s">
@@ -7289,8 +8034,12 @@
       <c r="V128"/>
     </row>
     <row r="129" spans="1:22" s="1" customFormat="1">
-      <c r="A129"/>
+      <c r="A129" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C129,Albums!$C:$C,0))</f>
+        <v>11</v>
+      </c>
       <c r="B129">
+        <f>INDEX(Albums!$B:$B, MATCH(C129,Albums!$C:$C,0))</f>
         <v>2014</v>
       </c>
       <c r="C129" t="s">
@@ -7354,8 +8103,12 @@
       </c>
     </row>
     <row r="130" spans="1:22" s="1" customFormat="1">
-      <c r="A130"/>
+      <c r="A130" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C130,Albums!$C:$C,0))</f>
+        <v>11</v>
+      </c>
       <c r="B130">
+        <f>INDEX(Albums!$B:$B, MATCH(C130,Albums!$C:$C,0))</f>
         <v>2014</v>
       </c>
       <c r="C130" t="s">
@@ -7419,8 +8172,12 @@
       </c>
     </row>
     <row r="131" spans="1:22" s="1" customFormat="1">
-      <c r="A131"/>
+      <c r="A131" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C131,Albums!$C:$C,0))</f>
+        <v>11</v>
+      </c>
       <c r="B131">
+        <f>INDEX(Albums!$B:$B, MATCH(C131,Albums!$C:$C,0))</f>
         <v>2014</v>
       </c>
       <c r="C131" t="s">
@@ -7463,8 +8220,12 @@
       <c r="V131"/>
     </row>
     <row r="132" spans="1:22" s="1" customFormat="1">
-      <c r="A132"/>
+      <c r="A132" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C132,Albums!$C:$C,0))</f>
+        <v>12</v>
+      </c>
       <c r="B132">
+        <f>INDEX(Albums!$B:$B, MATCH(C132,Albums!$C:$C,0))</f>
         <v>2014</v>
       </c>
       <c r="C132" t="s">
@@ -7507,8 +8268,12 @@
       <c r="V132"/>
     </row>
     <row r="133" spans="1:22" s="1" customFormat="1">
-      <c r="A133"/>
+      <c r="A133" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C133,Albums!$C:$C,0))</f>
+        <v>12</v>
+      </c>
       <c r="B133">
+        <f>INDEX(Albums!$B:$B, MATCH(C133,Albums!$C:$C,0))</f>
         <v>2014</v>
       </c>
       <c r="C133" t="s">
@@ -7572,8 +8337,12 @@
       </c>
     </row>
     <row r="134" spans="1:22" s="1" customFormat="1">
-      <c r="A134"/>
+      <c r="A134" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C134,Albums!$C:$C,0))</f>
+        <v>12</v>
+      </c>
       <c r="B134">
+        <f>INDEX(Albums!$B:$B, MATCH(C134,Albums!$C:$C,0))</f>
         <v>2014</v>
       </c>
       <c r="C134" t="s">
@@ -7616,7 +8385,12 @@
       <c r="V134"/>
     </row>
     <row r="135" spans="1:22">
+      <c r="A135" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C135,Albums!$C:$C,0))</f>
+        <v>12</v>
+      </c>
       <c r="B135">
+        <f>INDEX(Albums!$B:$B, MATCH(C135,Albums!$C:$C,0))</f>
         <v>2014</v>
       </c>
       <c r="C135" t="s">
@@ -7680,7 +8454,12 @@
       </c>
     </row>
     <row r="136" spans="1:22">
+      <c r="A136" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C136,Albums!$C:$C,0))</f>
+        <v>12</v>
+      </c>
       <c r="B136">
+        <f>INDEX(Albums!$B:$B, MATCH(C136,Albums!$C:$C,0))</f>
         <v>2014</v>
       </c>
       <c r="C136" t="s">
@@ -7744,7 +8523,12 @@
       </c>
     </row>
     <row r="137" spans="1:22">
+      <c r="A137" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C137,Albums!$C:$C,0))</f>
+        <v>12</v>
+      </c>
       <c r="B137">
+        <f>INDEX(Albums!$B:$B, MATCH(C137,Albums!$C:$C,0))</f>
         <v>2014</v>
       </c>
       <c r="C137" t="s">
@@ -7808,7 +8592,12 @@
       </c>
     </row>
     <row r="138" spans="1:22">
+      <c r="A138" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C138,Albums!$C:$C,0))</f>
+        <v>12</v>
+      </c>
       <c r="B138">
+        <f>INDEX(Albums!$B:$B, MATCH(C138,Albums!$C:$C,0))</f>
         <v>2014</v>
       </c>
       <c r="C138" t="s">
@@ -7841,7 +8630,12 @@
       </c>
     </row>
     <row r="139" spans="1:22">
+      <c r="A139" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C139,Albums!$C:$C,0))</f>
+        <v>12</v>
+      </c>
       <c r="B139">
+        <f>INDEX(Albums!$B:$B, MATCH(C139,Albums!$C:$C,0))</f>
         <v>2014</v>
       </c>
       <c r="C139" t="s">
@@ -7905,7 +8699,12 @@
       </c>
     </row>
     <row r="140" spans="1:22">
+      <c r="A140" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C140,Albums!$C:$C,0))</f>
+        <v>12</v>
+      </c>
       <c r="B140">
+        <f>INDEX(Albums!$B:$B, MATCH(C140,Albums!$C:$C,0))</f>
         <v>2014</v>
       </c>
       <c r="C140" t="s">
@@ -7969,7 +8768,12 @@
       </c>
     </row>
     <row r="141" spans="1:22">
+      <c r="A141" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C141,Albums!$C:$C,0))</f>
+        <v>12</v>
+      </c>
       <c r="B141">
+        <f>INDEX(Albums!$B:$B, MATCH(C141,Albums!$C:$C,0))</f>
         <v>2014</v>
       </c>
       <c r="C141" t="s">
@@ -8033,7 +8837,12 @@
       </c>
     </row>
     <row r="142" spans="1:22">
+      <c r="A142" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C142,Albums!$C:$C,0))</f>
+        <v>13</v>
+      </c>
       <c r="B142">
+        <f>INDEX(Albums!$B:$B, MATCH(C142,Albums!$C:$C,0))</f>
         <v>2014</v>
       </c>
       <c r="C142" t="s">
@@ -8065,7 +8874,12 @@
       </c>
     </row>
     <row r="143" spans="1:22">
+      <c r="A143" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C143,Albums!$C:$C,0))</f>
+        <v>13</v>
+      </c>
       <c r="B143">
+        <f>INDEX(Albums!$B:$B, MATCH(C143,Albums!$C:$C,0))</f>
         <v>2014</v>
       </c>
       <c r="C143" t="s">
@@ -8128,7 +8942,12 @@
       </c>
     </row>
     <row r="144" spans="1:22">
+      <c r="A144" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C144,Albums!$C:$C,0))</f>
+        <v>13</v>
+      </c>
       <c r="B144">
+        <f>INDEX(Albums!$B:$B, MATCH(C144,Albums!$C:$C,0))</f>
         <v>2014</v>
       </c>
       <c r="C144" t="s">
@@ -8159,8 +8978,13 @@
         <v>48</v>
       </c>
     </row>
-    <row r="145" spans="2:22">
+    <row r="145" spans="1:22">
+      <c r="A145" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C145,Albums!$C:$C,0))</f>
+        <v>13</v>
+      </c>
       <c r="B145">
+        <f>INDEX(Albums!$B:$B, MATCH(C145,Albums!$C:$C,0))</f>
         <v>2014</v>
       </c>
       <c r="C145" t="s">
@@ -8191,8 +9015,13 @@
         <v>47</v>
       </c>
     </row>
-    <row r="146" spans="2:22">
+    <row r="146" spans="1:22">
+      <c r="A146" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C146,Albums!$C:$C,0))</f>
+        <v>13</v>
+      </c>
       <c r="B146">
+        <f>INDEX(Albums!$B:$B, MATCH(C146,Albums!$C:$C,0))</f>
         <v>2014</v>
       </c>
       <c r="C146" t="s">
@@ -8223,8 +9052,13 @@
         <v>47</v>
       </c>
     </row>
-    <row r="147" spans="2:22">
+    <row r="147" spans="1:22">
+      <c r="A147" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C147,Albums!$C:$C,0))</f>
+        <v>13</v>
+      </c>
       <c r="B147">
+        <f>INDEX(Albums!$B:$B, MATCH(C147,Albums!$C:$C,0))</f>
         <v>2014</v>
       </c>
       <c r="C147" t="s">
@@ -8255,8 +9089,13 @@
         <v>47</v>
       </c>
     </row>
-    <row r="148" spans="2:22">
+    <row r="148" spans="1:22">
+      <c r="A148" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C148,Albums!$C:$C,0))</f>
+        <v>13</v>
+      </c>
       <c r="B148">
+        <f>INDEX(Albums!$B:$B, MATCH(C148,Albums!$C:$C,0))</f>
         <v>2014</v>
       </c>
       <c r="C148" t="s">
@@ -8318,8 +9157,13 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="149" spans="2:22">
+    <row r="149" spans="1:22">
+      <c r="A149" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C149,Albums!$C:$C,0))</f>
+        <v>13</v>
+      </c>
       <c r="B149">
+        <f>INDEX(Albums!$B:$B, MATCH(C149,Albums!$C:$C,0))</f>
         <v>2014</v>
       </c>
       <c r="C149" t="s">
@@ -8381,8 +9225,13 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="150" spans="2:22">
+    <row r="150" spans="1:22">
+      <c r="A150" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C150,Albums!$C:$C,0))</f>
+        <v>13</v>
+      </c>
       <c r="B150">
+        <f>INDEX(Albums!$B:$B, MATCH(C150,Albums!$C:$C,0))</f>
         <v>2014</v>
       </c>
       <c r="C150" t="s">
@@ -8444,8 +9293,13 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="151" spans="2:22">
+    <row r="151" spans="1:22">
+      <c r="A151" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C151,Albums!$C:$C,0))</f>
+        <v>13</v>
+      </c>
       <c r="B151">
+        <f>INDEX(Albums!$B:$B, MATCH(C151,Albums!$C:$C,0))</f>
         <v>2014</v>
       </c>
       <c r="C151" t="s">
@@ -8507,8 +9361,13 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="152" spans="2:22">
+    <row r="152" spans="1:22">
+      <c r="A152" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C152,Albums!$C:$C,0))</f>
+        <v>14</v>
+      </c>
       <c r="B152">
+        <f>INDEX(Albums!$B:$B, MATCH(C152,Albums!$C:$C,0))</f>
         <v>2014</v>
       </c>
       <c r="C152" t="s">
@@ -8539,8 +9398,13 @@
         <v>47</v>
       </c>
     </row>
-    <row r="153" spans="2:22">
+    <row r="153" spans="1:22">
+      <c r="A153" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C153,Albums!$C:$C,0))</f>
+        <v>14</v>
+      </c>
       <c r="B153">
+        <f>INDEX(Albums!$B:$B, MATCH(C153,Albums!$C:$C,0))</f>
         <v>2014</v>
       </c>
       <c r="C153" t="s">
@@ -8571,8 +9435,13 @@
         <v>47</v>
       </c>
     </row>
-    <row r="154" spans="2:22">
+    <row r="154" spans="1:22">
+      <c r="A154" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C154,Albums!$C:$C,0))</f>
+        <v>14</v>
+      </c>
       <c r="B154">
+        <f>INDEX(Albums!$B:$B, MATCH(C154,Albums!$C:$C,0))</f>
         <v>2014</v>
       </c>
       <c r="C154" t="s">
@@ -8603,8 +9472,13 @@
         <v>47</v>
       </c>
     </row>
-    <row r="155" spans="2:22">
+    <row r="155" spans="1:22">
+      <c r="A155" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C155,Albums!$C:$C,0))</f>
+        <v>14</v>
+      </c>
       <c r="B155">
+        <f>INDEX(Albums!$B:$B, MATCH(C155,Albums!$C:$C,0))</f>
         <v>2014</v>
       </c>
       <c r="C155" t="s">
@@ -8635,8 +9509,13 @@
         <v>47</v>
       </c>
     </row>
-    <row r="156" spans="2:22">
+    <row r="156" spans="1:22">
+      <c r="A156" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C156,Albums!$C:$C,0))</f>
+        <v>14</v>
+      </c>
       <c r="B156">
+        <f>INDEX(Albums!$B:$B, MATCH(C156,Albums!$C:$C,0))</f>
         <v>2014</v>
       </c>
       <c r="C156" t="s">
@@ -8667,8 +9546,13 @@
         <v>47</v>
       </c>
     </row>
-    <row r="157" spans="2:22">
+    <row r="157" spans="1:22">
+      <c r="A157" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C157,Albums!$C:$C,0))</f>
+        <v>14</v>
+      </c>
       <c r="B157">
+        <f>INDEX(Albums!$B:$B, MATCH(C157,Albums!$C:$C,0))</f>
         <v>2014</v>
       </c>
       <c r="C157" t="s">
@@ -8730,8 +9614,13 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="158" spans="2:22">
+    <row r="158" spans="1:22">
+      <c r="A158" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C158,Albums!$C:$C,0))</f>
+        <v>14</v>
+      </c>
       <c r="B158">
+        <f>INDEX(Albums!$B:$B, MATCH(C158,Albums!$C:$C,0))</f>
         <v>2014</v>
       </c>
       <c r="C158" t="s">
@@ -8762,8 +9651,13 @@
         <v>49</v>
       </c>
     </row>
-    <row r="159" spans="2:22">
+    <row r="159" spans="1:22">
+      <c r="A159" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C159,Albums!$C:$C,0))</f>
+        <v>14</v>
+      </c>
       <c r="B159">
+        <f>INDEX(Albums!$B:$B, MATCH(C159,Albums!$C:$C,0))</f>
         <v>2014</v>
       </c>
       <c r="C159" t="s">
@@ -8825,8 +9719,13 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="160" spans="2:22">
+    <row r="160" spans="1:22">
+      <c r="A160" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C160,Albums!$C:$C,0))</f>
+        <v>14</v>
+      </c>
       <c r="B160">
+        <f>INDEX(Albums!$B:$B, MATCH(C160,Albums!$C:$C,0))</f>
         <v>2014</v>
       </c>
       <c r="C160" t="s">
@@ -8857,8 +9756,13 @@
         <v>47</v>
       </c>
     </row>
-    <row r="161" spans="2:22">
+    <row r="161" spans="1:22">
+      <c r="A161" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C161,Albums!$C:$C,0))</f>
+        <v>14</v>
+      </c>
       <c r="B161">
+        <f>INDEX(Albums!$B:$B, MATCH(C161,Albums!$C:$C,0))</f>
         <v>2014</v>
       </c>
       <c r="C161" t="s">
@@ -8889,8 +9793,13 @@
         <v>47</v>
       </c>
     </row>
-    <row r="162" spans="2:22">
+    <row r="162" spans="1:22">
+      <c r="A162" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C162,Albums!$C:$C,0))</f>
+        <v>15</v>
+      </c>
       <c r="B162">
+        <f>INDEX(Albums!$B:$B, MATCH(C162,Albums!$C:$C,0))</f>
         <v>2014</v>
       </c>
       <c r="C162" t="s">
@@ -8952,8 +9861,13 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="163" spans="2:22">
+    <row r="163" spans="1:22">
+      <c r="A163" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C163,Albums!$C:$C,0))</f>
+        <v>15</v>
+      </c>
       <c r="B163">
+        <f>INDEX(Albums!$B:$B, MATCH(C163,Albums!$C:$C,0))</f>
         <v>2014</v>
       </c>
       <c r="C163" t="s">
@@ -8984,8 +9898,13 @@
         <v>47</v>
       </c>
     </row>
-    <row r="164" spans="2:22">
+    <row r="164" spans="1:22">
+      <c r="A164" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C164,Albums!$C:$C,0))</f>
+        <v>15</v>
+      </c>
       <c r="B164">
+        <f>INDEX(Albums!$B:$B, MATCH(C164,Albums!$C:$C,0))</f>
         <v>2014</v>
       </c>
       <c r="C164" t="s">
@@ -9016,8 +9935,13 @@
         <v>47</v>
       </c>
     </row>
-    <row r="165" spans="2:22">
+    <row r="165" spans="1:22">
+      <c r="A165" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C165,Albums!$C:$C,0))</f>
+        <v>15</v>
+      </c>
       <c r="B165">
+        <f>INDEX(Albums!$B:$B, MATCH(C165,Albums!$C:$C,0))</f>
         <v>2014</v>
       </c>
       <c r="C165" t="s">
@@ -9048,8 +9972,13 @@
         <v>47</v>
       </c>
     </row>
-    <row r="166" spans="2:22">
+    <row r="166" spans="1:22">
+      <c r="A166" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C166,Albums!$C:$C,0))</f>
+        <v>15</v>
+      </c>
       <c r="B166">
+        <f>INDEX(Albums!$B:$B, MATCH(C166,Albums!$C:$C,0))</f>
         <v>2014</v>
       </c>
       <c r="C166" t="s">
@@ -9080,8 +10009,13 @@
         <v>47</v>
       </c>
     </row>
-    <row r="167" spans="2:22">
+    <row r="167" spans="1:22">
+      <c r="A167" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C167,Albums!$C:$C,0))</f>
+        <v>15</v>
+      </c>
       <c r="B167">
+        <f>INDEX(Albums!$B:$B, MATCH(C167,Albums!$C:$C,0))</f>
         <v>2014</v>
       </c>
       <c r="C167" t="s">
@@ -9112,8 +10046,13 @@
         <v>47</v>
       </c>
     </row>
-    <row r="168" spans="2:22">
+    <row r="168" spans="1:22">
+      <c r="A168" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C168,Albums!$C:$C,0))</f>
+        <v>15</v>
+      </c>
       <c r="B168">
+        <f>INDEX(Albums!$B:$B, MATCH(C168,Albums!$C:$C,0))</f>
         <v>2014</v>
       </c>
       <c r="C168" t="s">
@@ -9144,8 +10083,13 @@
         <v>47</v>
       </c>
     </row>
-    <row r="169" spans="2:22">
+    <row r="169" spans="1:22">
+      <c r="A169" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C169,Albums!$C:$C,0))</f>
+        <v>15</v>
+      </c>
       <c r="B169">
+        <f>INDEX(Albums!$B:$B, MATCH(C169,Albums!$C:$C,0))</f>
         <v>2014</v>
       </c>
       <c r="C169" t="s">
@@ -9207,8 +10151,13 @@
         <v/>
       </c>
     </row>
-    <row r="170" spans="2:22">
+    <row r="170" spans="1:22">
+      <c r="A170" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C170,Albums!$C:$C,0))</f>
+        <v>15</v>
+      </c>
       <c r="B170">
+        <f>INDEX(Albums!$B:$B, MATCH(C170,Albums!$C:$C,0))</f>
         <v>2014</v>
       </c>
       <c r="C170" t="s">
@@ -9270,8 +10219,13 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="171" spans="2:22">
+    <row r="171" spans="1:22">
+      <c r="A171" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C171,Albums!$C:$C,0))</f>
+        <v>15</v>
+      </c>
       <c r="B171">
+        <f>INDEX(Albums!$B:$B, MATCH(C171,Albums!$C:$C,0))</f>
         <v>2014</v>
       </c>
       <c r="C171" t="s">
@@ -9333,8 +10287,13 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="172" spans="2:22">
+    <row r="172" spans="1:22">
+      <c r="A172" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C172,Albums!$C:$C,0))</f>
+        <v>16</v>
+      </c>
       <c r="B172">
+        <f>INDEX(Albums!$B:$B, MATCH(C172,Albums!$C:$C,0))</f>
         <v>2014</v>
       </c>
       <c r="C172" t="s">
@@ -9396,8 +10355,13 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="173" spans="2:22">
+    <row r="173" spans="1:22">
+      <c r="A173" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C173,Albums!$C:$C,0))</f>
+        <v>16</v>
+      </c>
       <c r="B173">
+        <f>INDEX(Albums!$B:$B, MATCH(C173,Albums!$C:$C,0))</f>
         <v>2014</v>
       </c>
       <c r="C173" t="s">
@@ -9428,8 +10392,13 @@
         <v>48</v>
       </c>
     </row>
-    <row r="174" spans="2:22">
+    <row r="174" spans="1:22">
+      <c r="A174" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C174,Albums!$C:$C,0))</f>
+        <v>16</v>
+      </c>
       <c r="B174">
+        <f>INDEX(Albums!$B:$B, MATCH(C174,Albums!$C:$C,0))</f>
         <v>2014</v>
       </c>
       <c r="C174" t="s">
@@ -9491,8 +10460,13 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="175" spans="2:22">
+    <row r="175" spans="1:22">
+      <c r="A175" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C175,Albums!$C:$C,0))</f>
+        <v>16</v>
+      </c>
       <c r="B175">
+        <f>INDEX(Albums!$B:$B, MATCH(C175,Albums!$C:$C,0))</f>
         <v>2014</v>
       </c>
       <c r="C175" t="s">
@@ -9554,8 +10528,13 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="176" spans="2:22">
+    <row r="176" spans="1:22">
+      <c r="A176" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C176,Albums!$C:$C,0))</f>
+        <v>16</v>
+      </c>
       <c r="B176">
+        <f>INDEX(Albums!$B:$B, MATCH(C176,Albums!$C:$C,0))</f>
         <v>2014</v>
       </c>
       <c r="C176" t="s">
@@ -9586,8 +10565,13 @@
         <v>49</v>
       </c>
     </row>
-    <row r="177" spans="2:22">
+    <row r="177" spans="1:22">
+      <c r="A177" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C177,Albums!$C:$C,0))</f>
+        <v>16</v>
+      </c>
       <c r="B177">
+        <f>INDEX(Albums!$B:$B, MATCH(C177,Albums!$C:$C,0))</f>
         <v>2014</v>
       </c>
       <c r="C177" t="s">
@@ -9618,8 +10602,13 @@
         <v>47</v>
       </c>
     </row>
-    <row r="178" spans="2:22">
+    <row r="178" spans="1:22">
+      <c r="A178" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C178,Albums!$C:$C,0))</f>
+        <v>16</v>
+      </c>
       <c r="B178">
+        <f>INDEX(Albums!$B:$B, MATCH(C178,Albums!$C:$C,0))</f>
         <v>2014</v>
       </c>
       <c r="C178" t="s">
@@ -9681,8 +10670,13 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="179" spans="2:22">
+    <row r="179" spans="1:22">
+      <c r="A179" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C179,Albums!$C:$C,0))</f>
+        <v>16</v>
+      </c>
       <c r="B179">
+        <f>INDEX(Albums!$B:$B, MATCH(C179,Albums!$C:$C,0))</f>
         <v>2014</v>
       </c>
       <c r="C179" t="s">
@@ -9744,8 +10738,13 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="180" spans="2:22">
+    <row r="180" spans="1:22">
+      <c r="A180" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C180,Albums!$C:$C,0))</f>
+        <v>16</v>
+      </c>
       <c r="B180">
+        <f>INDEX(Albums!$B:$B, MATCH(C180,Albums!$C:$C,0))</f>
         <v>2014</v>
       </c>
       <c r="C180" t="s">
@@ -9807,8 +10806,13 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="181" spans="2:22">
+    <row r="181" spans="1:22">
+      <c r="A181" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C181,Albums!$C:$C,0))</f>
+        <v>16</v>
+      </c>
       <c r="B181">
+        <f>INDEX(Albums!$B:$B, MATCH(C181,Albums!$C:$C,0))</f>
         <v>2014</v>
       </c>
       <c r="C181" t="s">
@@ -9870,8 +10874,13 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="182" spans="2:22">
+    <row r="182" spans="1:22">
+      <c r="A182" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C182,Albums!$C:$C,0))</f>
+        <v>17</v>
+      </c>
       <c r="B182">
+        <f>INDEX(Albums!$B:$B, MATCH(C182,Albums!$C:$C,0))</f>
         <v>2014</v>
       </c>
       <c r="C182" t="s">
@@ -9902,8 +10911,13 @@
         <v>47</v>
       </c>
     </row>
-    <row r="183" spans="2:22">
+    <row r="183" spans="1:22">
+      <c r="A183" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C183,Albums!$C:$C,0))</f>
+        <v>17</v>
+      </c>
       <c r="B183">
+        <f>INDEX(Albums!$B:$B, MATCH(C183,Albums!$C:$C,0))</f>
         <v>2014</v>
       </c>
       <c r="C183" t="s">
@@ -9965,8 +10979,13 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="184" spans="2:22">
+    <row r="184" spans="1:22">
+      <c r="A184" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C184,Albums!$C:$C,0))</f>
+        <v>17</v>
+      </c>
       <c r="B184">
+        <f>INDEX(Albums!$B:$B, MATCH(C184,Albums!$C:$C,0))</f>
         <v>2014</v>
       </c>
       <c r="C184" t="s">
@@ -10028,8 +11047,13 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="185" spans="2:22">
+    <row r="185" spans="1:22">
+      <c r="A185" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C185,Albums!$C:$C,0))</f>
+        <v>17</v>
+      </c>
       <c r="B185">
+        <f>INDEX(Albums!$B:$B, MATCH(C185,Albums!$C:$C,0))</f>
         <v>2014</v>
       </c>
       <c r="C185" t="s">
@@ -10057,8 +11081,13 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="186" spans="2:22">
+    <row r="186" spans="1:22">
+      <c r="A186" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C186,Albums!$C:$C,0))</f>
+        <v>17</v>
+      </c>
       <c r="B186">
+        <f>INDEX(Albums!$B:$B, MATCH(C186,Albums!$C:$C,0))</f>
         <v>2014</v>
       </c>
       <c r="C186" t="s">
@@ -10086,8 +11115,13 @@
         <v>5060793</v>
       </c>
     </row>
-    <row r="187" spans="2:22">
+    <row r="187" spans="1:22">
+      <c r="A187" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C187,Albums!$C:$C,0))</f>
+        <v>17</v>
+      </c>
       <c r="B187">
+        <f>INDEX(Albums!$B:$B, MATCH(C187,Albums!$C:$C,0))</f>
         <v>2014</v>
       </c>
       <c r="C187" t="s">
@@ -10115,8 +11149,13 @@
         <v>164361</v>
       </c>
     </row>
-    <row r="188" spans="2:22">
+    <row r="188" spans="1:22">
+      <c r="A188" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C188,Albums!$C:$C,0))</f>
+        <v>17</v>
+      </c>
       <c r="B188">
+        <f>INDEX(Albums!$B:$B, MATCH(C188,Albums!$C:$C,0))</f>
         <v>2014</v>
       </c>
       <c r="C188" t="s">
@@ -10144,8 +11183,13 @@
         <v>5710744</v>
       </c>
     </row>
-    <row r="189" spans="2:22">
+    <row r="189" spans="1:22">
+      <c r="A189" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C189,Albums!$C:$C,0))</f>
+        <v>17</v>
+      </c>
       <c r="B189">
+        <f>INDEX(Albums!$B:$B, MATCH(C189,Albums!$C:$C,0))</f>
         <v>2014</v>
       </c>
       <c r="C189" t="s">
@@ -10173,8 +11217,13 @@
         <v>5627758</v>
       </c>
     </row>
-    <row r="190" spans="2:22">
+    <row r="190" spans="1:22">
+      <c r="A190" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C190,Albums!$C:$C,0))</f>
+        <v>17</v>
+      </c>
       <c r="B190">
+        <f>INDEX(Albums!$B:$B, MATCH(C190,Albums!$C:$C,0))</f>
         <v>2014</v>
       </c>
       <c r="C190" t="s">
@@ -10202,8 +11251,13 @@
         <v>4556538</v>
       </c>
     </row>
-    <row r="191" spans="2:22">
+    <row r="191" spans="1:22">
+      <c r="A191" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C191,Albums!$C:$C,0))</f>
+        <v>17</v>
+      </c>
       <c r="B191">
+        <f>INDEX(Albums!$B:$B, MATCH(C191,Albums!$C:$C,0))</f>
         <v>2014</v>
       </c>
       <c r="C191" t="s">
@@ -10231,8 +11285,13 @@
         <v>5409079</v>
       </c>
     </row>
-    <row r="192" spans="2:22">
+    <row r="192" spans="1:22">
+      <c r="A192" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C192,Albums!$C:$C,0))</f>
+        <v>18</v>
+      </c>
       <c r="B192">
+        <f>INDEX(Albums!$B:$B, MATCH(C192,Albums!$C:$C,0))</f>
         <v>2014</v>
       </c>
       <c r="C192" t="s">
@@ -10291,8 +11350,13 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="193" spans="2:22">
+    <row r="193" spans="1:22">
+      <c r="A193" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C193,Albums!$C:$C,0))</f>
+        <v>18</v>
+      </c>
       <c r="B193">
+        <f>INDEX(Albums!$B:$B, MATCH(C193,Albums!$C:$C,0))</f>
         <v>2014</v>
       </c>
       <c r="C193" t="s">
@@ -10320,8 +11384,13 @@
         <v>4403076</v>
       </c>
     </row>
-    <row r="194" spans="2:22">
+    <row r="194" spans="1:22">
+      <c r="A194" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C194,Albums!$C:$C,0))</f>
+        <v>18</v>
+      </c>
       <c r="B194">
+        <f>INDEX(Albums!$B:$B, MATCH(C194,Albums!$C:$C,0))</f>
         <v>2014</v>
       </c>
       <c r="C194" t="s">
@@ -10349,8 +11418,13 @@
         <v>1866132</v>
       </c>
     </row>
-    <row r="195" spans="2:22">
+    <row r="195" spans="1:22">
+      <c r="A195" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C195,Albums!$C:$C,0))</f>
+        <v>18</v>
+      </c>
       <c r="B195">
+        <f>INDEX(Albums!$B:$B, MATCH(C195,Albums!$C:$C,0))</f>
         <v>2014</v>
       </c>
       <c r="C195" t="s">
@@ -10378,8 +11452,13 @@
         <v>4329411</v>
       </c>
     </row>
-    <row r="196" spans="2:22">
+    <row r="196" spans="1:22">
+      <c r="A196" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C196,Albums!$C:$C,0))</f>
+        <v>18</v>
+      </c>
       <c r="B196">
+        <f>INDEX(Albums!$B:$B, MATCH(C196,Albums!$C:$C,0))</f>
         <v>2014</v>
       </c>
       <c r="C196" t="s">
@@ -10407,8 +11486,13 @@
         <v>4447984</v>
       </c>
     </row>
-    <row r="197" spans="2:22">
+    <row r="197" spans="1:22">
+      <c r="A197" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C197,Albums!$C:$C,0))</f>
+        <v>18</v>
+      </c>
       <c r="B197">
+        <f>INDEX(Albums!$B:$B, MATCH(C197,Albums!$C:$C,0))</f>
         <v>2014</v>
       </c>
       <c r="C197" t="s">
@@ -10436,8 +11520,13 @@
         <v>4674166</v>
       </c>
     </row>
-    <row r="198" spans="2:22">
+    <row r="198" spans="1:22">
+      <c r="A198" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C198,Albums!$C:$C,0))</f>
+        <v>18</v>
+      </c>
       <c r="B198">
+        <f>INDEX(Albums!$B:$B, MATCH(C198,Albums!$C:$C,0))</f>
         <v>2014</v>
       </c>
       <c r="C198" t="s">
@@ -10465,8 +11554,13 @@
         <v>3599479</v>
       </c>
     </row>
-    <row r="199" spans="2:22">
+    <row r="199" spans="1:22">
+      <c r="A199" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C199,Albums!$C:$C,0))</f>
+        <v>18</v>
+      </c>
       <c r="B199">
+        <f>INDEX(Albums!$B:$B, MATCH(C199,Albums!$C:$C,0))</f>
         <v>2014</v>
       </c>
       <c r="C199" t="s">
@@ -10525,8 +11619,13 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="200" spans="2:22">
+    <row r="200" spans="1:22">
+      <c r="A200" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C200,Albums!$C:$C,0))</f>
+        <v>18</v>
+      </c>
       <c r="B200">
+        <f>INDEX(Albums!$B:$B, MATCH(C200,Albums!$C:$C,0))</f>
         <v>2014</v>
       </c>
       <c r="C200" t="s">
@@ -10554,8 +11653,13 @@
         <v>5553530</v>
       </c>
     </row>
-    <row r="201" spans="2:22">
+    <row r="201" spans="1:22">
+      <c r="A201" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C201,Albums!$C:$C,0))</f>
+        <v>18</v>
+      </c>
       <c r="B201">
+        <f>INDEX(Albums!$B:$B, MATCH(C201,Albums!$C:$C,0))</f>
         <v>2014</v>
       </c>
       <c r="C201" t="s">
@@ -10583,8 +11687,13 @@
         <v>4325556</v>
       </c>
     </row>
-    <row r="202" spans="2:22">
+    <row r="202" spans="1:22">
+      <c r="A202" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C202,Albums!$C:$C,0))</f>
+        <v>19</v>
+      </c>
       <c r="B202">
+        <f>INDEX(Albums!$B:$B, MATCH(C202,Albums!$C:$C,0))</f>
         <v>2014</v>
       </c>
       <c r="C202" t="s">
@@ -10612,8 +11721,13 @@
         <v>5295221</v>
       </c>
     </row>
-    <row r="203" spans="2:22">
+    <row r="203" spans="1:22">
+      <c r="A203" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C203,Albums!$C:$C,0))</f>
+        <v>19</v>
+      </c>
       <c r="B203">
+        <f>INDEX(Albums!$B:$B, MATCH(C203,Albums!$C:$C,0))</f>
         <v>2014</v>
       </c>
       <c r="C203" t="s">
@@ -10641,8 +11755,13 @@
         <v>7029516</v>
       </c>
     </row>
-    <row r="204" spans="2:22">
+    <row r="204" spans="1:22">
+      <c r="A204" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C204,Albums!$C:$C,0))</f>
+        <v>19</v>
+      </c>
       <c r="B204">
+        <f>INDEX(Albums!$B:$B, MATCH(C204,Albums!$C:$C,0))</f>
         <v>2014</v>
       </c>
       <c r="C204" t="s">
@@ -10701,8 +11820,13 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="205" spans="2:22">
+    <row r="205" spans="1:22">
+      <c r="A205" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C205,Albums!$C:$C,0))</f>
+        <v>19</v>
+      </c>
       <c r="B205">
+        <f>INDEX(Albums!$B:$B, MATCH(C205,Albums!$C:$C,0))</f>
         <v>2014</v>
       </c>
       <c r="C205" t="s">
@@ -10761,8 +11885,13 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="206" spans="2:22">
+    <row r="206" spans="1:22">
+      <c r="A206" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C206,Albums!$C:$C,0))</f>
+        <v>19</v>
+      </c>
       <c r="B206">
+        <f>INDEX(Albums!$B:$B, MATCH(C206,Albums!$C:$C,0))</f>
         <v>2014</v>
       </c>
       <c r="C206" t="s">
@@ -10821,8 +11950,13 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="207" spans="2:22">
+    <row r="207" spans="1:22">
+      <c r="A207" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C207,Albums!$C:$C,0))</f>
+        <v>19</v>
+      </c>
       <c r="B207">
+        <f>INDEX(Albums!$B:$B, MATCH(C207,Albums!$C:$C,0))</f>
         <v>2014</v>
       </c>
       <c r="C207" t="s">
@@ -10850,8 +11984,13 @@
         <v>6590839</v>
       </c>
     </row>
-    <row r="208" spans="2:22">
+    <row r="208" spans="1:22">
+      <c r="A208" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C208,Albums!$C:$C,0))</f>
+        <v>19</v>
+      </c>
       <c r="B208">
+        <f>INDEX(Albums!$B:$B, MATCH(C208,Albums!$C:$C,0))</f>
         <v>2014</v>
       </c>
       <c r="C208" t="s">
@@ -10880,7 +12019,12 @@
       </c>
     </row>
     <row r="209" spans="1:22">
+      <c r="A209" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C209,Albums!$C:$C,0))</f>
+        <v>19</v>
+      </c>
       <c r="B209">
+        <f>INDEX(Albums!$B:$B, MATCH(C209,Albums!$C:$C,0))</f>
         <v>2014</v>
       </c>
       <c r="C209" t="s">
@@ -10909,7 +12053,12 @@
       </c>
     </row>
     <row r="210" spans="1:22">
+      <c r="A210" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C210,Albums!$C:$C,0))</f>
+        <v>19</v>
+      </c>
       <c r="B210">
+        <f>INDEX(Albums!$B:$B, MATCH(C210,Albums!$C:$C,0))</f>
         <v>2014</v>
       </c>
       <c r="C210" t="s">
@@ -10938,7 +12087,12 @@
       </c>
     </row>
     <row r="211" spans="1:22">
+      <c r="A211" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C211,Albums!$C:$C,0))</f>
+        <v>19</v>
+      </c>
       <c r="B211">
+        <f>INDEX(Albums!$B:$B, MATCH(C211,Albums!$C:$C,0))</f>
         <v>2014</v>
       </c>
       <c r="C211" t="s">
@@ -10967,7 +12121,12 @@
       </c>
     </row>
     <row r="212" spans="1:22">
+      <c r="A212" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C212,Albums!$C:$C,0))</f>
+        <v>20</v>
+      </c>
       <c r="B212">
+        <f>INDEX(Albums!$B:$B, MATCH(C212,Albums!$C:$C,0))</f>
         <v>2014</v>
       </c>
       <c r="C212" t="s">
@@ -10996,7 +12155,12 @@
       </c>
     </row>
     <row r="213" spans="1:22">
+      <c r="A213" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C213,Albums!$C:$C,0))</f>
+        <v>20</v>
+      </c>
       <c r="B213">
+        <f>INDEX(Albums!$B:$B, MATCH(C213,Albums!$C:$C,0))</f>
         <v>2014</v>
       </c>
       <c r="C213" t="s">
@@ -11056,7 +12220,12 @@
       </c>
     </row>
     <row r="214" spans="1:22">
+      <c r="A214" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C214,Albums!$C:$C,0))</f>
+        <v>20</v>
+      </c>
       <c r="B214">
+        <f>INDEX(Albums!$B:$B, MATCH(C214,Albums!$C:$C,0))</f>
         <v>2014</v>
       </c>
       <c r="C214" t="s">
@@ -11085,7 +12254,12 @@
       </c>
     </row>
     <row r="215" spans="1:22">
+      <c r="A215" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C215,Albums!$C:$C,0))</f>
+        <v>20</v>
+      </c>
       <c r="B215">
+        <f>INDEX(Albums!$B:$B, MATCH(C215,Albums!$C:$C,0))</f>
         <v>2014</v>
       </c>
       <c r="C215" t="s">
@@ -11114,7 +12288,12 @@
       </c>
     </row>
     <row r="216" spans="1:22">
+      <c r="A216" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C216,Albums!$C:$C,0))</f>
+        <v>20</v>
+      </c>
       <c r="B216">
+        <f>INDEX(Albums!$B:$B, MATCH(C216,Albums!$C:$C,0))</f>
         <v>2014</v>
       </c>
       <c r="C216" t="s">
@@ -11174,7 +12353,12 @@
       </c>
     </row>
     <row r="217" spans="1:22">
+      <c r="A217" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C217,Albums!$C:$C,0))</f>
+        <v>20</v>
+      </c>
       <c r="B217">
+        <f>INDEX(Albums!$B:$B, MATCH(C217,Albums!$C:$C,0))</f>
         <v>2014</v>
       </c>
       <c r="C217" t="s">
@@ -11234,7 +12418,12 @@
       </c>
     </row>
     <row r="218" spans="1:22">
+      <c r="A218" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C218,Albums!$C:$C,0))</f>
+        <v>20</v>
+      </c>
       <c r="B218">
+        <f>INDEX(Albums!$B:$B, MATCH(C218,Albums!$C:$C,0))</f>
         <v>2014</v>
       </c>
       <c r="C218" t="s">
@@ -11294,7 +12483,12 @@
       </c>
     </row>
     <row r="219" spans="1:22">
+      <c r="A219" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C219,Albums!$C:$C,0))</f>
+        <v>20</v>
+      </c>
       <c r="B219">
+        <f>INDEX(Albums!$B:$B, MATCH(C219,Albums!$C:$C,0))</f>
         <v>2014</v>
       </c>
       <c r="C219" t="s">
@@ -11354,7 +12548,12 @@
       </c>
     </row>
     <row r="220" spans="1:22">
+      <c r="A220" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C220,Albums!$C:$C,0))</f>
+        <v>20</v>
+      </c>
       <c r="B220">
+        <f>INDEX(Albums!$B:$B, MATCH(C220,Albums!$C:$C,0))</f>
         <v>2014</v>
       </c>
       <c r="C220" t="s">
@@ -11414,7 +12613,12 @@
       </c>
     </row>
     <row r="221" spans="1:22">
+      <c r="A221" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C221,Albums!$C:$C,0))</f>
+        <v>20</v>
+      </c>
       <c r="B221">
+        <f>INDEX(Albums!$B:$B, MATCH(C221,Albums!$C:$C,0))</f>
         <v>2014</v>
       </c>
       <c r="C221" t="s">
@@ -11474,8 +12678,12 @@
       </c>
     </row>
     <row r="222" spans="1:22">
-      <c r="A222" s="1"/>
+      <c r="A222" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C222,Albums!$C:$C,0))</f>
+        <v>21</v>
+      </c>
       <c r="B222">
+        <f>INDEX(Albums!$B:$B, MATCH(C222,Albums!$C:$C,0))</f>
         <v>2015</v>
       </c>
       <c r="C222" t="s">
@@ -11504,8 +12712,12 @@
       </c>
     </row>
     <row r="223" spans="1:22">
-      <c r="A223" s="1"/>
+      <c r="A223" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C223,Albums!$C:$C,0))</f>
+        <v>21</v>
+      </c>
       <c r="B223">
+        <f>INDEX(Albums!$B:$B, MATCH(C223,Albums!$C:$C,0))</f>
         <v>2015</v>
       </c>
       <c r="C223" t="s">
@@ -11534,8 +12746,12 @@
       </c>
     </row>
     <row r="224" spans="1:22">
-      <c r="A224" s="1"/>
+      <c r="A224" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C224,Albums!$C:$C,0))</f>
+        <v>21</v>
+      </c>
       <c r="B224">
+        <f>INDEX(Albums!$B:$B, MATCH(C224,Albums!$C:$C,0))</f>
         <v>2015</v>
       </c>
       <c r="C224" t="s">
@@ -11564,8 +12780,12 @@
       </c>
     </row>
     <row r="225" spans="1:22">
-      <c r="A225" s="1"/>
+      <c r="A225" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C225,Albums!$C:$C,0))</f>
+        <v>21</v>
+      </c>
       <c r="B225">
+        <f>INDEX(Albums!$B:$B, MATCH(C225,Albums!$C:$C,0))</f>
         <v>2015</v>
       </c>
       <c r="C225" t="s">
@@ -11594,8 +12814,12 @@
       </c>
     </row>
     <row r="226" spans="1:22">
-      <c r="A226" s="1"/>
+      <c r="A226" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C226,Albums!$C:$C,0))</f>
+        <v>21</v>
+      </c>
       <c r="B226">
+        <f>INDEX(Albums!$B:$B, MATCH(C226,Albums!$C:$C,0))</f>
         <v>2015</v>
       </c>
       <c r="C226" t="s">
@@ -11624,8 +12848,12 @@
       </c>
     </row>
     <row r="227" spans="1:22">
-      <c r="A227" s="1"/>
+      <c r="A227" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C227,Albums!$C:$C,0))</f>
+        <v>21</v>
+      </c>
       <c r="B227">
+        <f>INDEX(Albums!$B:$B, MATCH(C227,Albums!$C:$C,0))</f>
         <v>2015</v>
       </c>
       <c r="C227" t="s">
@@ -11654,8 +12882,12 @@
       </c>
     </row>
     <row r="228" spans="1:22">
-      <c r="A228" s="1"/>
+      <c r="A228" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C228,Albums!$C:$C,0))</f>
+        <v>21</v>
+      </c>
       <c r="B228">
+        <f>INDEX(Albums!$B:$B, MATCH(C228,Albums!$C:$C,0))</f>
         <v>2015</v>
       </c>
       <c r="C228" t="s">
@@ -11684,8 +12916,12 @@
       </c>
     </row>
     <row r="229" spans="1:22">
-      <c r="A229" s="1"/>
+      <c r="A229" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C229,Albums!$C:$C,0))</f>
+        <v>21</v>
+      </c>
       <c r="B229">
+        <f>INDEX(Albums!$B:$B, MATCH(C229,Albums!$C:$C,0))</f>
         <v>2015</v>
       </c>
       <c r="C229" t="s">
@@ -11714,8 +12950,12 @@
       </c>
     </row>
     <row r="230" spans="1:22">
-      <c r="A230" s="1"/>
+      <c r="A230" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C230,Albums!$C:$C,0))</f>
+        <v>21</v>
+      </c>
       <c r="B230">
+        <f>INDEX(Albums!$B:$B, MATCH(C230,Albums!$C:$C,0))</f>
         <v>2015</v>
       </c>
       <c r="C230" t="s">
@@ -11744,8 +12984,12 @@
       </c>
     </row>
     <row r="231" spans="1:22">
-      <c r="A231" s="1"/>
+      <c r="A231" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C231,Albums!$C:$C,0))</f>
+        <v>21</v>
+      </c>
       <c r="B231">
+        <f>INDEX(Albums!$B:$B, MATCH(C231,Albums!$C:$C,0))</f>
         <v>2015</v>
       </c>
       <c r="C231" t="s">
@@ -11774,7 +13018,12 @@
       </c>
     </row>
     <row r="232" spans="1:22">
+      <c r="A232" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C232,Albums!$C:$C,0))</f>
+        <v>21</v>
+      </c>
       <c r="B232">
+        <f>INDEX(Albums!$B:$B, MATCH(C232,Albums!$C:$C,0))</f>
         <v>2015</v>
       </c>
       <c r="C232" t="s">
@@ -11803,7 +13052,12 @@
       </c>
     </row>
     <row r="233" spans="1:22">
+      <c r="A233" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C233,Albums!$C:$C,0))</f>
+        <v>21</v>
+      </c>
       <c r="B233">
+        <f>INDEX(Albums!$B:$B, MATCH(C233,Albums!$C:$C,0))</f>
         <v>2015</v>
       </c>
       <c r="C233" t="s">
@@ -11832,7 +13086,12 @@
       </c>
     </row>
     <row r="234" spans="1:22">
+      <c r="A234" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C234,Albums!$C:$C,0))</f>
+        <v>22</v>
+      </c>
       <c r="B234">
+        <f>INDEX(Albums!$B:$B, MATCH(C234,Albums!$C:$C,0))</f>
         <v>2015</v>
       </c>
       <c r="C234" s="8" t="s">
@@ -11872,7 +13131,12 @@
       <c r="V234" s="1"/>
     </row>
     <row r="235" spans="1:22">
+      <c r="A235" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C235,Albums!$C:$C,0))</f>
+        <v>22</v>
+      </c>
       <c r="B235">
+        <f>INDEX(Albums!$B:$B, MATCH(C235,Albums!$C:$C,0))</f>
         <v>2015</v>
       </c>
       <c r="C235" s="8" t="s">
@@ -11912,7 +13176,12 @@
       <c r="V235" s="1"/>
     </row>
     <row r="236" spans="1:22">
+      <c r="A236" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C236,Albums!$C:$C,0))</f>
+        <v>22</v>
+      </c>
       <c r="B236">
+        <f>INDEX(Albums!$B:$B, MATCH(C236,Albums!$C:$C,0))</f>
         <v>2015</v>
       </c>
       <c r="C236" s="8" t="s">
@@ -11952,7 +13221,12 @@
       <c r="V236" s="1"/>
     </row>
     <row r="237" spans="1:22">
+      <c r="A237" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C237,Albums!$C:$C,0))</f>
+        <v>22</v>
+      </c>
       <c r="B237">
+        <f>INDEX(Albums!$B:$B, MATCH(C237,Albums!$C:$C,0))</f>
         <v>2015</v>
       </c>
       <c r="C237" s="8" t="s">
@@ -12013,7 +13287,12 @@
       </c>
     </row>
     <row r="238" spans="1:22">
+      <c r="A238" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C238,Albums!$C:$C,0))</f>
+        <v>22</v>
+      </c>
       <c r="B238">
+        <f>INDEX(Albums!$B:$B, MATCH(C238,Albums!$C:$C,0))</f>
         <v>2015</v>
       </c>
       <c r="C238" s="8" t="s">
@@ -12074,7 +13353,12 @@
       </c>
     </row>
     <row r="239" spans="1:22">
+      <c r="A239" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C239,Albums!$C:$C,0))</f>
+        <v>22</v>
+      </c>
       <c r="B239">
+        <f>INDEX(Albums!$B:$B, MATCH(C239,Albums!$C:$C,0))</f>
         <v>2015</v>
       </c>
       <c r="C239" s="8" t="s">
@@ -12114,7 +13398,12 @@
       <c r="V239" s="1"/>
     </row>
     <row r="240" spans="1:22">
+      <c r="A240" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C240,Albums!$C:$C,0))</f>
+        <v>22</v>
+      </c>
       <c r="B240">
+        <f>INDEX(Albums!$B:$B, MATCH(C240,Albums!$C:$C,0))</f>
         <v>2015</v>
       </c>
       <c r="C240" s="8" t="s">
@@ -12153,8 +13442,13 @@
       <c r="U240" s="6"/>
       <c r="V240" s="1"/>
     </row>
-    <row r="241" spans="2:22">
+    <row r="241" spans="1:22">
+      <c r="A241" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C241,Albums!$C:$C,0))</f>
+        <v>22</v>
+      </c>
       <c r="B241">
+        <f>INDEX(Albums!$B:$B, MATCH(C241,Albums!$C:$C,0))</f>
         <v>2015</v>
       </c>
       <c r="C241" s="8" t="s">
@@ -12193,8 +13487,13 @@
       <c r="U241" s="6"/>
       <c r="V241" s="1"/>
     </row>
-    <row r="242" spans="2:22">
+    <row r="242" spans="1:22">
+      <c r="A242" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C242,Albums!$C:$C,0))</f>
+        <v>22</v>
+      </c>
       <c r="B242">
+        <f>INDEX(Albums!$B:$B, MATCH(C242,Albums!$C:$C,0))</f>
         <v>2015</v>
       </c>
       <c r="C242" s="8" t="s">
@@ -12254,8 +13553,13 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="243" spans="2:22">
+    <row r="243" spans="1:22">
+      <c r="A243" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C243,Albums!$C:$C,0))</f>
+        <v>22</v>
+      </c>
       <c r="B243">
+        <f>INDEX(Albums!$B:$B, MATCH(C243,Albums!$C:$C,0))</f>
         <v>2015</v>
       </c>
       <c r="C243" s="8" t="s">
@@ -12315,18 +13619,23 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="244" spans="2:22">
+    <row r="244" spans="1:22">
+      <c r="A244" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C244,Albums!$C:$C,0))</f>
+        <v>23</v>
+      </c>
       <c r="B244">
+        <f>INDEX(Albums!$B:$B, MATCH(C244,Albums!$C:$C,0))</f>
         <v>2016</v>
       </c>
       <c r="C244" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D244" s="8">
         <v>1</v>
       </c>
       <c r="E244" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="L244" s="26"/>
       <c r="O244" s="2"/>
@@ -12338,18 +13647,23 @@
       <c r="U244" s="3"/>
       <c r="V244" s="1"/>
     </row>
-    <row r="245" spans="2:22">
+    <row r="245" spans="1:22">
+      <c r="A245" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C245,Albums!$C:$C,0))</f>
+        <v>23</v>
+      </c>
       <c r="B245">
+        <f>INDEX(Albums!$B:$B, MATCH(C245,Albums!$C:$C,0))</f>
         <v>2016</v>
       </c>
       <c r="C245" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D245" s="8">
         <v>2</v>
       </c>
       <c r="E245" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="L245" s="26"/>
       <c r="O245" s="2"/>
@@ -12361,18 +13675,23 @@
       <c r="U245" s="3"/>
       <c r="V245" s="1"/>
     </row>
-    <row r="246" spans="2:22">
+    <row r="246" spans="1:22">
+      <c r="A246" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C246,Albums!$C:$C,0))</f>
+        <v>23</v>
+      </c>
       <c r="B246">
+        <f>INDEX(Albums!$B:$B, MATCH(C246,Albums!$C:$C,0))</f>
         <v>2016</v>
       </c>
       <c r="C246" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D246" s="8">
         <v>3</v>
       </c>
       <c r="E246" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="L246" s="26"/>
       <c r="O246" s="2"/>
@@ -12384,18 +13703,23 @@
       <c r="U246" s="3"/>
       <c r="V246" s="1"/>
     </row>
-    <row r="247" spans="2:22">
+    <row r="247" spans="1:22">
+      <c r="A247" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C247,Albums!$C:$C,0))</f>
+        <v>23</v>
+      </c>
       <c r="B247">
+        <f>INDEX(Albums!$B:$B, MATCH(C247,Albums!$C:$C,0))</f>
         <v>2016</v>
       </c>
       <c r="C247" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D247" s="8">
         <v>4</v>
       </c>
       <c r="E247" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="L247" s="26"/>
       <c r="O247" s="2"/>
@@ -12407,18 +13731,23 @@
       <c r="U247" s="3"/>
       <c r="V247" s="1"/>
     </row>
-    <row r="248" spans="2:22">
+    <row r="248" spans="1:22">
+      <c r="A248" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C248,Albums!$C:$C,0))</f>
+        <v>23</v>
+      </c>
       <c r="B248">
+        <f>INDEX(Albums!$B:$B, MATCH(C248,Albums!$C:$C,0))</f>
         <v>2016</v>
       </c>
       <c r="C248" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D248" s="8">
         <v>5</v>
       </c>
       <c r="E248" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="L248" s="26"/>
       <c r="O248" s="2"/>
@@ -12430,18 +13759,23 @@
       <c r="U248" s="3"/>
       <c r="V248" s="1"/>
     </row>
-    <row r="249" spans="2:22">
+    <row r="249" spans="1:22">
+      <c r="A249" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C249,Albums!$C:$C,0))</f>
+        <v>23</v>
+      </c>
       <c r="B249">
+        <f>INDEX(Albums!$B:$B, MATCH(C249,Albums!$C:$C,0))</f>
         <v>2016</v>
       </c>
       <c r="C249" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D249" s="8">
         <v>6</v>
       </c>
       <c r="E249" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="L249" s="26"/>
       <c r="O249" s="2"/>
@@ -12453,18 +13787,23 @@
       <c r="U249" s="3"/>
       <c r="V249" s="1"/>
     </row>
-    <row r="250" spans="2:22">
+    <row r="250" spans="1:22">
+      <c r="A250" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C250,Albums!$C:$C,0))</f>
+        <v>23</v>
+      </c>
       <c r="B250">
+        <f>INDEX(Albums!$B:$B, MATCH(C250,Albums!$C:$C,0))</f>
         <v>2016</v>
       </c>
       <c r="C250" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D250" s="8">
         <v>7</v>
       </c>
       <c r="E250" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="L250" s="26"/>
       <c r="O250" s="2"/>
@@ -12476,18 +13815,23 @@
       <c r="U250" s="3"/>
       <c r="V250" s="1"/>
     </row>
-    <row r="251" spans="2:22">
+    <row r="251" spans="1:22">
+      <c r="A251" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C251,Albums!$C:$C,0))</f>
+        <v>23</v>
+      </c>
       <c r="B251">
+        <f>INDEX(Albums!$B:$B, MATCH(C251,Albums!$C:$C,0))</f>
         <v>2016</v>
       </c>
       <c r="C251" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D251" s="8">
         <v>8</v>
       </c>
       <c r="E251" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="L251" s="26"/>
       <c r="O251" s="2"/>
@@ -12499,18 +13843,23 @@
       <c r="U251" s="3"/>
       <c r="V251" s="1"/>
     </row>
-    <row r="252" spans="2:22">
+    <row r="252" spans="1:22">
+      <c r="A252" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C252,Albums!$C:$C,0))</f>
+        <v>23</v>
+      </c>
       <c r="B252">
+        <f>INDEX(Albums!$B:$B, MATCH(C252,Albums!$C:$C,0))</f>
         <v>2016</v>
       </c>
       <c r="C252" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D252" s="8">
         <v>9</v>
       </c>
       <c r="E252" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="L252" s="26"/>
       <c r="O252" s="2"/>
@@ -12522,12 +13871,17 @@
       <c r="U252" s="3"/>
       <c r="V252" s="1"/>
     </row>
-    <row r="253" spans="2:22">
+    <row r="253" spans="1:22">
+      <c r="A253" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C253,Albums!$C:$C,0))</f>
+        <v>23</v>
+      </c>
       <c r="B253">
+        <f>INDEX(Albums!$B:$B, MATCH(C253,Albums!$C:$C,0))</f>
         <v>2016</v>
       </c>
       <c r="C253" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D253" s="8">
         <v>10</v>
@@ -12545,12 +13899,17 @@
       <c r="U253" s="3"/>
       <c r="V253" s="1"/>
     </row>
-    <row r="254" spans="2:22">
+    <row r="254" spans="1:22">
+      <c r="A254" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C254,Albums!$C:$C,0))</f>
+        <v>23</v>
+      </c>
       <c r="B254">
+        <f>INDEX(Albums!$B:$B, MATCH(C254,Albums!$C:$C,0))</f>
         <v>2016</v>
       </c>
       <c r="C254" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D254" s="8">
         <v>11</v>
@@ -12568,12 +13927,17 @@
       <c r="U254" s="3"/>
       <c r="V254" s="1"/>
     </row>
-    <row r="255" spans="2:22">
+    <row r="255" spans="1:22">
+      <c r="A255" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C255,Albums!$C:$C,0))</f>
+        <v>23</v>
+      </c>
       <c r="B255">
+        <f>INDEX(Albums!$B:$B, MATCH(C255,Albums!$C:$C,0))</f>
         <v>2016</v>
       </c>
       <c r="C255" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D255" s="8">
         <v>12</v>
@@ -12591,12 +13955,17 @@
       <c r="U255" s="3"/>
       <c r="V255" s="1"/>
     </row>
-    <row r="256" spans="2:22">
+    <row r="256" spans="1:22">
+      <c r="A256" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C256,Albums!$C:$C,0))</f>
+        <v>23</v>
+      </c>
       <c r="B256">
+        <f>INDEX(Albums!$B:$B, MATCH(C256,Albums!$C:$C,0))</f>
         <v>2016</v>
       </c>
       <c r="C256" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D256" s="8">
         <v>13</v>
@@ -12614,8 +13983,13 @@
       <c r="U256" s="3"/>
       <c r="V256" s="1"/>
     </row>
-    <row r="257" spans="2:22">
+    <row r="257" spans="1:22">
+      <c r="A257" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C257,Albums!$C:$C,0))</f>
+        <v>24</v>
+      </c>
       <c r="B257">
+        <f>INDEX(Albums!$B:$B, MATCH(C257,Albums!$C:$C,0))</f>
         <v>2016</v>
       </c>
       <c r="C257" t="s">
@@ -12674,8 +14048,13 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="258" spans="2:22">
+    <row r="258" spans="1:22">
+      <c r="A258" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C258,Albums!$C:$C,0))</f>
+        <v>24</v>
+      </c>
       <c r="B258">
+        <f>INDEX(Albums!$B:$B, MATCH(C258,Albums!$C:$C,0))</f>
         <v>2016</v>
       </c>
       <c r="C258" t="s">
@@ -12703,8 +14082,13 @@
         <v>6304702</v>
       </c>
     </row>
-    <row r="259" spans="2:22">
+    <row r="259" spans="1:22">
+      <c r="A259" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C259,Albums!$C:$C,0))</f>
+        <v>24</v>
+      </c>
       <c r="B259">
+        <f>INDEX(Albums!$B:$B, MATCH(C259,Albums!$C:$C,0))</f>
         <v>2016</v>
       </c>
       <c r="C259" t="s">
@@ -12763,8 +14147,13 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="260" spans="2:22">
+    <row r="260" spans="1:22">
+      <c r="A260" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C260,Albums!$C:$C,0))</f>
+        <v>24</v>
+      </c>
       <c r="B260">
+        <f>INDEX(Albums!$B:$B, MATCH(C260,Albums!$C:$C,0))</f>
         <v>2016</v>
       </c>
       <c r="C260" t="s">
@@ -12823,8 +14212,13 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="261" spans="2:22">
+    <row r="261" spans="1:22">
+      <c r="A261" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C261,Albums!$C:$C,0))</f>
+        <v>24</v>
+      </c>
       <c r="B261">
+        <f>INDEX(Albums!$B:$B, MATCH(C261,Albums!$C:$C,0))</f>
         <v>2016</v>
       </c>
       <c r="C261" t="s">
@@ -12852,8 +14246,13 @@
         <v>6087919</v>
       </c>
     </row>
-    <row r="262" spans="2:22">
+    <row r="262" spans="1:22">
+      <c r="A262" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C262,Albums!$C:$C,0))</f>
+        <v>24</v>
+      </c>
       <c r="B262">
+        <f>INDEX(Albums!$B:$B, MATCH(C262,Albums!$C:$C,0))</f>
         <v>2016</v>
       </c>
       <c r="C262" t="s">
@@ -12881,8 +14280,13 @@
         <v>6087919</v>
       </c>
     </row>
-    <row r="263" spans="2:22">
+    <row r="263" spans="1:22">
+      <c r="A263" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C263,Albums!$C:$C,0))</f>
+        <v>24</v>
+      </c>
       <c r="B263">
+        <f>INDEX(Albums!$B:$B, MATCH(C263,Albums!$C:$C,0))</f>
         <v>2016</v>
       </c>
       <c r="C263" t="s">
@@ -12941,8 +14345,13 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="264" spans="2:22">
+    <row r="264" spans="1:22">
+      <c r="A264" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C264,Albums!$C:$C,0))</f>
+        <v>24</v>
+      </c>
       <c r="B264">
+        <f>INDEX(Albums!$B:$B, MATCH(C264,Albums!$C:$C,0))</f>
         <v>2016</v>
       </c>
       <c r="C264" t="s">
@@ -13001,8 +14410,13 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="265" spans="2:22">
+    <row r="265" spans="1:22">
+      <c r="A265" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C265,Albums!$C:$C,0))</f>
+        <v>24</v>
+      </c>
       <c r="B265">
+        <f>INDEX(Albums!$B:$B, MATCH(C265,Albums!$C:$C,0))</f>
         <v>2016</v>
       </c>
       <c r="C265" t="s">
@@ -13030,8 +14444,13 @@
         <v>7032344</v>
       </c>
     </row>
-    <row r="266" spans="2:22">
+    <row r="266" spans="1:22">
+      <c r="A266" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C266,Albums!$C:$C,0))</f>
+        <v>24</v>
+      </c>
       <c r="B266">
+        <f>INDEX(Albums!$B:$B, MATCH(C266,Albums!$C:$C,0))</f>
         <v>2016</v>
       </c>
       <c r="C266" t="s">
@@ -13059,8 +14478,13 @@
         <v>6011370</v>
       </c>
     </row>
-    <row r="267" spans="2:22">
+    <row r="267" spans="1:22">
+      <c r="A267" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C267,Albums!$C:$C,0))</f>
+        <v>24</v>
+      </c>
       <c r="B267">
+        <f>INDEX(Albums!$B:$B, MATCH(C267,Albums!$C:$C,0))</f>
         <v>2016</v>
       </c>
       <c r="C267" t="s">
@@ -13088,8 +14512,13 @@
         <v>6327734</v>
       </c>
     </row>
-    <row r="268" spans="2:22">
+    <row r="268" spans="1:22">
+      <c r="A268" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C268,Albums!$C:$C,0))</f>
+        <v>25</v>
+      </c>
       <c r="B268">
+        <f>INDEX(Albums!$B:$B, MATCH(C268,Albums!$C:$C,0))</f>
         <v>2017</v>
       </c>
       <c r="C268" s="8" t="s">
@@ -13117,8 +14546,13 @@
         <v>27721</v>
       </c>
     </row>
-    <row r="269" spans="2:22">
+    <row r="269" spans="1:22">
+      <c r="A269" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C269,Albums!$C:$C,0))</f>
+        <v>25</v>
+      </c>
       <c r="B269">
+        <f>INDEX(Albums!$B:$B, MATCH(C269,Albums!$C:$C,0))</f>
         <v>2017</v>
       </c>
       <c r="C269" s="8" t="s">
@@ -13146,8 +14580,13 @@
         <v>31054</v>
       </c>
     </row>
-    <row r="270" spans="2:22">
+    <row r="270" spans="1:22">
+      <c r="A270" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C270,Albums!$C:$C,0))</f>
+        <v>25</v>
+      </c>
       <c r="B270">
+        <f>INDEX(Albums!$B:$B, MATCH(C270,Albums!$C:$C,0))</f>
         <v>2017</v>
       </c>
       <c r="C270" s="8" t="s">
@@ -13175,8 +14614,13 @@
         <v>29080</v>
       </c>
     </row>
-    <row r="271" spans="2:22">
+    <row r="271" spans="1:22">
+      <c r="A271" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C271,Albums!$C:$C,0))</f>
+        <v>25</v>
+      </c>
       <c r="B271">
+        <f>INDEX(Albums!$B:$B, MATCH(C271,Albums!$C:$C,0))</f>
         <v>2017</v>
       </c>
       <c r="C271" s="8" t="s">
@@ -13204,8 +14648,13 @@
         <v>32015</v>
       </c>
     </row>
-    <row r="272" spans="2:22">
+    <row r="272" spans="1:22">
+      <c r="A272" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C272,Albums!$C:$C,0))</f>
+        <v>25</v>
+      </c>
       <c r="B272">
+        <f>INDEX(Albums!$B:$B, MATCH(C272,Albums!$C:$C,0))</f>
         <v>2017</v>
       </c>
       <c r="C272" s="8" t="s">
@@ -13233,8 +14682,13 @@
         <v>24016</v>
       </c>
     </row>
-    <row r="273" spans="2:10">
+    <row r="273" spans="1:10">
+      <c r="A273" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C273,Albums!$C:$C,0))</f>
+        <v>25</v>
+      </c>
       <c r="B273">
+        <f>INDEX(Albums!$B:$B, MATCH(C273,Albums!$C:$C,0))</f>
         <v>2017</v>
       </c>
       <c r="C273" s="8" t="s">
@@ -13262,8 +14716,13 @@
         <v>27862</v>
       </c>
     </row>
-    <row r="274" spans="2:10">
+    <row r="274" spans="1:10">
+      <c r="A274" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C274,Albums!$C:$C,0))</f>
+        <v>25</v>
+      </c>
       <c r="B274">
+        <f>INDEX(Albums!$B:$B, MATCH(C274,Albums!$C:$C,0))</f>
         <v>2017</v>
       </c>
       <c r="C274" s="8" t="s">
@@ -13291,8 +14750,13 @@
         <v>31047</v>
       </c>
     </row>
-    <row r="275" spans="2:10">
+    <row r="275" spans="1:10">
+      <c r="A275" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C275,Albums!$C:$C,0))</f>
+        <v>25</v>
+      </c>
       <c r="B275">
+        <f>INDEX(Albums!$B:$B, MATCH(C275,Albums!$C:$C,0))</f>
         <v>2017</v>
       </c>
       <c r="C275" s="8" t="s">
@@ -13320,8 +14784,13 @@
         <v>31982</v>
       </c>
     </row>
-    <row r="276" spans="2:10">
+    <row r="276" spans="1:10">
+      <c r="A276" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C276,Albums!$C:$C,0))</f>
+        <v>25</v>
+      </c>
       <c r="B276">
+        <f>INDEX(Albums!$B:$B, MATCH(C276,Albums!$C:$C,0))</f>
         <v>2017</v>
       </c>
       <c r="C276" s="8" t="s">
@@ -13346,8 +14815,13 @@
         <v>106</v>
       </c>
     </row>
-    <row r="277" spans="2:10">
+    <row r="277" spans="1:10">
+      <c r="A277" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C277,Albums!$C:$C,0))</f>
+        <v>25</v>
+      </c>
       <c r="B277">
+        <f>INDEX(Albums!$B:$B, MATCH(C277,Albums!$C:$C,0))</f>
         <v>2017</v>
       </c>
       <c r="C277" s="8" t="s">
@@ -13372,8 +14846,13 @@
         <v>73</v>
       </c>
     </row>
-    <row r="278" spans="2:10">
+    <row r="278" spans="1:10">
+      <c r="A278" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C278,Albums!$C:$C,0))</f>
+        <v>26</v>
+      </c>
       <c r="B278">
+        <f>INDEX(Albums!$B:$B, MATCH(C278,Albums!$C:$C,0))</f>
         <v>2017</v>
       </c>
       <c r="C278" t="s">
@@ -13401,8 +14880,13 @@
         <v>31999</v>
       </c>
     </row>
-    <row r="279" spans="2:10">
+    <row r="279" spans="1:10">
+      <c r="A279" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C279,Albums!$C:$C,0))</f>
+        <v>26</v>
+      </c>
       <c r="B279">
+        <f>INDEX(Albums!$B:$B, MATCH(C279,Albums!$C:$C,0))</f>
         <v>2017</v>
       </c>
       <c r="C279" t="s">
@@ -13430,8 +14914,13 @@
         <v>7036006</v>
       </c>
     </row>
-    <row r="280" spans="2:10">
+    <row r="280" spans="1:10">
+      <c r="A280" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C280,Albums!$C:$C,0))</f>
+        <v>26</v>
+      </c>
       <c r="B280">
+        <f>INDEX(Albums!$B:$B, MATCH(C280,Albums!$C:$C,0))</f>
         <v>2017</v>
       </c>
       <c r="C280" t="s">
@@ -13459,8 +14948,13 @@
         <v>27738</v>
       </c>
     </row>
-    <row r="281" spans="2:10">
+    <row r="281" spans="1:10">
+      <c r="A281" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C281,Albums!$C:$C,0))</f>
+        <v>26</v>
+      </c>
       <c r="B281">
+        <f>INDEX(Albums!$B:$B, MATCH(C281,Albums!$C:$C,0))</f>
         <v>2017</v>
       </c>
       <c r="C281" t="s">
@@ -13488,8 +14982,13 @@
         <v>27879</v>
       </c>
     </row>
-    <row r="282" spans="2:10">
+    <row r="282" spans="1:10">
+      <c r="A282" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C282,Albums!$C:$C,0))</f>
+        <v>26</v>
+      </c>
       <c r="B282">
+        <f>INDEX(Albums!$B:$B, MATCH(C282,Albums!$C:$C,0))</f>
         <v>2017</v>
       </c>
       <c r="C282" t="s">
@@ -13514,8 +15013,13 @@
         <v>57</v>
       </c>
     </row>
-    <row r="283" spans="2:10">
+    <row r="283" spans="1:10">
+      <c r="A283" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C283,Albums!$C:$C,0))</f>
+        <v>26</v>
+      </c>
       <c r="B283">
+        <f>INDEX(Albums!$B:$B, MATCH(C283,Albums!$C:$C,0))</f>
         <v>2017</v>
       </c>
       <c r="C283" t="s">
@@ -13540,8 +15044,13 @@
         <v>70</v>
       </c>
     </row>
-    <row r="284" spans="2:10">
+    <row r="284" spans="1:10">
+      <c r="A284" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C284,Albums!$C:$C,0))</f>
+        <v>26</v>
+      </c>
       <c r="B284">
+        <f>INDEX(Albums!$B:$B, MATCH(C284,Albums!$C:$C,0))</f>
         <v>2017</v>
       </c>
       <c r="C284" t="s">
@@ -13569,8 +15078,13 @@
         <v>30983</v>
       </c>
     </row>
-    <row r="285" spans="2:10">
+    <row r="285" spans="1:10">
+      <c r="A285" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C285,Albums!$C:$C,0))</f>
+        <v>26</v>
+      </c>
       <c r="B285">
+        <f>INDEX(Albums!$B:$B, MATCH(C285,Albums!$C:$C,0))</f>
         <v>2017</v>
       </c>
       <c r="C285" t="s">
@@ -13598,8 +15112,13 @@
         <v>38583</v>
       </c>
     </row>
-    <row r="286" spans="2:10">
+    <row r="286" spans="1:10">
+      <c r="A286" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C286,Albums!$C:$C,0))</f>
+        <v>26</v>
+      </c>
       <c r="B286">
+        <f>INDEX(Albums!$B:$B, MATCH(C286,Albums!$C:$C,0))</f>
         <v>2017</v>
       </c>
       <c r="C286" t="s">
@@ -13624,8 +15143,13 @@
         <v>71</v>
       </c>
     </row>
-    <row r="287" spans="2:10">
+    <row r="287" spans="1:10">
+      <c r="A287" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C287,Albums!$C:$C,0))</f>
+        <v>26</v>
+      </c>
       <c r="B287">
+        <f>INDEX(Albums!$B:$B, MATCH(C287,Albums!$C:$C,0))</f>
         <v>2017</v>
       </c>
       <c r="C287" t="s">
@@ -13653,8 +15177,13 @@
         <v>31078</v>
       </c>
     </row>
-    <row r="288" spans="2:10">
+    <row r="288" spans="1:10">
+      <c r="A288" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C288,Albums!$C:$C,0))</f>
+        <v>27</v>
+      </c>
       <c r="B288">
+        <f>INDEX(Albums!$B:$B, MATCH(C288,Albums!$C:$C,0))</f>
         <v>2017</v>
       </c>
       <c r="C288" t="s">
@@ -13682,8 +15211,13 @@
         <v>7083703</v>
       </c>
     </row>
-    <row r="289" spans="2:22">
+    <row r="289" spans="1:22">
+      <c r="A289" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C289,Albums!$C:$C,0))</f>
+        <v>27</v>
+      </c>
       <c r="B289">
+        <f>INDEX(Albums!$B:$B, MATCH(C289,Albums!$C:$C,0))</f>
         <v>2017</v>
       </c>
       <c r="C289" t="s">
@@ -13711,8 +15245,13 @@
         <v>7030068</v>
       </c>
     </row>
-    <row r="290" spans="2:22">
+    <row r="290" spans="1:22">
+      <c r="A290" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C290,Albums!$C:$C,0))</f>
+        <v>27</v>
+      </c>
       <c r="B290">
+        <f>INDEX(Albums!$B:$B, MATCH(C290,Albums!$C:$C,0))</f>
         <v>2017</v>
       </c>
       <c r="C290" t="s">
@@ -13771,8 +15310,13 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="291" spans="2:22">
+    <row r="291" spans="1:22">
+      <c r="A291" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C291,Albums!$C:$C,0))</f>
+        <v>27</v>
+      </c>
       <c r="B291">
+        <f>INDEX(Albums!$B:$B, MATCH(C291,Albums!$C:$C,0))</f>
         <v>2017</v>
       </c>
       <c r="C291" t="s">
@@ -13800,8 +15344,13 @@
         <v>6605212</v>
       </c>
     </row>
-    <row r="292" spans="2:22">
+    <row r="292" spans="1:22">
+      <c r="A292" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C292,Albums!$C:$C,0))</f>
+        <v>27</v>
+      </c>
       <c r="B292">
+        <f>INDEX(Albums!$B:$B, MATCH(C292,Albums!$C:$C,0))</f>
         <v>2017</v>
       </c>
       <c r="C292" t="s">
@@ -13829,8 +15378,13 @@
         <v>7030065</v>
       </c>
     </row>
-    <row r="293" spans="2:22">
+    <row r="293" spans="1:22">
+      <c r="A293" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C293,Albums!$C:$C,0))</f>
+        <v>27</v>
+      </c>
       <c r="B293">
+        <f>INDEX(Albums!$B:$B, MATCH(C293,Albums!$C:$C,0))</f>
         <v>2017</v>
       </c>
       <c r="C293" t="s">
@@ -13858,8 +15412,13 @@
         <v>7030065</v>
       </c>
     </row>
-    <row r="294" spans="2:22">
+    <row r="294" spans="1:22">
+      <c r="A294" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C294,Albums!$C:$C,0))</f>
+        <v>27</v>
+      </c>
       <c r="B294">
+        <f>INDEX(Albums!$B:$B, MATCH(C294,Albums!$C:$C,0))</f>
         <v>2017</v>
       </c>
       <c r="C294" t="s">
@@ -13918,8 +15477,13 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="295" spans="2:22">
+    <row r="295" spans="1:22">
+      <c r="A295" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C295,Albums!$C:$C,0))</f>
+        <v>27</v>
+      </c>
       <c r="B295">
+        <f>INDEX(Albums!$B:$B, MATCH(C295,Albums!$C:$C,0))</f>
         <v>2017</v>
       </c>
       <c r="C295" t="s">
@@ -13947,8 +15511,13 @@
         <v>7083710</v>
       </c>
     </row>
-    <row r="296" spans="2:22">
+    <row r="296" spans="1:22">
+      <c r="A296" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C296,Albums!$C:$C,0))</f>
+        <v>27</v>
+      </c>
       <c r="B296">
+        <f>INDEX(Albums!$B:$B, MATCH(C296,Albums!$C:$C,0))</f>
         <v>2017</v>
       </c>
       <c r="C296" t="s">
@@ -13976,8 +15545,13 @@
         <v>7017790</v>
       </c>
     </row>
-    <row r="297" spans="2:22">
+    <row r="297" spans="1:22">
+      <c r="A297" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C297,Albums!$C:$C,0))</f>
+        <v>27</v>
+      </c>
       <c r="B297">
+        <f>INDEX(Albums!$B:$B, MATCH(C297,Albums!$C:$C,0))</f>
         <v>2017</v>
       </c>
       <c r="C297" t="s">
@@ -14036,8 +15610,13 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="298" spans="2:22">
+    <row r="298" spans="1:22">
+      <c r="A298" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C298,Albums!$C:$C,0))</f>
+        <v>27</v>
+      </c>
       <c r="B298">
+        <f>INDEX(Albums!$B:$B, MATCH(C298,Albums!$C:$C,0))</f>
         <v>2017</v>
       </c>
       <c r="C298" t="s">
@@ -14096,8 +15675,13 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="299" spans="2:22">
+    <row r="299" spans="1:22">
+      <c r="A299" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C299,Albums!$C:$C,0))</f>
+        <v>27</v>
+      </c>
       <c r="B299">
+        <f>INDEX(Albums!$B:$B, MATCH(C299,Albums!$C:$C,0))</f>
         <v>2017</v>
       </c>
       <c r="C299" t="s">
@@ -14156,8 +15740,13 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="300" spans="2:22">
+    <row r="300" spans="1:22">
+      <c r="A300" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C300,Albums!$C:$C,0))</f>
+        <v>27</v>
+      </c>
       <c r="B300">
+        <f>INDEX(Albums!$B:$B, MATCH(C300,Albums!$C:$C,0))</f>
         <v>2017</v>
       </c>
       <c r="C300" t="s">
@@ -14216,8 +15805,13 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="301" spans="2:22">
+    <row r="301" spans="1:22">
+      <c r="A301" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C301,Albums!$C:$C,0))</f>
+        <v>28</v>
+      </c>
       <c r="B301">
+        <f>INDEX(Albums!$B:$B, MATCH(C301,Albums!$C:$C,0))</f>
         <v>2017</v>
       </c>
       <c r="C301" t="s">
@@ -14245,8 +15839,13 @@
         <v>7023294</v>
       </c>
     </row>
-    <row r="302" spans="2:22">
+    <row r="302" spans="1:22">
+      <c r="A302" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C302,Albums!$C:$C,0))</f>
+        <v>28</v>
+      </c>
       <c r="B302">
+        <f>INDEX(Albums!$B:$B, MATCH(C302,Albums!$C:$C,0))</f>
         <v>2017</v>
       </c>
       <c r="C302" t="s">
@@ -14274,8 +15873,13 @@
         <v>7068428</v>
       </c>
     </row>
-    <row r="303" spans="2:22">
+    <row r="303" spans="1:22">
+      <c r="A303" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C303,Albums!$C:$C,0))</f>
+        <v>28</v>
+      </c>
       <c r="B303">
+        <f>INDEX(Albums!$B:$B, MATCH(C303,Albums!$C:$C,0))</f>
         <v>2017</v>
       </c>
       <c r="C303" t="s">
@@ -14334,8 +15938,13 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="304" spans="2:22">
+    <row r="304" spans="1:22">
+      <c r="A304" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C304,Albums!$C:$C,0))</f>
+        <v>28</v>
+      </c>
       <c r="B304">
+        <f>INDEX(Albums!$B:$B, MATCH(C304,Albums!$C:$C,0))</f>
         <v>2017</v>
       </c>
       <c r="C304" t="s">
@@ -14394,8 +16003,13 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="305" spans="2:22">
+    <row r="305" spans="1:22">
+      <c r="A305" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C305,Albums!$C:$C,0))</f>
+        <v>28</v>
+      </c>
       <c r="B305">
+        <f>INDEX(Albums!$B:$B, MATCH(C305,Albums!$C:$C,0))</f>
         <v>2017</v>
       </c>
       <c r="C305" t="s">
@@ -14423,8 +16037,13 @@
         <v>5858163</v>
       </c>
     </row>
-    <row r="306" spans="2:22">
+    <row r="306" spans="1:22">
+      <c r="A306" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C306,Albums!$C:$C,0))</f>
+        <v>29</v>
+      </c>
       <c r="B306">
+        <f>INDEX(Albums!$B:$B, MATCH(C306,Albums!$C:$C,0))</f>
         <v>2017</v>
       </c>
       <c r="C306" t="s">
@@ -14452,8 +16071,13 @@
         <v>7052927</v>
       </c>
     </row>
-    <row r="307" spans="2:22">
+    <row r="307" spans="1:22">
+      <c r="A307" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C307,Albums!$C:$C,0))</f>
+        <v>29</v>
+      </c>
       <c r="B307">
+        <f>INDEX(Albums!$B:$B, MATCH(C307,Albums!$C:$C,0))</f>
         <v>2017</v>
       </c>
       <c r="C307" t="s">
@@ -14512,8 +16136,13 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="308" spans="2:22">
+    <row r="308" spans="1:22">
+      <c r="A308" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C308,Albums!$C:$C,0))</f>
+        <v>29</v>
+      </c>
       <c r="B308">
+        <f>INDEX(Albums!$B:$B, MATCH(C308,Albums!$C:$C,0))</f>
         <v>2017</v>
       </c>
       <c r="C308" t="s">
@@ -14541,8 +16170,13 @@
         <v>7032328</v>
       </c>
     </row>
-    <row r="309" spans="2:22">
+    <row r="309" spans="1:22">
+      <c r="A309" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C309,Albums!$C:$C,0))</f>
+        <v>29</v>
+      </c>
       <c r="B309">
+        <f>INDEX(Albums!$B:$B, MATCH(C309,Albums!$C:$C,0))</f>
         <v>2017</v>
       </c>
       <c r="C309" t="s">
@@ -14570,8 +16204,13 @@
         <v>6517898</v>
       </c>
     </row>
-    <row r="310" spans="2:22">
+    <row r="310" spans="1:22">
+      <c r="A310" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C310,Albums!$C:$C,0))</f>
+        <v>29</v>
+      </c>
       <c r="B310">
+        <f>INDEX(Albums!$B:$B, MATCH(C310,Albums!$C:$C,0))</f>
         <v>2017</v>
       </c>
       <c r="C310" t="s">
@@ -14599,8 +16238,13 @@
         <v>7046448</v>
       </c>
     </row>
-    <row r="311" spans="2:22">
+    <row r="311" spans="1:22">
+      <c r="A311" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C311,Albums!$C:$C,0))</f>
+        <v>30</v>
+      </c>
       <c r="B311">
+        <f>INDEX(Albums!$B:$B, MATCH(C311,Albums!$C:$C,0))</f>
         <v>2018</v>
       </c>
       <c r="C311" t="s">
@@ -14628,8 +16272,13 @@
         <v>22609</v>
       </c>
     </row>
-    <row r="312" spans="2:22">
+    <row r="312" spans="1:22">
+      <c r="A312" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C312,Albums!$C:$C,0))</f>
+        <v>30</v>
+      </c>
       <c r="B312">
+        <f>INDEX(Albums!$B:$B, MATCH(C312,Albums!$C:$C,0))</f>
         <v>2018</v>
       </c>
       <c r="C312" t="s">
@@ -14657,8 +16306,13 @@
         <v>14181</v>
       </c>
     </row>
-    <row r="313" spans="2:22">
+    <row r="313" spans="1:22">
+      <c r="A313" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C313,Albums!$C:$C,0))</f>
+        <v>30</v>
+      </c>
       <c r="B313">
+        <f>INDEX(Albums!$B:$B, MATCH(C313,Albums!$C:$C,0))</f>
         <v>2018</v>
       </c>
       <c r="C313" t="s">
@@ -14686,8 +16340,13 @@
         <v>48</v>
       </c>
     </row>
-    <row r="314" spans="2:22">
+    <row r="314" spans="1:22">
+      <c r="A314" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C314,Albums!$C:$C,0))</f>
+        <v>30</v>
+      </c>
       <c r="B314">
+        <f>INDEX(Albums!$B:$B, MATCH(C314,Albums!$C:$C,0))</f>
         <v>2018</v>
       </c>
       <c r="C314" t="s">
@@ -14715,8 +16374,13 @@
         <v>7029505</v>
       </c>
     </row>
-    <row r="315" spans="2:22">
+    <row r="315" spans="1:22">
+      <c r="A315" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C315,Albums!$C:$C,0))</f>
+        <v>30</v>
+      </c>
       <c r="B315">
+        <f>INDEX(Albums!$B:$B, MATCH(C315,Albums!$C:$C,0))</f>
         <v>2018</v>
       </c>
       <c r="C315" t="s">
@@ -14744,8 +16408,13 @@
         <v>7063694</v>
       </c>
     </row>
-    <row r="316" spans="2:22">
+    <row r="316" spans="1:22">
+      <c r="A316" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C316,Albums!$C:$C,0))</f>
+        <v>30</v>
+      </c>
       <c r="B316">
+        <f>INDEX(Albums!$B:$B, MATCH(C316,Albums!$C:$C,0))</f>
         <v>2018</v>
       </c>
       <c r="C316" t="s">
@@ -14773,8 +16442,13 @@
         <v>7118356</v>
       </c>
     </row>
-    <row r="317" spans="2:22">
+    <row r="317" spans="1:22">
+      <c r="A317" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C317,Albums!$C:$C,0))</f>
+        <v>30</v>
+      </c>
       <c r="B317">
+        <f>INDEX(Albums!$B:$B, MATCH(C317,Albums!$C:$C,0))</f>
         <v>2018</v>
       </c>
       <c r="C317" t="s">
@@ -14802,8 +16476,13 @@
         <v>7016161</v>
       </c>
     </row>
-    <row r="318" spans="2:22">
+    <row r="318" spans="1:22">
+      <c r="A318" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C318,Albums!$C:$C,0))</f>
+        <v>30</v>
+      </c>
       <c r="B318">
+        <f>INDEX(Albums!$B:$B, MATCH(C318,Albums!$C:$C,0))</f>
         <v>2018</v>
       </c>
       <c r="C318" t="s">
@@ -14831,8 +16510,13 @@
         <v>7024758</v>
       </c>
     </row>
-    <row r="319" spans="2:22">
+    <row r="319" spans="1:22">
+      <c r="A319" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C319,Albums!$C:$C,0))</f>
+        <v>30</v>
+      </c>
       <c r="B319">
+        <f>INDEX(Albums!$B:$B, MATCH(C319,Albums!$C:$C,0))</f>
         <v>2018</v>
       </c>
       <c r="C319" t="s">
@@ -14860,8 +16544,13 @@
         <v>3350395</v>
       </c>
     </row>
-    <row r="320" spans="2:22">
+    <row r="320" spans="1:22">
+      <c r="A320" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C320,Albums!$C:$C,0))</f>
+        <v>30</v>
+      </c>
       <c r="B320">
+        <f>INDEX(Albums!$B:$B, MATCH(C320,Albums!$C:$C,0))</f>
         <v>2018</v>
       </c>
       <c r="C320" t="s">
@@ -14889,8 +16578,13 @@
         <v>7125088</v>
       </c>
     </row>
-    <row r="321" spans="2:22">
+    <row r="321" spans="1:22">
+      <c r="A321" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C321,Albums!$C:$C,0))</f>
+        <v>31</v>
+      </c>
       <c r="B321">
+        <f>INDEX(Albums!$B:$B, MATCH(C321,Albums!$C:$C,0))</f>
         <v>2018</v>
       </c>
       <c r="C321" t="s">
@@ -14918,8 +16612,13 @@
         <v>7056332</v>
       </c>
     </row>
-    <row r="322" spans="2:22">
+    <row r="322" spans="1:22">
+      <c r="A322" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C322,Albums!$C:$C,0))</f>
+        <v>31</v>
+      </c>
       <c r="B322">
+        <f>INDEX(Albums!$B:$B, MATCH(C322,Albums!$C:$C,0))</f>
         <v>2018</v>
       </c>
       <c r="C322" t="s">
@@ -14947,8 +16646,13 @@
         <v>15960</v>
       </c>
     </row>
-    <row r="323" spans="2:22">
+    <row r="323" spans="1:22">
+      <c r="A323" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C323,Albums!$C:$C,0))</f>
+        <v>31</v>
+      </c>
       <c r="B323">
+        <f>INDEX(Albums!$B:$B, MATCH(C323,Albums!$C:$C,0))</f>
         <v>2018</v>
       </c>
       <c r="C323" t="s">
@@ -14976,8 +16680,13 @@
         <v>27817</v>
       </c>
     </row>
-    <row r="324" spans="2:22">
+    <row r="324" spans="1:22">
+      <c r="A324" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C324,Albums!$C:$C,0))</f>
+        <v>31</v>
+      </c>
       <c r="B324">
+        <f>INDEX(Albums!$B:$B, MATCH(C324,Albums!$C:$C,0))</f>
         <v>2018</v>
       </c>
       <c r="C324" t="s">
@@ -15005,8 +16714,13 @@
         <v>43073</v>
       </c>
     </row>
-    <row r="325" spans="2:22">
+    <row r="325" spans="1:22">
+      <c r="A325" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C325,Albums!$C:$C,0))</f>
+        <v>31</v>
+      </c>
       <c r="B325">
+        <f>INDEX(Albums!$B:$B, MATCH(C325,Albums!$C:$C,0))</f>
         <v>2018</v>
       </c>
       <c r="C325" t="s">
@@ -15034,8 +16748,13 @@
         <v>7128814</v>
       </c>
     </row>
-    <row r="326" spans="2:22">
+    <row r="326" spans="1:22">
+      <c r="A326" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C326,Albums!$C:$C,0))</f>
+        <v>31</v>
+      </c>
       <c r="B326">
+        <f>INDEX(Albums!$B:$B, MATCH(C326,Albums!$C:$C,0))</f>
         <v>2018</v>
       </c>
       <c r="C326" t="s">
@@ -15063,8 +16782,13 @@
         <v>4490766</v>
       </c>
     </row>
-    <row r="327" spans="2:22">
+    <row r="327" spans="1:22">
+      <c r="A327" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C327,Albums!$C:$C,0))</f>
+        <v>31</v>
+      </c>
       <c r="B327">
+        <f>INDEX(Albums!$B:$B, MATCH(C327,Albums!$C:$C,0))</f>
         <v>2018</v>
       </c>
       <c r="C327" t="s">
@@ -15092,8 +16816,13 @@
         <v>48</v>
       </c>
     </row>
-    <row r="328" spans="2:22">
+    <row r="328" spans="1:22">
+      <c r="A328" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C328,Albums!$C:$C,0))</f>
+        <v>31</v>
+      </c>
       <c r="B328">
+        <f>INDEX(Albums!$B:$B, MATCH(C328,Albums!$C:$C,0))</f>
         <v>2018</v>
       </c>
       <c r="C328" t="s">
@@ -15121,8 +16850,13 @@
         <v>7063743</v>
       </c>
     </row>
-    <row r="329" spans="2:22">
+    <row r="329" spans="1:22">
+      <c r="A329" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C329,Albums!$C:$C,0))</f>
+        <v>31</v>
+      </c>
       <c r="B329">
+        <f>INDEX(Albums!$B:$B, MATCH(C329,Albums!$C:$C,0))</f>
         <v>2018</v>
       </c>
       <c r="C329" t="s">
@@ -15150,8 +16884,13 @@
         <v>25400</v>
       </c>
     </row>
-    <row r="330" spans="2:22">
+    <row r="330" spans="1:22">
+      <c r="A330" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C330,Albums!$C:$C,0))</f>
+        <v>31</v>
+      </c>
       <c r="B330">
+        <f>INDEX(Albums!$B:$B, MATCH(C330,Albums!$C:$C,0))</f>
         <v>2018</v>
       </c>
       <c r="C330" t="s">
@@ -15179,8 +16918,13 @@
         <v>23938</v>
       </c>
     </row>
-    <row r="331" spans="2:22">
+    <row r="331" spans="1:22">
+      <c r="A331" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C331,Albums!$C:$C,0))</f>
+        <v>32</v>
+      </c>
       <c r="B331">
+        <f>INDEX(Albums!$B:$B, MATCH(C331,Albums!$C:$C,0))</f>
         <v>2018</v>
       </c>
       <c r="C331" t="s">
@@ -15239,8 +16983,13 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="332" spans="2:22">
+    <row r="332" spans="1:22">
+      <c r="A332" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C332,Albums!$C:$C,0))</f>
+        <v>32</v>
+      </c>
       <c r="B332">
+        <f>INDEX(Albums!$B:$B, MATCH(C332,Albums!$C:$C,0))</f>
         <v>2018</v>
       </c>
       <c r="C332" t="s">
@@ -15268,8 +17017,13 @@
         <v>7054720</v>
       </c>
     </row>
-    <row r="333" spans="2:22">
+    <row r="333" spans="1:22">
+      <c r="A333" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C333,Albums!$C:$C,0))</f>
+        <v>32</v>
+      </c>
       <c r="B333">
+        <f>INDEX(Albums!$B:$B, MATCH(C333,Albums!$C:$C,0))</f>
         <v>2018</v>
       </c>
       <c r="C333" t="s">
@@ -15328,8 +17082,13 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="334" spans="2:22">
+    <row r="334" spans="1:22">
+      <c r="A334" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C334,Albums!$C:$C,0))</f>
+        <v>32</v>
+      </c>
       <c r="B334">
+        <f>INDEX(Albums!$B:$B, MATCH(C334,Albums!$C:$C,0))</f>
         <v>2018</v>
       </c>
       <c r="C334" t="s">
@@ -15388,8 +17147,13 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="335" spans="2:22">
+    <row r="335" spans="1:22">
+      <c r="A335" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C335,Albums!$C:$C,0))</f>
+        <v>32</v>
+      </c>
       <c r="B335">
+        <f>INDEX(Albums!$B:$B, MATCH(C335,Albums!$C:$C,0))</f>
         <v>2018</v>
       </c>
       <c r="C335" t="s">
@@ -15448,8 +17212,13 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="336" spans="2:22">
+    <row r="336" spans="1:22">
+      <c r="A336" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C336,Albums!$C:$C,0))</f>
+        <v>33</v>
+      </c>
       <c r="B336">
+        <f>INDEX(Albums!$B:$B, MATCH(C336,Albums!$C:$C,0))</f>
         <v>2018</v>
       </c>
       <c r="C336" t="s">
@@ -15477,8 +17246,13 @@
         <v>7107554</v>
       </c>
     </row>
-    <row r="337" spans="2:22">
+    <row r="337" spans="1:22">
+      <c r="A337" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C337,Albums!$C:$C,0))</f>
+        <v>33</v>
+      </c>
       <c r="B337">
+        <f>INDEX(Albums!$B:$B, MATCH(C337,Albums!$C:$C,0))</f>
         <v>2018</v>
       </c>
       <c r="C337" t="s">
@@ -15537,8 +17311,13 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="338" spans="2:22">
+    <row r="338" spans="1:22">
+      <c r="A338" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C338,Albums!$C:$C,0))</f>
+        <v>33</v>
+      </c>
       <c r="B338">
+        <f>INDEX(Albums!$B:$B, MATCH(C338,Albums!$C:$C,0))</f>
         <v>2018</v>
       </c>
       <c r="C338" t="s">
@@ -15597,8 +17376,13 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="339" spans="2:22">
+    <row r="339" spans="1:22">
+      <c r="A339" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C339,Albums!$C:$C,0))</f>
+        <v>33</v>
+      </c>
       <c r="B339">
+        <f>INDEX(Albums!$B:$B, MATCH(C339,Albums!$C:$C,0))</f>
         <v>2018</v>
       </c>
       <c r="C339" t="s">
@@ -15657,8 +17441,13 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="340" spans="2:22">
+    <row r="340" spans="1:22">
+      <c r="A340" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C340,Albums!$C:$C,0))</f>
+        <v>33</v>
+      </c>
       <c r="B340">
+        <f>INDEX(Albums!$B:$B, MATCH(C340,Albums!$C:$C,0))</f>
         <v>2018</v>
       </c>
       <c r="C340" t="s">
@@ -15686,8 +17475,13 @@
         <v>7060709</v>
       </c>
     </row>
-    <row r="341" spans="2:22">
+    <row r="341" spans="1:22">
+      <c r="A341" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C341,Albums!$C:$C,0))</f>
+        <v>33</v>
+      </c>
       <c r="B341">
+        <f>INDEX(Albums!$B:$B, MATCH(C341,Albums!$C:$C,0))</f>
         <v>2018</v>
       </c>
       <c r="C341" t="s">
@@ -15715,8 +17509,13 @@
         <v>7068430</v>
       </c>
     </row>
-    <row r="342" spans="2:22">
+    <row r="342" spans="1:22">
+      <c r="A342" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C342,Albums!$C:$C,0))</f>
+        <v>33</v>
+      </c>
       <c r="B342">
+        <f>INDEX(Albums!$B:$B, MATCH(C342,Albums!$C:$C,0))</f>
         <v>2018</v>
       </c>
       <c r="C342" t="s">
@@ -15775,8 +17574,13 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="343" spans="2:22">
+    <row r="343" spans="1:22">
+      <c r="A343" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C343,Albums!$C:$C,0))</f>
+        <v>33</v>
+      </c>
       <c r="B343">
+        <f>INDEX(Albums!$B:$B, MATCH(C343,Albums!$C:$C,0))</f>
         <v>2018</v>
       </c>
       <c r="C343" t="s">
@@ -15804,8 +17608,13 @@
         <v>7017785</v>
       </c>
     </row>
-    <row r="344" spans="2:22">
+    <row r="344" spans="1:22">
+      <c r="A344" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C344,Albums!$C:$C,0))</f>
+        <v>33</v>
+      </c>
       <c r="B344">
+        <f>INDEX(Albums!$B:$B, MATCH(C344,Albums!$C:$C,0))</f>
         <v>2018</v>
       </c>
       <c r="C344" t="s">
@@ -15833,8 +17642,13 @@
         <v>7068422</v>
       </c>
     </row>
-    <row r="345" spans="2:22">
+    <row r="345" spans="1:22">
+      <c r="A345" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C345,Albums!$C:$C,0))</f>
+        <v>33</v>
+      </c>
       <c r="B345">
+        <f>INDEX(Albums!$B:$B, MATCH(C345,Albums!$C:$C,0))</f>
         <v>2018</v>
       </c>
       <c r="C345" t="s">
@@ -15862,8 +17676,13 @@
         <v>7060031</v>
       </c>
     </row>
-    <row r="346" spans="2:22">
+    <row r="346" spans="1:22">
+      <c r="A346" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C346,Albums!$C:$C,0))</f>
+        <v>34</v>
+      </c>
       <c r="B346">
+        <f>INDEX(Albums!$B:$B, MATCH(C346,Albums!$C:$C,0))</f>
         <v>2019</v>
       </c>
       <c r="C346" t="s">
@@ -15882,8 +17701,13 @@
         <v>225</v>
       </c>
     </row>
-    <row r="347" spans="2:22">
+    <row r="347" spans="1:22">
+      <c r="A347" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C347,Albums!$C:$C,0))</f>
+        <v>34</v>
+      </c>
       <c r="B347">
+        <f>INDEX(Albums!$B:$B, MATCH(C347,Albums!$C:$C,0))</f>
         <v>2019</v>
       </c>
       <c r="C347" t="s">
@@ -15905,8 +17729,13 @@
         <v>181</v>
       </c>
     </row>
-    <row r="348" spans="2:22">
+    <row r="348" spans="1:22">
+      <c r="A348" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C348,Albums!$C:$C,0))</f>
+        <v>34</v>
+      </c>
       <c r="B348">
+        <f>INDEX(Albums!$B:$B, MATCH(C348,Albums!$C:$C,0))</f>
         <v>2019</v>
       </c>
       <c r="C348" t="s">
@@ -15928,8 +17757,13 @@
         <v>181</v>
       </c>
     </row>
-    <row r="349" spans="2:22">
+    <row r="349" spans="1:22">
+      <c r="A349" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C349,Albums!$C:$C,0))</f>
+        <v>34</v>
+      </c>
       <c r="B349">
+        <f>INDEX(Albums!$B:$B, MATCH(C349,Albums!$C:$C,0))</f>
         <v>2019</v>
       </c>
       <c r="C349" t="s">
@@ -15951,8 +17785,13 @@
         <v>181</v>
       </c>
     </row>
-    <row r="350" spans="2:22">
+    <row r="350" spans="1:22">
+      <c r="A350" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C350,Albums!$C:$C,0))</f>
+        <v>34</v>
+      </c>
       <c r="B350">
+        <f>INDEX(Albums!$B:$B, MATCH(C350,Albums!$C:$C,0))</f>
         <v>2019</v>
       </c>
       <c r="C350" t="s">
@@ -15971,8 +17810,13 @@
         <v>225</v>
       </c>
     </row>
-    <row r="351" spans="2:22">
+    <row r="351" spans="1:22">
+      <c r="A351" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C351,Albums!$C:$C,0))</f>
+        <v>34</v>
+      </c>
       <c r="B351">
+        <f>INDEX(Albums!$B:$B, MATCH(C351,Albums!$C:$C,0))</f>
         <v>2019</v>
       </c>
       <c r="C351" t="s">
@@ -15991,8 +17835,13 @@
         <v>225</v>
       </c>
     </row>
-    <row r="352" spans="2:22">
+    <row r="352" spans="1:22">
+      <c r="A352" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C352,Albums!$C:$C,0))</f>
+        <v>34</v>
+      </c>
       <c r="B352">
+        <f>INDEX(Albums!$B:$B, MATCH(C352,Albums!$C:$C,0))</f>
         <v>2019</v>
       </c>
       <c r="C352" t="s">
@@ -16011,8 +17860,13 @@
         <v>225</v>
       </c>
     </row>
-    <row r="353" spans="2:11">
+    <row r="353" spans="1:11">
+      <c r="A353" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C353,Albums!$C:$C,0))</f>
+        <v>34</v>
+      </c>
       <c r="B353">
+        <f>INDEX(Albums!$B:$B, MATCH(C353,Albums!$C:$C,0))</f>
         <v>2019</v>
       </c>
       <c r="C353" t="s">
@@ -16034,8 +17888,13 @@
         <v>181</v>
       </c>
     </row>
-    <row r="354" spans="2:11">
+    <row r="354" spans="1:11">
+      <c r="A354" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C354,Albums!$C:$C,0))</f>
+        <v>34</v>
+      </c>
       <c r="B354">
+        <f>INDEX(Albums!$B:$B, MATCH(C354,Albums!$C:$C,0))</f>
         <v>2019</v>
       </c>
       <c r="C354" t="s">
@@ -16057,8 +17916,13 @@
         <v>181</v>
       </c>
     </row>
-    <row r="355" spans="2:11">
+    <row r="355" spans="1:11">
+      <c r="A355" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C355,Albums!$C:$C,0))</f>
+        <v>34</v>
+      </c>
       <c r="B355">
+        <f>INDEX(Albums!$B:$B, MATCH(C355,Albums!$C:$C,0))</f>
         <v>2019</v>
       </c>
       <c r="C355" t="s">
@@ -16080,8 +17944,13 @@
         <v>181</v>
       </c>
     </row>
-    <row r="356" spans="2:11">
+    <row r="356" spans="1:11">
+      <c r="A356" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C356,Albums!$C:$C,0))</f>
+        <v>34</v>
+      </c>
       <c r="B356">
+        <f>INDEX(Albums!$B:$B, MATCH(C356,Albums!$C:$C,0))</f>
         <v>2019</v>
       </c>
       <c r="C356" t="s">
@@ -16103,8 +17972,13 @@
         <v>181</v>
       </c>
     </row>
-    <row r="357" spans="2:11">
+    <row r="357" spans="1:11">
+      <c r="A357" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C357,Albums!$C:$C,0))</f>
+        <v>34</v>
+      </c>
       <c r="B357">
+        <f>INDEX(Albums!$B:$B, MATCH(C357,Albums!$C:$C,0))</f>
         <v>2019</v>
       </c>
       <c r="C357" t="s">
@@ -16123,8 +17997,13 @@
         <v>225</v>
       </c>
     </row>
-    <row r="358" spans="2:11">
+    <row r="358" spans="1:11">
+      <c r="A358" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C358,Albums!$C:$C,0))</f>
+        <v>34</v>
+      </c>
       <c r="B358">
+        <f>INDEX(Albums!$B:$B, MATCH(C358,Albums!$C:$C,0))</f>
         <v>2019</v>
       </c>
       <c r="C358" t="s">
@@ -16143,12 +18022,17 @@
         <v>225</v>
       </c>
     </row>
-    <row r="359" spans="2:11">
+    <row r="359" spans="1:11">
+      <c r="A359" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C359,Albums!$C:$C,0))</f>
+        <v>35</v>
+      </c>
       <c r="B359">
+        <f>INDEX(Albums!$B:$B, MATCH(C359,Albums!$C:$C,0))</f>
         <v>2019</v>
       </c>
       <c r="C359" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D359">
         <v>1</v>
@@ -16163,12 +18047,17 @@
         <v>225</v>
       </c>
     </row>
-    <row r="360" spans="2:11">
+    <row r="360" spans="1:11">
+      <c r="A360" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C360,Albums!$C:$C,0))</f>
+        <v>35</v>
+      </c>
       <c r="B360">
+        <f>INDEX(Albums!$B:$B, MATCH(C360,Albums!$C:$C,0))</f>
         <v>2019</v>
       </c>
       <c r="C360" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D360">
         <v>2</v>
@@ -16186,12 +18075,17 @@
         <v>181</v>
       </c>
     </row>
-    <row r="361" spans="2:11">
+    <row r="361" spans="1:11">
+      <c r="A361" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C361,Albums!$C:$C,0))</f>
+        <v>35</v>
+      </c>
       <c r="B361">
+        <f>INDEX(Albums!$B:$B, MATCH(C361,Albums!$C:$C,0))</f>
         <v>2019</v>
       </c>
       <c r="C361" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D361">
         <v>3</v>
@@ -16209,12 +18103,17 @@
         <v>181</v>
       </c>
     </row>
-    <row r="362" spans="2:11">
+    <row r="362" spans="1:11">
+      <c r="A362" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C362,Albums!$C:$C,0))</f>
+        <v>35</v>
+      </c>
       <c r="B362">
+        <f>INDEX(Albums!$B:$B, MATCH(C362,Albums!$C:$C,0))</f>
         <v>2019</v>
       </c>
       <c r="C362" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D362">
         <v>4</v>
@@ -16232,12 +18131,17 @@
         <v>181</v>
       </c>
     </row>
-    <row r="363" spans="2:11">
+    <row r="363" spans="1:11">
+      <c r="A363" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C363,Albums!$C:$C,0))</f>
+        <v>35</v>
+      </c>
       <c r="B363">
+        <f>INDEX(Albums!$B:$B, MATCH(C363,Albums!$C:$C,0))</f>
         <v>2019</v>
       </c>
       <c r="C363" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D363">
         <v>5</v>
@@ -16255,8 +18159,13 @@
         <v>181</v>
       </c>
     </row>
-    <row r="364" spans="2:11">
+    <row r="364" spans="1:11">
+      <c r="A364" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C364,Albums!$C:$C,0))</f>
+        <v>36</v>
+      </c>
       <c r="B364">
+        <f>INDEX(Albums!$B:$B, MATCH(C364,Albums!$C:$C,0))</f>
         <v>2019</v>
       </c>
       <c r="C364" t="s">
@@ -16284,8 +18193,13 @@
         <v>7117726</v>
       </c>
     </row>
-    <row r="365" spans="2:11">
+    <row r="365" spans="1:11">
+      <c r="A365" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C365,Albums!$C:$C,0))</f>
+        <v>36</v>
+      </c>
       <c r="B365">
+        <f>INDEX(Albums!$B:$B, MATCH(C365,Albums!$C:$C,0))</f>
         <v>2019</v>
       </c>
       <c r="C365" t="s">
@@ -16313,8 +18227,13 @@
         <v>7033417</v>
       </c>
     </row>
-    <row r="366" spans="2:11">
+    <row r="366" spans="1:11">
+      <c r="A366" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C366,Albums!$C:$C,0))</f>
+        <v>36</v>
+      </c>
       <c r="B366">
+        <f>INDEX(Albums!$B:$B, MATCH(C366,Albums!$C:$C,0))</f>
         <v>2019</v>
       </c>
       <c r="C366" t="s">
@@ -16342,8 +18261,13 @@
         <v>7104907</v>
       </c>
     </row>
-    <row r="367" spans="2:11">
+    <row r="367" spans="1:11">
+      <c r="A367" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C367,Albums!$C:$C,0))</f>
+        <v>36</v>
+      </c>
       <c r="B367">
+        <f>INDEX(Albums!$B:$B, MATCH(C367,Albums!$C:$C,0))</f>
         <v>2019</v>
       </c>
       <c r="C367" t="s">
@@ -16371,8 +18295,13 @@
         <v>7080403</v>
       </c>
     </row>
-    <row r="368" spans="2:11">
+    <row r="368" spans="1:11">
+      <c r="A368" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C368,Albums!$C:$C,0))</f>
+        <v>36</v>
+      </c>
       <c r="B368">
+        <f>INDEX(Albums!$B:$B, MATCH(C368,Albums!$C:$C,0))</f>
         <v>2019</v>
       </c>
       <c r="C368" t="s">
@@ -16400,8 +18329,13 @@
         <v>7100876</v>
       </c>
     </row>
-    <row r="369" spans="2:22">
+    <row r="369" spans="1:22">
+      <c r="A369" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C369,Albums!$C:$C,0))</f>
+        <v>36</v>
+      </c>
       <c r="B369">
+        <f>INDEX(Albums!$B:$B, MATCH(C369,Albums!$C:$C,0))</f>
         <v>2019</v>
       </c>
       <c r="C369" t="s">
@@ -16460,8 +18394,13 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="370" spans="2:22">
+    <row r="370" spans="1:22">
+      <c r="A370" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C370,Albums!$C:$C,0))</f>
+        <v>36</v>
+      </c>
       <c r="B370">
+        <f>INDEX(Albums!$B:$B, MATCH(C370,Albums!$C:$C,0))</f>
         <v>2019</v>
       </c>
       <c r="C370" t="s">
@@ -16489,8 +18428,13 @@
         <v>7006188</v>
       </c>
     </row>
-    <row r="371" spans="2:22">
+    <row r="371" spans="1:22">
+      <c r="A371" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C371,Albums!$C:$C,0))</f>
+        <v>36</v>
+      </c>
       <c r="B371">
+        <f>INDEX(Albums!$B:$B, MATCH(C371,Albums!$C:$C,0))</f>
         <v>2019</v>
       </c>
       <c r="C371" t="s">
@@ -16549,8 +18493,13 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="372" spans="2:22">
+    <row r="372" spans="1:22">
+      <c r="A372" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C372,Albums!$C:$C,0))</f>
+        <v>36</v>
+      </c>
       <c r="B372">
+        <f>INDEX(Albums!$B:$B, MATCH(C372,Albums!$C:$C,0))</f>
         <v>2019</v>
       </c>
       <c r="C372" t="s">
@@ -16578,8 +18527,13 @@
         <v>7004369</v>
       </c>
     </row>
-    <row r="373" spans="2:22">
+    <row r="373" spans="1:22">
+      <c r="A373" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C373,Albums!$C:$C,0))</f>
+        <v>36</v>
+      </c>
       <c r="B373">
+        <f>INDEX(Albums!$B:$B, MATCH(C373,Albums!$C:$C,0))</f>
         <v>2019</v>
       </c>
       <c r="C373" t="s">
@@ -16607,8 +18561,13 @@
         <v>7078152</v>
       </c>
     </row>
-    <row r="374" spans="2:22">
+    <row r="374" spans="1:22">
+      <c r="A374" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C374,Albums!$C:$C,0))</f>
+        <v>36</v>
+      </c>
       <c r="B374">
+        <f>INDEX(Albums!$B:$B, MATCH(C374,Albums!$C:$C,0))</f>
         <v>2019</v>
       </c>
       <c r="C374" t="s">
@@ -16636,8 +18595,13 @@
         <v>7081764</v>
       </c>
     </row>
-    <row r="375" spans="2:22">
+    <row r="375" spans="1:22">
+      <c r="A375" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C375,Albums!$C:$C,0))</f>
+        <v>36</v>
+      </c>
       <c r="B375">
+        <f>INDEX(Albums!$B:$B, MATCH(C375,Albums!$C:$C,0))</f>
         <v>2019</v>
       </c>
       <c r="C375" t="s">
@@ -16696,8 +18660,13 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="376" spans="2:22">
+    <row r="376" spans="1:22">
+      <c r="A376" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C376,Albums!$C:$C,0))</f>
+        <v>37</v>
+      </c>
       <c r="B376">
+        <f>INDEX(Albums!$B:$B, MATCH(C376,Albums!$C:$C,0))</f>
         <v>2020</v>
       </c>
       <c r="C376" t="s">
@@ -16725,8 +18694,13 @@
         <v>7097216</v>
       </c>
     </row>
-    <row r="377" spans="2:22">
+    <row r="377" spans="1:22">
+      <c r="A377" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C377,Albums!$C:$C,0))</f>
+        <v>37</v>
+      </c>
       <c r="B377">
+        <f>INDEX(Albums!$B:$B, MATCH(C377,Albums!$C:$C,0))</f>
         <v>2020</v>
       </c>
       <c r="C377" t="s">
@@ -16785,8 +18759,13 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="378" spans="2:22">
+    <row r="378" spans="1:22">
+      <c r="A378" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C378,Albums!$C:$C,0))</f>
+        <v>37</v>
+      </c>
       <c r="B378">
+        <f>INDEX(Albums!$B:$B, MATCH(C378,Albums!$C:$C,0))</f>
         <v>2020</v>
       </c>
       <c r="C378" t="s">
@@ -16814,8 +18793,13 @@
         <v>7076958</v>
       </c>
     </row>
-    <row r="379" spans="2:22">
+    <row r="379" spans="1:22">
+      <c r="A379" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C379,Albums!$C:$C,0))</f>
+        <v>37</v>
+      </c>
       <c r="B379">
+        <f>INDEX(Albums!$B:$B, MATCH(C379,Albums!$C:$C,0))</f>
         <v>2020</v>
       </c>
       <c r="C379" t="s">
@@ -16874,8 +18858,13 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="380" spans="2:22">
+    <row r="380" spans="1:22">
+      <c r="A380" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C380,Albums!$C:$C,0))</f>
+        <v>37</v>
+      </c>
       <c r="B380">
+        <f>INDEX(Albums!$B:$B, MATCH(C380,Albums!$C:$C,0))</f>
         <v>2020</v>
       </c>
       <c r="C380" t="s">
@@ -16903,8 +18892,13 @@
         <v>7120418</v>
       </c>
     </row>
-    <row r="381" spans="2:22">
+    <row r="381" spans="1:22">
+      <c r="A381" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C381,Albums!$C:$C,0))</f>
+        <v>37</v>
+      </c>
       <c r="B381">
+        <f>INDEX(Albums!$B:$B, MATCH(C381,Albums!$C:$C,0))</f>
         <v>2020</v>
       </c>
       <c r="C381" t="s">
@@ -16932,8 +18926,13 @@
         <v>7107821</v>
       </c>
     </row>
-    <row r="382" spans="2:22">
+    <row r="382" spans="1:22">
+      <c r="A382" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C382,Albums!$C:$C,0))</f>
+        <v>37</v>
+      </c>
       <c r="B382">
+        <f>INDEX(Albums!$B:$B, MATCH(C382,Albums!$C:$C,0))</f>
         <v>2020</v>
       </c>
       <c r="C382" t="s">
@@ -16961,8 +18960,13 @@
         <v>7089024</v>
       </c>
     </row>
-    <row r="383" spans="2:22">
+    <row r="383" spans="1:22">
+      <c r="A383" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C383,Albums!$C:$C,0))</f>
+        <v>37</v>
+      </c>
       <c r="B383">
+        <f>INDEX(Albums!$B:$B, MATCH(C383,Albums!$C:$C,0))</f>
         <v>2020</v>
       </c>
       <c r="C383" t="s">
@@ -16990,8 +18994,13 @@
         <v>7105442</v>
       </c>
     </row>
-    <row r="384" spans="2:22">
+    <row r="384" spans="1:22">
+      <c r="A384" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C384,Albums!$C:$C,0))</f>
+        <v>37</v>
+      </c>
       <c r="B384">
+        <f>INDEX(Albums!$B:$B, MATCH(C384,Albums!$C:$C,0))</f>
         <v>2020</v>
       </c>
       <c r="C384" t="s">
@@ -17050,8 +19059,13 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="385" spans="2:22">
+    <row r="385" spans="1:22">
+      <c r="A385" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C385,Albums!$C:$C,0))</f>
+        <v>37</v>
+      </c>
       <c r="B385">
+        <f>INDEX(Albums!$B:$B, MATCH(C385,Albums!$C:$C,0))</f>
         <v>2020</v>
       </c>
       <c r="C385" t="s">
@@ -17079,8 +19093,13 @@
         <v>7076958</v>
       </c>
     </row>
-    <row r="386" spans="2:22">
+    <row r="386" spans="1:22">
+      <c r="A386" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C386,Albums!$C:$C,0))</f>
+        <v>38</v>
+      </c>
       <c r="B386">
+        <f>INDEX(Albums!$B:$B, MATCH(C386,Albums!$C:$C,0))</f>
         <v>2020</v>
       </c>
       <c r="C386" t="s">
@@ -17139,8 +19158,13 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="387" spans="2:22">
+    <row r="387" spans="1:22">
+      <c r="A387" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C387,Albums!$C:$C,0))</f>
+        <v>38</v>
+      </c>
       <c r="B387">
+        <f>INDEX(Albums!$B:$B, MATCH(C387,Albums!$C:$C,0))</f>
         <v>2020</v>
       </c>
       <c r="C387" t="s">
@@ -17168,8 +19192,13 @@
         <v>7133375</v>
       </c>
     </row>
-    <row r="388" spans="2:22">
+    <row r="388" spans="1:22">
+      <c r="A388" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C388,Albums!$C:$C,0))</f>
+        <v>38</v>
+      </c>
       <c r="B388">
+        <f>INDEX(Albums!$B:$B, MATCH(C388,Albums!$C:$C,0))</f>
         <v>2020</v>
       </c>
       <c r="C388" t="s">
@@ -17197,8 +19226,13 @@
         <v>7048885</v>
       </c>
     </row>
-    <row r="389" spans="2:22">
+    <row r="389" spans="1:22">
+      <c r="A389" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C389,Albums!$C:$C,0))</f>
+        <v>38</v>
+      </c>
       <c r="B389">
+        <f>INDEX(Albums!$B:$B, MATCH(C389,Albums!$C:$C,0))</f>
         <v>2020</v>
       </c>
       <c r="C389" t="s">
@@ -17226,8 +19260,13 @@
         <v>7109453</v>
       </c>
     </row>
-    <row r="390" spans="2:22">
+    <row r="390" spans="1:22">
+      <c r="A390" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C390,Albums!$C:$C,0))</f>
+        <v>38</v>
+      </c>
       <c r="B390">
+        <f>INDEX(Albums!$B:$B, MATCH(C390,Albums!$C:$C,0))</f>
         <v>2020</v>
       </c>
       <c r="C390" t="s">
@@ -17255,8 +19294,13 @@
         <v>7073332</v>
       </c>
     </row>
-    <row r="391" spans="2:22">
+    <row r="391" spans="1:22">
+      <c r="A391" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C391,Albums!$C:$C,0))</f>
+        <v>38</v>
+      </c>
       <c r="B391">
+        <f>INDEX(Albums!$B:$B, MATCH(C391,Albums!$C:$C,0))</f>
         <v>2020</v>
       </c>
       <c r="C391" t="s">
@@ -17284,8 +19328,13 @@
         <v>7036096</v>
       </c>
     </row>
-    <row r="392" spans="2:22">
+    <row r="392" spans="1:22">
+      <c r="A392" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C392,Albums!$C:$C,0))</f>
+        <v>38</v>
+      </c>
       <c r="B392">
+        <f>INDEX(Albums!$B:$B, MATCH(C392,Albums!$C:$C,0))</f>
         <v>2020</v>
       </c>
       <c r="C392" t="s">
@@ -17313,8 +19362,13 @@
         <v>5174122</v>
       </c>
     </row>
-    <row r="393" spans="2:22">
+    <row r="393" spans="1:22">
+      <c r="A393" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C393,Albums!$C:$C,0))</f>
+        <v>38</v>
+      </c>
       <c r="B393">
+        <f>INDEX(Albums!$B:$B, MATCH(C393,Albums!$C:$C,0))</f>
         <v>2020</v>
       </c>
       <c r="C393" t="s">
@@ -17342,8 +19396,13 @@
         <v>7098243</v>
       </c>
     </row>
-    <row r="394" spans="2:22">
+    <row r="394" spans="1:22">
+      <c r="A394" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C394,Albums!$C:$C,0))</f>
+        <v>38</v>
+      </c>
       <c r="B394">
+        <f>INDEX(Albums!$B:$B, MATCH(C394,Albums!$C:$C,0))</f>
         <v>2020</v>
       </c>
       <c r="C394" t="s">
@@ -17375,8 +19434,13 @@
         <v/>
       </c>
     </row>
-    <row r="395" spans="2:22">
+    <row r="395" spans="1:22">
+      <c r="A395" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C395,Albums!$C:$C,0))</f>
+        <v>38</v>
+      </c>
       <c r="B395">
+        <f>INDEX(Albums!$B:$B, MATCH(C395,Albums!$C:$C,0))</f>
         <v>2020</v>
       </c>
       <c r="C395" t="s">
@@ -17404,8 +19468,13 @@
         <v>7142008</v>
       </c>
     </row>
-    <row r="396" spans="2:22">
+    <row r="396" spans="1:22">
+      <c r="A396" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C396,Albums!$C:$C,0))</f>
+        <v>39</v>
+      </c>
       <c r="B396">
+        <f>INDEX(Albums!$B:$B, MATCH(C396,Albums!$C:$C,0))</f>
         <v>2020</v>
       </c>
       <c r="C396" t="s">
@@ -17433,8 +19502,13 @@
         <v>7122996</v>
       </c>
     </row>
-    <row r="397" spans="2:22">
+    <row r="397" spans="1:22">
+      <c r="A397" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C397,Albums!$C:$C,0))</f>
+        <v>39</v>
+      </c>
       <c r="B397">
+        <f>INDEX(Albums!$B:$B, MATCH(C397,Albums!$C:$C,0))</f>
         <v>2020</v>
       </c>
       <c r="C397" t="s">
@@ -17462,8 +19536,13 @@
         <v>7102399</v>
       </c>
     </row>
-    <row r="398" spans="2:22">
+    <row r="398" spans="1:22">
+      <c r="A398" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C398,Albums!$C:$C,0))</f>
+        <v>39</v>
+      </c>
       <c r="B398">
+        <f>INDEX(Albums!$B:$B, MATCH(C398,Albums!$C:$C,0))</f>
         <v>2020</v>
       </c>
       <c r="C398" t="s">
@@ -17491,8 +19570,13 @@
         <v>7127096</v>
       </c>
     </row>
-    <row r="399" spans="2:22">
+    <row r="399" spans="1:22">
+      <c r="A399" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C399,Albums!$C:$C,0))</f>
+        <v>39</v>
+      </c>
       <c r="B399">
+        <f>INDEX(Albums!$B:$B, MATCH(C399,Albums!$C:$C,0))</f>
         <v>2020</v>
       </c>
       <c r="C399" t="s">
@@ -17520,8 +19604,13 @@
         <v>7110696</v>
       </c>
     </row>
-    <row r="400" spans="2:22">
+    <row r="400" spans="1:22">
+      <c r="A400" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C400,Albums!$C:$C,0))</f>
+        <v>39</v>
+      </c>
       <c r="B400">
+        <f>INDEX(Albums!$B:$B, MATCH(C400,Albums!$C:$C,0))</f>
         <v>2020</v>
       </c>
       <c r="C400" t="s">
@@ -17549,8 +19638,13 @@
         <v>6517269</v>
       </c>
     </row>
-    <row r="401" spans="2:22">
+    <row r="401" spans="1:22">
+      <c r="A401" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C401,Albums!$C:$C,0))</f>
+        <v>39</v>
+      </c>
       <c r="B401">
+        <f>INDEX(Albums!$B:$B, MATCH(C401,Albums!$C:$C,0))</f>
         <v>2020</v>
       </c>
       <c r="C401" t="s">
@@ -17578,8 +19672,13 @@
         <v>7147502</v>
       </c>
     </row>
-    <row r="402" spans="2:22">
+    <row r="402" spans="1:22">
+      <c r="A402" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C402,Albums!$C:$C,0))</f>
+        <v>39</v>
+      </c>
       <c r="B402">
+        <f>INDEX(Albums!$B:$B, MATCH(C402,Albums!$C:$C,0))</f>
         <v>2020</v>
       </c>
       <c r="C402" t="s">
@@ -17607,8 +19706,13 @@
         <v>7054548</v>
       </c>
     </row>
-    <row r="403" spans="2:22">
+    <row r="403" spans="1:22">
+      <c r="A403" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C403,Albums!$C:$C,0))</f>
+        <v>39</v>
+      </c>
       <c r="B403">
+        <f>INDEX(Albums!$B:$B, MATCH(C403,Albums!$C:$C,0))</f>
         <v>2020</v>
       </c>
       <c r="C403" t="s">
@@ -17667,8 +19771,13 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="404" spans="2:22">
+    <row r="404" spans="1:22">
+      <c r="A404" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C404,Albums!$C:$C,0))</f>
+        <v>39</v>
+      </c>
       <c r="B404">
+        <f>INDEX(Albums!$B:$B, MATCH(C404,Albums!$C:$C,0))</f>
         <v>2020</v>
       </c>
       <c r="C404" t="s">
@@ -17696,8 +19805,13 @@
         <v>7067561</v>
       </c>
     </row>
-    <row r="405" spans="2:22">
+    <row r="405" spans="1:22">
+      <c r="A405" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C405,Albums!$C:$C,0))</f>
+        <v>39</v>
+      </c>
       <c r="B405">
+        <f>INDEX(Albums!$B:$B, MATCH(C405,Albums!$C:$C,0))</f>
         <v>2020</v>
       </c>
       <c r="C405" t="s">
@@ -17725,8 +19839,13 @@
         <v>7107548</v>
       </c>
     </row>
-    <row r="406" spans="2:22">
+    <row r="406" spans="1:22">
+      <c r="A406" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C406,Albums!$C:$C,0))</f>
+        <v>40</v>
+      </c>
       <c r="B406">
+        <f>INDEX(Albums!$B:$B, MATCH(C406,Albums!$C:$C,0))</f>
         <v>2020</v>
       </c>
       <c r="C406" t="s">
@@ -17754,8 +19873,13 @@
         <v>48</v>
       </c>
     </row>
-    <row r="407" spans="2:22">
+    <row r="407" spans="1:22">
+      <c r="A407" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C407,Albums!$C:$C,0))</f>
+        <v>40</v>
+      </c>
       <c r="B407">
+        <f>INDEX(Albums!$B:$B, MATCH(C407,Albums!$C:$C,0))</f>
         <v>2020</v>
       </c>
       <c r="C407" t="s">
@@ -17783,8 +19907,13 @@
         <v>7059306</v>
       </c>
     </row>
-    <row r="408" spans="2:22">
+    <row r="408" spans="1:22">
+      <c r="A408" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C408,Albums!$C:$C,0))</f>
+        <v>40</v>
+      </c>
       <c r="B408">
+        <f>INDEX(Albums!$B:$B, MATCH(C408,Albums!$C:$C,0))</f>
         <v>2020</v>
       </c>
       <c r="C408" t="s">
@@ -17812,8 +19941,13 @@
         <v>7138219</v>
       </c>
     </row>
-    <row r="409" spans="2:22">
+    <row r="409" spans="1:22">
+      <c r="A409" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C409,Albums!$C:$C,0))</f>
+        <v>40</v>
+      </c>
       <c r="B409">
+        <f>INDEX(Albums!$B:$B, MATCH(C409,Albums!$C:$C,0))</f>
         <v>2020</v>
       </c>
       <c r="C409" t="s">
@@ -17841,8 +19975,13 @@
         <v>27714</v>
       </c>
     </row>
-    <row r="410" spans="2:22">
+    <row r="410" spans="1:22">
+      <c r="A410" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C410,Albums!$C:$C,0))</f>
+        <v>40</v>
+      </c>
       <c r="B410">
+        <f>INDEX(Albums!$B:$B, MATCH(C410,Albums!$C:$C,0))</f>
         <v>2020</v>
       </c>
       <c r="C410" t="s">
@@ -17870,8 +20009,13 @@
         <v>3469389</v>
       </c>
     </row>
-    <row r="411" spans="2:22">
+    <row r="411" spans="1:22">
+      <c r="A411" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C411,Albums!$C:$C,0))</f>
+        <v>40</v>
+      </c>
       <c r="B411">
+        <f>INDEX(Albums!$B:$B, MATCH(C411,Albums!$C:$C,0))</f>
         <v>2020</v>
       </c>
       <c r="C411" t="s">
@@ -17899,8 +20043,13 @@
         <v>7054172</v>
       </c>
     </row>
-    <row r="412" spans="2:22">
+    <row r="412" spans="1:22">
+      <c r="A412" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C412,Albums!$C:$C,0))</f>
+        <v>40</v>
+      </c>
       <c r="B412">
+        <f>INDEX(Albums!$B:$B, MATCH(C412,Albums!$C:$C,0))</f>
         <v>2020</v>
       </c>
       <c r="C412" t="s">
@@ -17928,8 +20077,13 @@
         <v>7138939</v>
       </c>
     </row>
-    <row r="413" spans="2:22">
+    <row r="413" spans="1:22">
+      <c r="A413" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C413,Albums!$C:$C,0))</f>
+        <v>40</v>
+      </c>
       <c r="B413">
+        <f>INDEX(Albums!$B:$B, MATCH(C413,Albums!$C:$C,0))</f>
         <v>2020</v>
       </c>
       <c r="C413" t="s">
@@ -17957,8 +20111,13 @@
         <v>23189</v>
       </c>
     </row>
-    <row r="414" spans="2:22">
+    <row r="414" spans="1:22">
+      <c r="A414" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C414,Albums!$C:$C,0))</f>
+        <v>40</v>
+      </c>
       <c r="B414">
+        <f>INDEX(Albums!$B:$B, MATCH(C414,Albums!$C:$C,0))</f>
         <v>2020</v>
       </c>
       <c r="C414" t="s">
@@ -17986,8 +20145,13 @@
         <v>7141227</v>
       </c>
     </row>
-    <row r="415" spans="2:22">
+    <row r="415" spans="1:22">
+      <c r="A415" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C415,Albums!$C:$C,0))</f>
+        <v>40</v>
+      </c>
       <c r="B415">
+        <f>INDEX(Albums!$B:$B, MATCH(C415,Albums!$C:$C,0))</f>
         <v>2020</v>
       </c>
       <c r="C415" t="s">
@@ -18015,8 +20179,13 @@
         <v>7147007</v>
       </c>
     </row>
-    <row r="416" spans="2:22">
+    <row r="416" spans="1:22">
+      <c r="A416" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C416,Albums!$C:$C,0))</f>
+        <v>41</v>
+      </c>
       <c r="B416">
+        <f>INDEX(Albums!$B:$B, MATCH(C416,Albums!$C:$C,0))</f>
         <v>2020</v>
       </c>
       <c r="C416" t="s">
@@ -18044,8 +20213,13 @@
         <v>4582588</v>
       </c>
     </row>
-    <row r="417" spans="2:12">
+    <row r="417" spans="1:12">
+      <c r="A417" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C417,Albums!$C:$C,0))</f>
+        <v>41</v>
+      </c>
       <c r="B417">
+        <f>INDEX(Albums!$B:$B, MATCH(C417,Albums!$C:$C,0))</f>
         <v>2020</v>
       </c>
       <c r="C417" t="s">
@@ -18073,8 +20247,13 @@
         <v>7146673</v>
       </c>
     </row>
-    <row r="418" spans="2:12">
+    <row r="418" spans="1:12">
+      <c r="A418" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C418,Albums!$C:$C,0))</f>
+        <v>41</v>
+      </c>
       <c r="B418">
+        <f>INDEX(Albums!$B:$B, MATCH(C418,Albums!$C:$C,0))</f>
         <v>2020</v>
       </c>
       <c r="C418" t="s">
@@ -18102,8 +20281,13 @@
         <v>7149439</v>
       </c>
     </row>
-    <row r="419" spans="2:12">
+    <row r="419" spans="1:12">
+      <c r="A419" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C419,Albums!$C:$C,0))</f>
+        <v>41</v>
+      </c>
       <c r="B419">
+        <f>INDEX(Albums!$B:$B, MATCH(C419,Albums!$C:$C,0))</f>
         <v>2020</v>
       </c>
       <c r="C419" t="s">
@@ -18131,8 +20315,13 @@
         <v>7079706</v>
       </c>
     </row>
-    <row r="420" spans="2:12">
+    <row r="420" spans="1:12">
+      <c r="A420" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C420,Albums!$C:$C,0))</f>
+        <v>41</v>
+      </c>
       <c r="B420">
+        <f>INDEX(Albums!$B:$B, MATCH(C420,Albums!$C:$C,0))</f>
         <v>2020</v>
       </c>
       <c r="C420" t="s">
@@ -18160,8 +20349,13 @@
         <v>7130622</v>
       </c>
     </row>
-    <row r="421" spans="2:12">
+    <row r="421" spans="1:12">
+      <c r="A421" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C421,Albums!$C:$C,0))</f>
+        <v>41</v>
+      </c>
       <c r="B421">
+        <f>INDEX(Albums!$B:$B, MATCH(C421,Albums!$C:$C,0))</f>
         <v>2020</v>
       </c>
       <c r="C421" t="s">
@@ -18189,8 +20383,13 @@
         <v>5942543</v>
       </c>
     </row>
-    <row r="422" spans="2:12">
+    <row r="422" spans="1:12">
+      <c r="A422" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C422,Albums!$C:$C,0))</f>
+        <v>41</v>
+      </c>
       <c r="B422">
+        <f>INDEX(Albums!$B:$B, MATCH(C422,Albums!$C:$C,0))</f>
         <v>2020</v>
       </c>
       <c r="C422" t="s">
@@ -18218,8 +20417,13 @@
         <v>7126793</v>
       </c>
     </row>
-    <row r="423" spans="2:12">
+    <row r="423" spans="1:12">
+      <c r="A423" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C423,Albums!$C:$C,0))</f>
+        <v>41</v>
+      </c>
       <c r="B423">
+        <f>INDEX(Albums!$B:$B, MATCH(C423,Albums!$C:$C,0))</f>
         <v>2020</v>
       </c>
       <c r="C423" t="s">
@@ -18247,8 +20451,13 @@
         <v>7153516</v>
       </c>
     </row>
-    <row r="424" spans="2:12">
+    <row r="424" spans="1:12">
+      <c r="A424" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C424,Albums!$C:$C,0))</f>
+        <v>41</v>
+      </c>
       <c r="B424">
+        <f>INDEX(Albums!$B:$B, MATCH(C424,Albums!$C:$C,0))</f>
         <v>2020</v>
       </c>
       <c r="C424" t="s">
@@ -18276,8 +20485,13 @@
         <v>6472799</v>
       </c>
     </row>
-    <row r="425" spans="2:12">
+    <row r="425" spans="1:12">
+      <c r="A425" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C425,Albums!$C:$C,0))</f>
+        <v>41</v>
+      </c>
       <c r="B425">
+        <f>INDEX(Albums!$B:$B, MATCH(C425,Albums!$C:$C,0))</f>
         <v>2020</v>
       </c>
       <c r="C425" t="s">
@@ -18305,8 +20519,13 @@
         <v>7068421</v>
       </c>
     </row>
-    <row r="426" spans="2:12">
+    <row r="426" spans="1:12">
+      <c r="A426" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C426,Albums!$C:$C,0))</f>
+        <v>41</v>
+      </c>
       <c r="B426">
+        <f>INDEX(Albums!$B:$B, MATCH(C426,Albums!$C:$C,0))</f>
         <v>2020</v>
       </c>
       <c r="C426" t="s">
@@ -18334,9 +20553,14 @@
         <v>7151239</v>
       </c>
     </row>
-    <row r="427" spans="2:12">
+    <row r="427" spans="1:12">
+      <c r="A427" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C427,Albums!$C:$C,0))</f>
+        <v>42</v>
+      </c>
       <c r="B427">
-        <v>2020</v>
+        <f>INDEX(Albums!$B:$B, MATCH(C427,Albums!$C:$C,0))</f>
+        <v>2021</v>
       </c>
       <c r="C427" t="s">
         <v>46</v>
@@ -18364,9 +20588,14 @@
       </c>
       <c r="L427" s="28"/>
     </row>
-    <row r="428" spans="2:12">
+    <row r="428" spans="1:12">
+      <c r="A428" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C428,Albums!$C:$C,0))</f>
+        <v>42</v>
+      </c>
       <c r="B428">
-        <v>2020</v>
+        <f>INDEX(Albums!$B:$B, MATCH(C428,Albums!$C:$C,0))</f>
+        <v>2021</v>
       </c>
       <c r="C428" t="s">
         <v>46</v>
@@ -18394,9 +20623,14 @@
       </c>
       <c r="L428" s="28"/>
     </row>
-    <row r="429" spans="2:12">
+    <row r="429" spans="1:12">
+      <c r="A429" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C429,Albums!$C:$C,0))</f>
+        <v>42</v>
+      </c>
       <c r="B429">
-        <v>2020</v>
+        <f>INDEX(Albums!$B:$B, MATCH(C429,Albums!$C:$C,0))</f>
+        <v>2021</v>
       </c>
       <c r="C429" t="s">
         <v>46</v>
@@ -18424,9 +20658,14 @@
       </c>
       <c r="L429" s="28"/>
     </row>
-    <row r="430" spans="2:12">
+    <row r="430" spans="1:12">
+      <c r="A430" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C430,Albums!$C:$C,0))</f>
+        <v>42</v>
+      </c>
       <c r="B430">
-        <v>2020</v>
+        <f>INDEX(Albums!$B:$B, MATCH(C430,Albums!$C:$C,0))</f>
+        <v>2021</v>
       </c>
       <c r="C430" t="s">
         <v>46</v>
@@ -18454,9 +20693,14 @@
       </c>
       <c r="L430" s="28"/>
     </row>
-    <row r="431" spans="2:12">
+    <row r="431" spans="1:12">
+      <c r="A431" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C431,Albums!$C:$C,0))</f>
+        <v>42</v>
+      </c>
       <c r="B431">
-        <v>2020</v>
+        <f>INDEX(Albums!$B:$B, MATCH(C431,Albums!$C:$C,0))</f>
+        <v>2021</v>
       </c>
       <c r="C431" t="s">
         <v>46</v>
@@ -18484,9 +20728,14 @@
       </c>
       <c r="L431" s="28"/>
     </row>
-    <row r="432" spans="2:12">
+    <row r="432" spans="1:12">
+      <c r="A432" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C432,Albums!$C:$C,0))</f>
+        <v>42</v>
+      </c>
       <c r="B432">
-        <v>2020</v>
+        <f>INDEX(Albums!$B:$B, MATCH(C432,Albums!$C:$C,0))</f>
+        <v>2021</v>
       </c>
       <c r="C432" t="s">
         <v>46</v>
@@ -18514,9 +20763,14 @@
       </c>
       <c r="L432" s="28"/>
     </row>
-    <row r="433" spans="2:12">
+    <row r="433" spans="1:12">
+      <c r="A433" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C433,Albums!$C:$C,0))</f>
+        <v>42</v>
+      </c>
       <c r="B433">
-        <v>2020</v>
+        <f>INDEX(Albums!$B:$B, MATCH(C433,Albums!$C:$C,0))</f>
+        <v>2021</v>
       </c>
       <c r="C433" t="s">
         <v>46</v>
@@ -18531,7 +20785,7 @@
         <v>225</v>
       </c>
       <c r="G433" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H433" t="s">
         <v>2</v>
@@ -18544,9 +20798,14 @@
       </c>
       <c r="L433" s="28"/>
     </row>
-    <row r="434" spans="2:12">
+    <row r="434" spans="1:12">
+      <c r="A434" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C434,Albums!$C:$C,0))</f>
+        <v>42</v>
+      </c>
       <c r="B434">
-        <v>2020</v>
+        <f>INDEX(Albums!$B:$B, MATCH(C434,Albums!$C:$C,0))</f>
+        <v>2021</v>
       </c>
       <c r="C434" t="s">
         <v>46</v>
@@ -18555,13 +20814,13 @@
         <v>8</v>
       </c>
       <c r="E434" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="F434" t="s">
         <v>225</v>
       </c>
       <c r="G434" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H434" t="s">
         <v>20</v>
@@ -18574,9 +20833,14 @@
       </c>
       <c r="L434" s="28"/>
     </row>
-    <row r="435" spans="2:12">
+    <row r="435" spans="1:12">
+      <c r="A435" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C435,Albums!$C:$C,0))</f>
+        <v>42</v>
+      </c>
       <c r="B435">
-        <v>2020</v>
+        <f>INDEX(Albums!$B:$B, MATCH(C435,Albums!$C:$C,0))</f>
+        <v>2021</v>
       </c>
       <c r="C435" t="s">
         <v>46</v>
@@ -18591,7 +20855,7 @@
         <v>225</v>
       </c>
       <c r="G435" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H435" t="s">
         <v>12</v>
@@ -18604,9 +20868,14 @@
       </c>
       <c r="L435" s="28"/>
     </row>
-    <row r="436" spans="2:12">
+    <row r="436" spans="1:12">
+      <c r="A436" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C436,Albums!$C:$C,0))</f>
+        <v>42</v>
+      </c>
       <c r="B436">
-        <v>2020</v>
+        <f>INDEX(Albums!$B:$B, MATCH(C436,Albums!$C:$C,0))</f>
+        <v>2021</v>
       </c>
       <c r="C436" t="s">
         <v>46</v>
@@ -18634,8 +20903,13 @@
       </c>
       <c r="L436" s="28"/>
     </row>
-    <row r="437" spans="2:12">
+    <row r="437" spans="1:12">
+      <c r="A437" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C437,Albums!$C:$C,0))</f>
+        <v>43</v>
+      </c>
       <c r="B437">
+        <f>INDEX(Albums!$B:$B, MATCH(C437,Albums!$C:$C,0))</f>
         <v>2100</v>
       </c>
       <c r="C437" t="s">
@@ -18663,8 +20937,13 @@
         <v>7148126</v>
       </c>
     </row>
-    <row r="438" spans="2:12">
+    <row r="438" spans="1:12">
+      <c r="A438" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C438,Albums!$C:$C,0))</f>
+        <v>43</v>
+      </c>
       <c r="B438">
+        <f>INDEX(Albums!$B:$B, MATCH(C438,Albums!$C:$C,0))</f>
         <v>2100</v>
       </c>
       <c r="C438" t="s">
@@ -18692,8 +20971,13 @@
         <v>5942543</v>
       </c>
     </row>
-    <row r="439" spans="2:12">
+    <row r="439" spans="1:12">
+      <c r="A439" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C439,Albums!$C:$C,0))</f>
+        <v>43</v>
+      </c>
       <c r="B439">
+        <f>INDEX(Albums!$B:$B, MATCH(C439,Albums!$C:$C,0))</f>
         <v>2100</v>
       </c>
       <c r="C439" t="s">
@@ -18721,8 +21005,13 @@
         <v>7119315</v>
       </c>
     </row>
-    <row r="440" spans="2:12">
+    <row r="440" spans="1:12">
+      <c r="A440" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C440,Albums!$C:$C,0))</f>
+        <v>43</v>
+      </c>
       <c r="B440">
+        <f>INDEX(Albums!$B:$B, MATCH(C440,Albums!$C:$C,0))</f>
         <v>2100</v>
       </c>
       <c r="C440" t="s">
@@ -18750,8 +21039,13 @@
         <v>7104628</v>
       </c>
     </row>
-    <row r="441" spans="2:12">
+    <row r="441" spans="1:12">
+      <c r="A441" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C441,Albums!$C:$C,0))</f>
+        <v>43</v>
+      </c>
       <c r="B441">
+        <f>INDEX(Albums!$B:$B, MATCH(C441,Albums!$C:$C,0))</f>
         <v>2100</v>
       </c>
       <c r="C441" t="s">
@@ -18779,8 +21073,13 @@
         <v>7123203</v>
       </c>
     </row>
-    <row r="442" spans="2:12">
+    <row r="442" spans="1:12">
+      <c r="A442" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C442,Albums!$C:$C,0))</f>
+        <v>43</v>
+      </c>
       <c r="B442">
+        <f>INDEX(Albums!$B:$B, MATCH(C442,Albums!$C:$C,0))</f>
         <v>2100</v>
       </c>
       <c r="C442" t="s">
@@ -18808,8 +21107,13 @@
         <v>6605236</v>
       </c>
     </row>
-    <row r="443" spans="2:12">
+    <row r="443" spans="1:12">
+      <c r="A443" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C443,Albums!$C:$C,0))</f>
+        <v>43</v>
+      </c>
       <c r="B443">
+        <f>INDEX(Albums!$B:$B, MATCH(C443,Albums!$C:$C,0))</f>
         <v>2100</v>
       </c>
       <c r="C443" t="s">
@@ -18837,8 +21141,13 @@
         <v>3407011</v>
       </c>
     </row>
-    <row r="444" spans="2:12">
+    <row r="444" spans="1:12">
+      <c r="A444" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C444,Albums!$C:$C,0))</f>
+        <v>43</v>
+      </c>
       <c r="B444">
+        <f>INDEX(Albums!$B:$B, MATCH(C444,Albums!$C:$C,0))</f>
         <v>2100</v>
       </c>
       <c r="C444" t="s">
@@ -18866,8 +21175,13 @@
         <v>3406988</v>
       </c>
     </row>
-    <row r="445" spans="2:12">
+    <row r="445" spans="1:12">
+      <c r="A445" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C445,Albums!$C:$C,0))</f>
+        <v>43</v>
+      </c>
       <c r="B445">
+        <f>INDEX(Albums!$B:$B, MATCH(C445,Albums!$C:$C,0))</f>
         <v>2100</v>
       </c>
       <c r="C445" t="s">
@@ -18895,8 +21209,13 @@
         <v>6590815</v>
       </c>
     </row>
-    <row r="446" spans="2:12">
+    <row r="446" spans="1:12">
+      <c r="A446" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C446,Albums!$C:$C,0))</f>
+        <v>43</v>
+      </c>
       <c r="B446">
+        <f>INDEX(Albums!$B:$B, MATCH(C446,Albums!$C:$C,0))</f>
         <v>2100</v>
       </c>
       <c r="C446" t="s">
@@ -18924,8 +21243,13 @@
         <v>5627789</v>
       </c>
     </row>
-    <row r="447" spans="2:12">
+    <row r="447" spans="1:12">
+      <c r="A447" s="8">
+        <f>INDEX(Albums!$A:$A, MATCH(C447,Albums!$C:$C,0))</f>
+        <v>44</v>
+      </c>
       <c r="B447">
+        <f>INDEX(Albums!$B:$B, MATCH(C447,Albums!$C:$C,0))</f>
         <v>2100</v>
       </c>
       <c r="C447" t="s">

--- a/WorshipCreator.TestData/Source/Books/ShaneAndShane/ShaneAndShane.xlsx
+++ b/WorshipCreator.TestData/Source/Books/ShaneAndShane/ShaneAndShane.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\PageOptimizer\Data\WorshipCreator.TestData\Source\Books\ShaneAndShane\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D127E837-D490-4C03-9184-A3DEB1352DBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E0440A-D160-4DF0-9654-3AF1BDB58C0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{1898BBCD-4A5D-4B3F-9317-061045B18130}"/>
   </bookViews>
